--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_5/forecast_point_GW2.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_5/forecast_point_GW2.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.518192709983617</v>
+        <v>2.4433949067167773</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4931917802465224</v>
+        <v>2.4052626941818773</v>
       </c>
       <c r="D2" t="n">
-        <v>2.6186639839994235</v>
+        <v>2.5202312257790744</v>
       </c>
       <c r="E2" t="n">
-        <v>2.5747107519340955</v>
+        <v>2.4735602764136932</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2902459041592085</v>
+        <v>2.2017404661256186</v>
       </c>
       <c r="G2" t="n">
-        <v>2.518192709983617</v>
+        <v>2.2423993555569486</v>
       </c>
       <c r="H2" t="n">
-        <v>2.4931917802465224</v>
+        <v>2.468988076981439</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6186639839994235</v>
+        <v>2.4168683049725757</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5747107519340955</v>
+        <v>2.444885690442478</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2902459041592085</v>
+        <v>2.3297486326079295</v>
       </c>
       <c r="L2" t="n">
-        <v>2.518192709983617</v>
+        <v>2.1235652615889262</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>2.741166417557223</v>
+        <v>2.7140261559972503</v>
       </c>
       <c r="C10" t="n">
-        <v>2.6266666388365807</v>
+        <v>2.5982236917253405</v>
       </c>
       <c r="D10" t="n">
-        <v>2.4789531802790807</v>
+        <v>2.4441147646052275</v>
       </c>
       <c r="E10" t="n">
-        <v>2.8534449935248776</v>
+        <v>2.7976659574164024</v>
       </c>
       <c r="F10" t="n">
-        <v>2.820158142540708</v>
+        <v>2.7458573277540714</v>
       </c>
       <c r="G10" t="n">
-        <v>2.741166417557223</v>
+        <v>2.7140261559972503</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6266666388365807</v>
+        <v>2.3864210684209315</v>
       </c>
       <c r="I10" t="n">
-        <v>2.4789531802790807</v>
+        <v>2.4414318728536766</v>
       </c>
       <c r="J10" t="n">
-        <v>2.8534449935248776</v>
+        <v>2.712371262257103</v>
       </c>
       <c r="K10" t="n">
-        <v>2.820158142540708</v>
+        <v>2.4726452873755203</v>
       </c>
       <c r="L10" t="n">
-        <v>2.741166417557223</v>
+        <v>2.501849759508</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4.218112762460495</v>
+        <v>4.176349269762866</v>
       </c>
       <c r="C13" t="n">
-        <v>4.413621035324846</v>
+        <v>4.378354915836945</v>
       </c>
       <c r="D13" t="n">
-        <v>4.540596212888961</v>
+        <v>4.525997115352123</v>
       </c>
       <c r="E13" t="n">
-        <v>4.416745613645175</v>
+        <v>4.356303883031911</v>
       </c>
       <c r="F13" t="n">
-        <v>4.829518653744148</v>
+        <v>4.7180091124775325</v>
       </c>
       <c r="G13" t="n">
-        <v>4.218112762460495</v>
+        <v>4.723734855706788</v>
       </c>
       <c r="H13" t="n">
-        <v>4.413621035324846</v>
+        <v>4.12544517193453</v>
       </c>
       <c r="I13" t="n">
-        <v>4.540596212888961</v>
+        <v>4.749673603165301</v>
       </c>
       <c r="J13" t="n">
-        <v>4.416745613645175</v>
+        <v>4.796497252043818</v>
       </c>
       <c r="K13" t="n">
-        <v>4.829518653744148</v>
+        <v>4.69524429519548</v>
       </c>
       <c r="L13" t="n">
-        <v>4.218112762460495</v>
+        <v>4.277315955448657</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.6206330919444383</v>
+        <v>1.6370031231762003</v>
       </c>
       <c r="C19" t="n">
-        <v>1.5509284142363509</v>
+        <v>1.5578828223418908</v>
       </c>
       <c r="D19" t="n">
-        <v>1.563922589673926</v>
+        <v>1.5683442625398614</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5893851595834974</v>
+        <v>1.5762830133046</v>
       </c>
       <c r="F19" t="n">
-        <v>1.6520537685913146</v>
+        <v>1.6294367424143417</v>
       </c>
       <c r="G19" t="n">
-        <v>1.6206330919444383</v>
+        <v>1.762661130556159</v>
       </c>
       <c r="H19" t="n">
-        <v>1.5509284142363509</v>
+        <v>1.5399072511739573</v>
       </c>
       <c r="I19" t="n">
-        <v>1.563922589673926</v>
+        <v>1.4852311591548575</v>
       </c>
       <c r="J19" t="n">
-        <v>1.5893851595834974</v>
+        <v>1.7006257271361782</v>
       </c>
       <c r="K19" t="n">
-        <v>1.6520537685913146</v>
+        <v>1.7300192572506325</v>
       </c>
       <c r="L19" t="n">
-        <v>1.6206330919444383</v>
+        <v>1.6985643611746906</v>
       </c>
     </row>
     <row r="20">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>3.508277921868055</v>
+        <v>3.473195142649374</v>
       </c>
       <c r="C26" t="n">
-        <v>3.0801048410975467</v>
+        <v>3.0369750864904788</v>
       </c>
       <c r="D26" t="n">
-        <v>3.5535043433684868</v>
+        <v>3.4943731621434972</v>
       </c>
       <c r="E26" t="n">
-        <v>3.454330583601608</v>
+        <v>3.456436664460296</v>
       </c>
       <c r="F26" t="n">
-        <v>3.1612507255645457</v>
+        <v>3.2051297474074736</v>
       </c>
       <c r="G26" t="n">
-        <v>3.508277921868055</v>
+        <v>3.4398391284804117</v>
       </c>
       <c r="H26" t="n">
-        <v>3.0801048410975467</v>
+        <v>3.2231563492030664</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5535043433684868</v>
+        <v>3.2069233284091267</v>
       </c>
       <c r="J26" t="n">
-        <v>3.454330583601608</v>
+        <v>3.4965051771637996</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1612507255645457</v>
+        <v>3.0744484912897088</v>
       </c>
       <c r="L26" t="n">
-        <v>3.508277921868055</v>
+        <v>3.1453194230506307</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>4.115965120459119</v>
+        <v>4.199115930973445</v>
       </c>
       <c r="C31" t="n">
-        <v>4.530160975853457</v>
+        <v>4.626013114589758</v>
       </c>
       <c r="D31" t="n">
-        <v>4.45064645482862</v>
+        <v>4.580853740487612</v>
       </c>
       <c r="E31" t="n">
-        <v>4.46686995432555</v>
+        <v>4.580853740487612</v>
       </c>
       <c r="F31" t="n">
-        <v>4.161276426473962</v>
+        <v>4.222733006332849</v>
       </c>
       <c r="G31" t="n">
-        <v>4.115965120459119</v>
+        <v>4.6345798042118425</v>
       </c>
       <c r="H31" t="n">
-        <v>4.530160975853457</v>
+        <v>4.5558369460199435</v>
       </c>
       <c r="I31" t="n">
-        <v>4.45064645482862</v>
+        <v>4.722024707590463</v>
       </c>
       <c r="J31" t="n">
-        <v>4.46686995432555</v>
+        <v>4.550314715551027</v>
       </c>
       <c r="K31" t="n">
-        <v>4.161276426473962</v>
+        <v>4.125285320807423</v>
       </c>
       <c r="L31" t="n">
-        <v>4.115965120459119</v>
+        <v>4.528359038780205</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1.6941974398178123</v>
+        <v>1.7118453298159146</v>
       </c>
       <c r="C32" t="n">
-        <v>1.6753536411477856</v>
+        <v>1.7022712506360862</v>
       </c>
       <c r="D32" t="n">
-        <v>1.8201555551170514</v>
+        <v>1.844643026998584</v>
       </c>
       <c r="E32" t="n">
-        <v>1.6432261265660846</v>
+        <v>1.6723412065104877</v>
       </c>
       <c r="F32" t="n">
-        <v>1.8297057246990325</v>
+        <v>1.8468816730186388</v>
       </c>
       <c r="G32" t="n">
-        <v>1.6941974398178123</v>
+        <v>1.857023181542199</v>
       </c>
       <c r="H32" t="n">
-        <v>1.6753536411477856</v>
+        <v>1.914252198953006</v>
       </c>
       <c r="I32" t="n">
-        <v>1.8201555551170514</v>
+        <v>1.8788030835956295</v>
       </c>
       <c r="J32" t="n">
-        <v>1.6432261265660846</v>
+        <v>1.61296290198936</v>
       </c>
       <c r="K32" t="n">
-        <v>1.8297057246990325</v>
+        <v>1.875330250338221</v>
       </c>
       <c r="L32" t="n">
-        <v>1.6941974398178123</v>
+        <v>1.857023181542199</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.3028878620737616</v>
+        <v>1.316048345529052</v>
       </c>
       <c r="C34" t="n">
-        <v>1.220733511186364</v>
+        <v>1.226937069715755</v>
       </c>
       <c r="D34" t="n">
-        <v>1.3154467059669823</v>
+        <v>1.3304226604920264</v>
       </c>
       <c r="E34" t="n">
-        <v>1.3280686908330523</v>
+        <v>1.3288100258346944</v>
       </c>
       <c r="F34" t="n">
-        <v>1.3227421346270745</v>
+        <v>1.3377282139275448</v>
       </c>
       <c r="G34" t="n">
-        <v>1.3028878620737616</v>
+        <v>1.2331476625257274</v>
       </c>
       <c r="H34" t="n">
-        <v>1.220733511186364</v>
+        <v>1.3534176192957945</v>
       </c>
       <c r="I34" t="n">
-        <v>1.3154467059669823</v>
+        <v>1.350915923529755</v>
       </c>
       <c r="J34" t="n">
-        <v>1.3280686908330523</v>
+        <v>1.3223983982351026</v>
       </c>
       <c r="K34" t="n">
-        <v>1.3227421346270745</v>
+        <v>1.3789538012043872</v>
       </c>
       <c r="L34" t="n">
-        <v>1.3028878620737616</v>
+        <v>1.2747305485004923</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>4.214991483746022</v>
+        <v>4.130691654071102</v>
       </c>
       <c r="C38" t="n">
-        <v>3.7728009999166434</v>
+        <v>3.715808795318803</v>
       </c>
       <c r="D38" t="n">
-        <v>3.8359194788401485</v>
+        <v>3.7864673515427913</v>
       </c>
       <c r="E38" t="n">
-        <v>4.196323505264592</v>
+        <v>4.128172940039663</v>
       </c>
       <c r="F38" t="n">
-        <v>4.143215407059358</v>
+        <v>4.0637476735804094</v>
       </c>
       <c r="G38" t="n">
-        <v>4.214991483746022</v>
+        <v>3.632083489189399</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7728009999166434</v>
+        <v>4.083355624913652</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8359194788401485</v>
+        <v>3.936164897368052</v>
       </c>
       <c r="J38" t="n">
-        <v>4.196323505264592</v>
+        <v>3.7198921010535013</v>
       </c>
       <c r="K38" t="n">
-        <v>4.143215407059358</v>
+        <v>4.103153709710627</v>
       </c>
       <c r="L38" t="n">
-        <v>4.214991483746022</v>
+        <v>4.108133268675411</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2.3350080049753776</v>
+        <v>2.3121157696324817</v>
       </c>
       <c r="C45" t="n">
-        <v>2.5663328615376475</v>
+        <v>2.5362782120758687</v>
       </c>
       <c r="D45" t="n">
-        <v>2.24471099349441</v>
+        <v>2.2042905508575217</v>
       </c>
       <c r="E45" t="n">
-        <v>2.306706073398223</v>
+        <v>2.326340195515726</v>
       </c>
       <c r="F45" t="n">
-        <v>2.440528988476971</v>
+        <v>2.429541350448679</v>
       </c>
       <c r="G45" t="n">
-        <v>2.3350080049753776</v>
+        <v>2.2829287979675605</v>
       </c>
       <c r="H45" t="n">
-        <v>2.5663328615376475</v>
+        <v>2.41831178425304</v>
       </c>
       <c r="I45" t="n">
-        <v>2.24471099349441</v>
+        <v>2.520906828733137</v>
       </c>
       <c r="J45" t="n">
-        <v>2.306706073398223</v>
+        <v>2.6160353898444333</v>
       </c>
       <c r="K45" t="n">
-        <v>2.440528988476971</v>
+        <v>2.5378256665098697</v>
       </c>
       <c r="L45" t="n">
-        <v>2.3350080049753776</v>
+        <v>2.5628442820720743</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.6679322800189211</v>
+        <v>1.684780080827193</v>
       </c>
       <c r="C51" t="n">
-        <v>1.6209999647901367</v>
+        <v>1.6468182975928984</v>
       </c>
       <c r="D51" t="n">
-        <v>1.8385374681981237</v>
+        <v>1.8728915835458213</v>
       </c>
       <c r="E51" t="n">
-        <v>1.8153381664339667</v>
+        <v>1.8728915835458213</v>
       </c>
       <c r="F51" t="n">
-        <v>1.702022821699563</v>
+        <v>1.717778011621927</v>
       </c>
       <c r="G51" t="n">
-        <v>1.6679322800189211</v>
+        <v>1.7846914572922588</v>
       </c>
       <c r="H51" t="n">
-        <v>1.6209999647901367</v>
+        <v>1.860405639655516</v>
       </c>
       <c r="I51" t="n">
-        <v>1.8385374681981237</v>
+        <v>1.6866314872220578</v>
       </c>
       <c r="J51" t="n">
-        <v>1.8153381664339667</v>
+        <v>1.8948575964915761</v>
       </c>
       <c r="K51" t="n">
-        <v>1.702022821699563</v>
+        <v>1.8626634150732773</v>
       </c>
       <c r="L51" t="n">
-        <v>1.6679322800189211</v>
+        <v>1.9306096271915045</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.6054194176540082</v>
+        <v>1.6216357754080892</v>
       </c>
       <c r="C59" t="n">
-        <v>1.6326594296333785</v>
+        <v>1.6552923669929298</v>
       </c>
       <c r="D59" t="n">
-        <v>1.5772748624353066</v>
+        <v>1.57978083025352</v>
       </c>
       <c r="E59" t="n">
-        <v>1.5298453290261773</v>
+        <v>1.53728855056909</v>
       </c>
       <c r="F59" t="n">
-        <v>1.4318138278904402</v>
+        <v>1.444519683615124</v>
       </c>
       <c r="G59" t="n">
-        <v>1.6054194176540082</v>
+        <v>1.4629876950189973</v>
       </c>
       <c r="H59" t="n">
-        <v>1.6326594296333785</v>
+        <v>1.6058052849133444</v>
       </c>
       <c r="I59" t="n">
-        <v>1.5772748624353066</v>
+        <v>1.5970357185740582</v>
       </c>
       <c r="J59" t="n">
-        <v>1.5298453290261773</v>
+        <v>1.5301830598404698</v>
       </c>
       <c r="K59" t="n">
-        <v>1.4318138278904402</v>
+        <v>1.3947614537760802</v>
       </c>
       <c r="L59" t="n">
-        <v>1.6054194176540082</v>
+        <v>1.624638804155279</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>1.9929803783159201</v>
       </c>
       <c r="C62" t="n">
-        <v>1.7643841242455083</v>
+        <v>1.7739715457811736</v>
       </c>
       <c r="D62" t="n">
-        <v>1.7742762335703892</v>
+        <v>1.7720242666694948</v>
       </c>
       <c r="E62" t="n">
-        <v>1.7358216196983214</v>
+        <v>1.710984744853746</v>
       </c>
       <c r="F62" t="n">
-        <v>1.7928510002330154</v>
+        <v>1.7946793850012097</v>
       </c>
       <c r="G62" t="n">
-        <v>1.9929803783159201</v>
+        <v>1.9686757391753837</v>
       </c>
       <c r="H62" t="n">
-        <v>1.7643841242455083</v>
+        <v>1.8858258889654644</v>
       </c>
       <c r="I62" t="n">
-        <v>1.7742762335703892</v>
+        <v>1.9698768834296665</v>
       </c>
       <c r="J62" t="n">
-        <v>1.7358216196983214</v>
+        <v>1.8057204774202948</v>
       </c>
       <c r="K62" t="n">
-        <v>1.7928510002330154</v>
+        <v>1.937952108913173</v>
       </c>
       <c r="L62" t="n">
-        <v>1.9929803783159201</v>
+        <v>1.8067309531881528</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>2.5589995080629264</v>
+        <v>2.4822295228210383</v>
       </c>
       <c r="C65" t="n">
-        <v>2.4555311729351113</v>
+        <v>2.391966629677232</v>
       </c>
       <c r="D65" t="n">
-        <v>2.5333077065190635</v>
+        <v>2.4362623087067767</v>
       </c>
       <c r="E65" t="n">
-        <v>2.3909384196773535</v>
+        <v>2.294619151393011</v>
       </c>
       <c r="F65" t="n">
-        <v>2.4364232579953073</v>
+        <v>2.408020096990502</v>
       </c>
       <c r="G65" t="n">
-        <v>2.5589995080629264</v>
+        <v>2.1685411761840663</v>
       </c>
       <c r="H65" t="n">
-        <v>2.4555311729351113</v>
+        <v>2.2085869841556605</v>
       </c>
       <c r="I65" t="n">
-        <v>2.5333077065190635</v>
+        <v>2.117352435952342</v>
       </c>
       <c r="J65" t="n">
-        <v>2.3909384196773535</v>
+        <v>2.166160780091896</v>
       </c>
       <c r="K65" t="n">
-        <v>2.4364232579953073</v>
+        <v>2.4065517922817015</v>
       </c>
       <c r="L65" t="n">
-        <v>2.5589995080629264</v>
+        <v>2.305274343921177</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>3.861863015326035</v>
+        <v>3.8236267478475594</v>
       </c>
       <c r="C69" t="n">
-        <v>3.8235219600455284</v>
+        <v>3.763954303003607</v>
       </c>
       <c r="D69" t="n">
-        <v>4.015944271969358</v>
+        <v>3.9438665846275756</v>
       </c>
       <c r="E69" t="n">
-        <v>3.948538246749693</v>
+        <v>3.870832017087817</v>
       </c>
       <c r="F69" t="n">
-        <v>3.5122871725460296</v>
+        <v>3.4454658618440446</v>
       </c>
       <c r="G69" t="n">
-        <v>3.861863015326035</v>
+        <v>3.509092259991984</v>
       </c>
       <c r="H69" t="n">
-        <v>3.8235219600455284</v>
+        <v>3.863677060679582</v>
       </c>
       <c r="I69" t="n">
-        <v>4.015944271969358</v>
+        <v>3.782115724115862</v>
       </c>
       <c r="J69" t="n">
-        <v>3.948538246749693</v>
+        <v>3.8259596497101183</v>
       </c>
       <c r="K69" t="n">
-        <v>3.5122871725460296</v>
+        <v>3.6457836442701255</v>
       </c>
       <c r="L69" t="n">
-        <v>3.861863015326035</v>
+        <v>3.3231308261675543</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>4.0173593501044005</v>
+        <v>3.9775835149548513</v>
       </c>
       <c r="C76" t="n">
-        <v>3.9774745079148306</v>
+        <v>3.9155083835257787</v>
       </c>
       <c r="D76" t="n">
-        <v>4.177644625525965</v>
+        <v>4.102664759583733</v>
       </c>
       <c r="E76" t="n">
-        <v>4.107524524270449</v>
+        <v>4.0266894850537245</v>
       </c>
       <c r="F76" t="n">
-        <v>3.653707978994253</v>
+        <v>3.5841961355473178</v>
       </c>
       <c r="G76" t="n">
-        <v>4.0173593501044005</v>
+        <v>3.6503844245929638</v>
       </c>
       <c r="H76" t="n">
-        <v>3.9774745079148306</v>
+        <v>4.019246437252148</v>
       </c>
       <c r="I76" t="n">
-        <v>4.177644625525965</v>
+        <v>3.9344010668309477</v>
       </c>
       <c r="J76" t="n">
-        <v>4.107524524270449</v>
+        <v>3.9800103501567303</v>
       </c>
       <c r="K76" t="n">
-        <v>3.653707978994253</v>
+        <v>3.7925796315511646</v>
       </c>
       <c r="L76" t="n">
-        <v>4.0173593501044005</v>
+        <v>3.45693532969535</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2.8473042709173226</v>
+        <v>2.8191131395221016</v>
       </c>
       <c r="C79" t="n">
-        <v>2.819035880759924</v>
+        <v>2.7751173772731605</v>
       </c>
       <c r="D79" t="n">
-        <v>2.960906493048913</v>
+        <v>2.9077644975426913</v>
       </c>
       <c r="E79" t="n">
-        <v>2.9112088567702967</v>
+        <v>2.853917005993849</v>
       </c>
       <c r="F79" t="n">
-        <v>2.5895662863728344</v>
+        <v>2.54029975294195</v>
       </c>
       <c r="G79" t="n">
-        <v>2.8473042709173226</v>
+        <v>2.5872107165029967</v>
       </c>
       <c r="H79" t="n">
-        <v>2.819035880759924</v>
+        <v>2.8486417443238867</v>
       </c>
       <c r="I79" t="n">
-        <v>2.960906493048913</v>
+        <v>2.7885075704761904</v>
       </c>
       <c r="J79" t="n">
-        <v>2.9112088567702967</v>
+        <v>2.82083315947375</v>
       </c>
       <c r="K79" t="n">
-        <v>2.5895662863728344</v>
+        <v>2.687991598866815</v>
       </c>
       <c r="L79" t="n">
-        <v>2.8473042709173226</v>
+        <v>2.4501036304533623</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2.6735409236717156</v>
+        <v>2.620599519242573</v>
       </c>
       <c r="C90" t="n">
-        <v>2.561865892852613</v>
+        <v>2.508783396348001</v>
       </c>
       <c r="D90" t="n">
-        <v>2.417796574805702</v>
+        <v>2.359979458173145</v>
       </c>
       <c r="E90" t="n">
-        <v>2.78304954955391</v>
+        <v>2.7013601349441694</v>
       </c>
       <c r="F90" t="n">
-        <v>2.7505838963355087</v>
+        <v>2.6513349464670033</v>
       </c>
       <c r="G90" t="n">
-        <v>2.6735409236717156</v>
+        <v>2.620599519242573</v>
       </c>
       <c r="H90" t="n">
-        <v>2.561865892852613</v>
+        <v>2.3042717885363584</v>
       </c>
       <c r="I90" t="n">
-        <v>2.417796574805702</v>
+        <v>2.3573889212990777</v>
       </c>
       <c r="J90" t="n">
-        <v>2.78304954955391</v>
+        <v>2.6190015929550006</v>
       </c>
       <c r="K90" t="n">
-        <v>2.7505838963355087</v>
+        <v>2.3875278567360527</v>
       </c>
       <c r="L90" t="n">
-        <v>2.6735409236717156</v>
+        <v>2.4157270048765347</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2.3772333176712404</v>
+        <v>2.3301593905886415</v>
       </c>
       <c r="C93" t="n">
-        <v>2.277935191480399</v>
+        <v>2.2307358095077343</v>
       </c>
       <c r="D93" t="n">
-        <v>2.1498330255913745</v>
+        <v>2.098423759784498</v>
       </c>
       <c r="E93" t="n">
-        <v>2.4746051408270375</v>
+        <v>2.4019693354829252</v>
       </c>
       <c r="F93" t="n">
-        <v>2.4457376446060515</v>
+        <v>2.3574884211577456</v>
       </c>
       <c r="G93" t="n">
-        <v>2.3772333176712404</v>
+        <v>2.3301593905886415</v>
       </c>
       <c r="H93" t="n">
-        <v>2.277935191480399</v>
+        <v>2.0488901517002356</v>
       </c>
       <c r="I93" t="n">
-        <v>2.1498330255913745</v>
+        <v>2.0961203312066288</v>
       </c>
       <c r="J93" t="n">
-        <v>2.4746051408270375</v>
+        <v>2.3287385619129455</v>
       </c>
       <c r="K93" t="n">
-        <v>2.4457376446060515</v>
+        <v>2.12291897896457</v>
       </c>
       <c r="L93" t="n">
-        <v>2.3772333176712404</v>
+        <v>2.1479928253740117</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2.5402077372978393</v>
+        <v>2.4899065939850105</v>
       </c>
       <c r="C94" t="n">
-        <v>2.434102094837701</v>
+        <v>2.383666895906495</v>
       </c>
       <c r="D94" t="n">
-        <v>2.297217713091494</v>
+        <v>2.2422840160914217</v>
       </c>
       <c r="E94" t="n">
-        <v>2.6442550164338448</v>
+        <v>2.5666395659989156</v>
       </c>
       <c r="F94" t="n">
-        <v>2.6134084702779132</v>
+        <v>2.5191092029121362</v>
       </c>
       <c r="G94" t="n">
-        <v>2.5402077372978393</v>
+        <v>2.4899065939850105</v>
       </c>
       <c r="H94" t="n">
-        <v>2.434102094837701</v>
+        <v>2.189354565045707</v>
       </c>
       <c r="I94" t="n">
-        <v>2.297217713091494</v>
+        <v>2.239822672876887</v>
       </c>
       <c r="J94" t="n">
-        <v>2.6442550164338448</v>
+        <v>2.488388358493126</v>
       </c>
       <c r="K94" t="n">
-        <v>2.6134084702779132</v>
+        <v>2.268458537887616</v>
       </c>
       <c r="L94" t="n">
-        <v>2.5402077372978393</v>
+        <v>2.2952513554792335</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2.7040570047386763</v>
+        <v>2.6505113214765244</v>
       </c>
       <c r="C97" t="n">
-        <v>2.5911073032147205</v>
+        <v>2.537418917437111</v>
       </c>
       <c r="D97" t="n">
-        <v>2.4453935626157346</v>
+        <v>2.3869165152513916</v>
       </c>
       <c r="E97" t="n">
-        <v>2.8148155737488643</v>
+        <v>2.7321937474537545</v>
       </c>
       <c r="F97" t="n">
-        <v>2.781979354104218</v>
+        <v>2.681597566143285</v>
       </c>
       <c r="G97" t="n">
-        <v>2.7040570047386763</v>
+        <v>2.6505113214765244</v>
       </c>
       <c r="H97" t="n">
-        <v>2.5911073032147205</v>
+        <v>2.3305729923356684</v>
       </c>
       <c r="I97" t="n">
-        <v>2.4453935626157346</v>
+        <v>2.384296409713327</v>
       </c>
       <c r="J97" t="n">
-        <v>2.8148155737488643</v>
+        <v>2.648895156287988</v>
       </c>
       <c r="K97" t="n">
-        <v>2.781979354104218</v>
+        <v>2.414779354171792</v>
       </c>
       <c r="L97" t="n">
-        <v>2.7040570047386763</v>
+        <v>2.4433003703948066</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3.509891938353527</v>
+        <v>3.440389127693061</v>
       </c>
       <c r="C100" t="n">
-        <v>3.672574386512577</v>
+        <v>3.606797151446624</v>
       </c>
       <c r="D100" t="n">
-        <v>3.778230441056584</v>
+        <v>3.728421705618442</v>
       </c>
       <c r="E100" t="n">
-        <v>3.675174348361601</v>
+        <v>3.5886319720958193</v>
       </c>
       <c r="F100" t="n">
-        <v>4.0186428252374915</v>
+        <v>3.8865971705106297</v>
       </c>
       <c r="G100" t="n">
-        <v>3.509891938353527</v>
+        <v>3.891313917957141</v>
       </c>
       <c r="H100" t="n">
-        <v>3.672574386512577</v>
+        <v>3.3984553971998794</v>
       </c>
       <c r="I100" t="n">
-        <v>3.778230441056584</v>
+        <v>3.9126817152791578</v>
       </c>
       <c r="J100" t="n">
-        <v>3.675174348361601</v>
+        <v>3.9512540573212576</v>
       </c>
       <c r="K100" t="n">
-        <v>4.0186428252374915</v>
+        <v>3.867843990445415</v>
       </c>
       <c r="L100" t="n">
-        <v>3.509891938353527</v>
+        <v>3.5235633703761495</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3.037014290334586</v>
+        <v>2.9167364966579687</v>
       </c>
       <c r="C101" t="n">
-        <v>3.1777790000530897</v>
+        <v>3.057815990344255</v>
       </c>
       <c r="D101" t="n">
-        <v>3.2692003181866163</v>
+        <v>3.160928389225881</v>
       </c>
       <c r="E101" t="n">
-        <v>3.1800286765184897</v>
+        <v>3.042415685432713</v>
       </c>
       <c r="F101" t="n">
-        <v>3.47722263316231</v>
+        <v>3.2950283803034157</v>
       </c>
       <c r="G101" t="n">
-        <v>3.037014290334586</v>
+        <v>3.299027203957408</v>
       </c>
       <c r="H101" t="n">
-        <v>3.1777790000530897</v>
+        <v>2.881185389608489</v>
       </c>
       <c r="I101" t="n">
-        <v>3.2692003181866163</v>
+        <v>3.317142664734982</v>
       </c>
       <c r="J101" t="n">
-        <v>3.1800286765184897</v>
+        <v>3.3498440114780488</v>
       </c>
       <c r="K101" t="n">
-        <v>3.47722263316231</v>
+        <v>3.2791295727283294</v>
       </c>
       <c r="L101" t="n">
-        <v>3.037014290334586</v>
+        <v>2.987251005398532</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>3.752525071262248</v>
+        <v>3.678217644108541</v>
       </c>
       <c r="C104" t="n">
-        <v>3.926453493018026</v>
+        <v>3.8561291844528207</v>
       </c>
       <c r="D104" t="n">
-        <v>4.039413379125808</v>
+        <v>3.9861614466497404</v>
       </c>
       <c r="E104" t="n">
-        <v>3.929233186009761</v>
+        <v>3.836708275736798</v>
       </c>
       <c r="F104" t="n">
-        <v>4.296445081219742</v>
+        <v>4.1552713247005535</v>
       </c>
       <c r="G104" t="n">
-        <v>3.752525071262248</v>
+        <v>4.160314133242445</v>
       </c>
       <c r="H104" t="n">
-        <v>3.926453493018026</v>
+        <v>3.6333851028876176</v>
       </c>
       <c r="I104" t="n">
-        <v>4.039413379125808</v>
+        <v>4.183159051711967</v>
       </c>
       <c r="J104" t="n">
-        <v>3.929233186009761</v>
+        <v>4.224397837153943</v>
       </c>
       <c r="K104" t="n">
-        <v>4.296445081219742</v>
+        <v>4.135221767735098</v>
       </c>
       <c r="L104" t="n">
-        <v>3.752525071262248</v>
+        <v>3.7671415871909453</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>1.5762847729428202</v>
+        <v>1.5925351314267668</v>
       </c>
       <c r="C106" t="n">
-        <v>1.5084875505978677</v>
+        <v>1.5155640756579685</v>
       </c>
       <c r="D106" t="n">
-        <v>1.5211261428745575</v>
+        <v>1.5257413384894913</v>
       </c>
       <c r="E106" t="n">
-        <v>1.5458919343593496</v>
+        <v>1.5334644388999277</v>
       </c>
       <c r="F106" t="n">
-        <v>1.6068456286974115</v>
+        <v>1.585174285860613</v>
       </c>
       <c r="G106" t="n">
-        <v>1.5762847729428202</v>
+        <v>1.7147797310029698</v>
       </c>
       <c r="H106" t="n">
-        <v>1.5084875505978677</v>
+        <v>1.498076797724831</v>
       </c>
       <c r="I106" t="n">
-        <v>1.5211261428745575</v>
+        <v>1.4448859417290318</v>
       </c>
       <c r="J106" t="n">
-        <v>1.5458919343593496</v>
+        <v>1.6544294739143535</v>
       </c>
       <c r="K106" t="n">
-        <v>1.6068456286974115</v>
+        <v>1.6830245502958177</v>
       </c>
       <c r="L106" t="n">
-        <v>1.5762847729428202</v>
+        <v>1.6524241034505347</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>1.4367611166592371</v>
+        <v>1.4515730869340746</v>
       </c>
       <c r="C107" t="n">
-        <v>1.3749649142504088</v>
+        <v>1.381415066038931</v>
       </c>
       <c r="D107" t="n">
-        <v>1.3864848110762575</v>
+        <v>1.390691496136682</v>
       </c>
       <c r="E107" t="n">
-        <v>1.409058477230635</v>
+        <v>1.3977309921466914</v>
       </c>
       <c r="F107" t="n">
-        <v>1.4646169013459431</v>
+        <v>1.444863781054377</v>
       </c>
       <c r="G107" t="n">
-        <v>1.4367611166592371</v>
+        <v>1.5629972980966078</v>
       </c>
       <c r="H107" t="n">
-        <v>1.3749649142504088</v>
+        <v>1.3654756613058394</v>
       </c>
       <c r="I107" t="n">
-        <v>1.3864848110762575</v>
+        <v>1.316992953759341</v>
       </c>
       <c r="J107" t="n">
-        <v>1.409058477230635</v>
+        <v>1.5079888984383198</v>
       </c>
       <c r="K107" t="n">
-        <v>1.4646169013459431</v>
+        <v>1.5340529032285755</v>
       </c>
       <c r="L107" t="n">
-        <v>1.4367611166592371</v>
+        <v>1.5061610318266716</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>1.2782313394767282</v>
+        <v>1.2914089821517458</v>
       </c>
       <c r="C111" t="n">
-        <v>1.2232536249048866</v>
+        <v>1.2289920779190115</v>
       </c>
       <c r="D111" t="n">
-        <v>1.233502435914317</v>
+        <v>1.2372449625022064</v>
       </c>
       <c r="E111" t="n">
-        <v>1.2535853621508666</v>
+        <v>1.243507732499099</v>
       </c>
       <c r="F111" t="n">
-        <v>1.3030135642734675</v>
+        <v>1.2854399696679544</v>
       </c>
       <c r="G111" t="n">
-        <v>1.2782313394767282</v>
+        <v>1.3905388354258879</v>
       </c>
       <c r="H111" t="n">
-        <v>1.2232536249048866</v>
+        <v>1.214811399985706</v>
       </c>
       <c r="I111" t="n">
-        <v>1.233502435914317</v>
+        <v>1.1716781919039638</v>
       </c>
       <c r="J111" t="n">
-        <v>1.2535853621508666</v>
+        <v>1.341599968997502</v>
       </c>
       <c r="K111" t="n">
-        <v>1.3030135642734675</v>
+        <v>1.3647881158431256</v>
       </c>
       <c r="L111" t="n">
-        <v>1.2782313394767282</v>
+        <v>1.3399737860779473</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>1.9058943034131333</v>
+        <v>1.9443972186336003</v>
       </c>
       <c r="C116" t="n">
-        <v>1.9855492470696479</v>
+        <v>2.0171068862188397</v>
       </c>
       <c r="D116" t="n">
-        <v>1.8276769024449206</v>
+        <v>1.8590123494026192</v>
       </c>
       <c r="E116" t="n">
-        <v>1.7821999978284837</v>
+        <v>1.8355451245000454</v>
       </c>
       <c r="F116" t="n">
-        <v>1.972239769842161</v>
+        <v>2.0392458629004095</v>
       </c>
       <c r="G116" t="n">
-        <v>1.9058943034131333</v>
+        <v>1.7723175498115276</v>
       </c>
       <c r="H116" t="n">
-        <v>1.9855492470696479</v>
+        <v>2.00742089820016</v>
       </c>
       <c r="I116" t="n">
-        <v>1.8276769024449206</v>
+        <v>1.880969188351278</v>
       </c>
       <c r="J116" t="n">
-        <v>1.7821999978284837</v>
+        <v>1.9534261360045697</v>
       </c>
       <c r="K116" t="n">
-        <v>1.972239769842161</v>
+        <v>1.871495924060262</v>
       </c>
       <c r="L116" t="n">
-        <v>1.9058943034131333</v>
+        <v>1.870449226278519</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>1.0297115529869292</v>
+        <v>1.040218813731694</v>
       </c>
       <c r="C117" t="n">
-        <v>1.0727473160870913</v>
+        <v>1.0791172257626958</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9874524616630592</v>
+        <v>0.994539388493417</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9628823194501522</v>
+        <v>0.9819848298796763</v>
       </c>
       <c r="F117" t="n">
-        <v>1.0655565067957176</v>
+        <v>1.0909611945979936</v>
       </c>
       <c r="G117" t="n">
-        <v>1.0297115529869292</v>
+        <v>0.9481591732148095</v>
       </c>
       <c r="H117" t="n">
-        <v>1.0727473160870913</v>
+        <v>1.0739353900400077</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9874524616630592</v>
+        <v>1.006285916798226</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9628823194501522</v>
+        <v>1.0450491280455108</v>
       </c>
       <c r="K117" t="n">
-        <v>1.0655565067957176</v>
+        <v>1.0012178845831357</v>
       </c>
       <c r="L117" t="n">
-        <v>1.0297115529869292</v>
+        <v>1.0006579194101628</v>
       </c>
     </row>
     <row r="118">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>2.6345125609498914</v>
+        <v>2.6616724842586534</v>
       </c>
       <c r="C126" t="n">
-        <v>2.6400741648428787</v>
+        <v>2.6762881332091975</v>
       </c>
       <c r="D126" t="n">
-        <v>2.609879166359973</v>
+        <v>2.645618970822682</v>
       </c>
       <c r="E126" t="n">
-        <v>2.3270489126696328</v>
+        <v>2.353238332704493</v>
       </c>
       <c r="F126" t="n">
-        <v>2.663061188409138</v>
+        <v>2.7026717516042837</v>
       </c>
       <c r="G126" t="n">
-        <v>2.6345125609498914</v>
+        <v>2.56209588040336</v>
       </c>
       <c r="H126" t="n">
-        <v>2.6400741648428787</v>
+        <v>2.407484222257297</v>
       </c>
       <c r="I126" t="n">
-        <v>2.609879166359973</v>
+        <v>2.4382636201260897</v>
       </c>
       <c r="J126" t="n">
-        <v>2.3270489126696328</v>
+        <v>2.6329149173942503</v>
       </c>
       <c r="K126" t="n">
-        <v>2.663061188409138</v>
+        <v>2.4532641233897334</v>
       </c>
       <c r="L126" t="n">
-        <v>2.6345125609498914</v>
+        <v>2.6762881332091975</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.1864379110113197</v>
+        <v>1.1984221323346662</v>
       </c>
       <c r="C127" t="n">
-        <v>1.236023895283541</v>
+        <v>1.243236470698142</v>
       </c>
       <c r="D127" t="n">
-        <v>1.1377468111726394</v>
+        <v>1.1457954796773362</v>
       </c>
       <c r="E127" t="n">
-        <v>1.10943699167438</v>
+        <v>1.131331541219595</v>
       </c>
       <c r="F127" t="n">
-        <v>1.227738615071436</v>
+        <v>1.2568817482104597</v>
       </c>
       <c r="G127" t="n">
-        <v>1.1864379110113197</v>
+        <v>1.092361456221319</v>
       </c>
       <c r="H127" t="n">
-        <v>1.236023895283541</v>
+        <v>1.2372665473183544</v>
       </c>
       <c r="I127" t="n">
-        <v>1.1377468111726394</v>
+        <v>1.1593284972624323</v>
       </c>
       <c r="J127" t="n">
-        <v>1.10943699167438</v>
+        <v>1.2039870726178017</v>
       </c>
       <c r="K127" t="n">
-        <v>1.227738615071436</v>
+        <v>1.1534896853761516</v>
       </c>
       <c r="L127" t="n">
-        <v>1.1864379110113197</v>
+        <v>1.1528445570168404</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>3.9582628687279575</v>
+        <v>3.9982453219474317</v>
       </c>
       <c r="C128" t="n">
-        <v>3.4751706950895827</v>
+        <v>3.4960809668670176</v>
       </c>
       <c r="D128" t="n">
-        <v>4.009290201481367</v>
+        <v>4.022624866975212</v>
       </c>
       <c r="E128" t="n">
-        <v>3.8973960415602056</v>
+        <v>3.978953429534117</v>
       </c>
       <c r="F128" t="n">
-        <v>3.5667246564886224</v>
+        <v>3.6896559198315604</v>
       </c>
       <c r="G128" t="n">
-        <v>3.9582628687279575</v>
+        <v>3.95984680930062</v>
       </c>
       <c r="H128" t="n">
-        <v>3.4751706950895827</v>
+        <v>3.710407640751238</v>
       </c>
       <c r="I128" t="n">
-        <v>4.009290201481367</v>
+        <v>3.691720640227295</v>
       </c>
       <c r="J128" t="n">
-        <v>3.8973960415602056</v>
+        <v>4.025079183168556</v>
       </c>
       <c r="K128" t="n">
-        <v>3.5667246564886224</v>
+        <v>3.5392193047035936</v>
       </c>
       <c r="L128" t="n">
-        <v>3.9582628687279575</v>
+        <v>3.6208039435554764</v>
       </c>
     </row>
     <row r="129">
@@ -5084,34 +5084,34 @@
         <v>4.480538660663903</v>
       </c>
       <c r="C132" t="n">
-        <v>3.9337045487226483</v>
+        <v>3.917800102678358</v>
       </c>
       <c r="D132" t="n">
-        <v>4.538298830903856</v>
+        <v>4.507859018778688</v>
       </c>
       <c r="E132" t="n">
-        <v>4.4116407169644996</v>
+        <v>4.458919659618434</v>
       </c>
       <c r="F132" t="n">
-        <v>4.03733866226932</v>
+        <v>4.1347252762621</v>
       </c>
       <c r="G132" t="n">
-        <v>4.480538660663903</v>
+        <v>4.437508279441015</v>
       </c>
       <c r="H132" t="n">
-        <v>3.9337045487226483</v>
+        <v>4.157980199451914</v>
       </c>
       <c r="I132" t="n">
-        <v>4.538298830903856</v>
+        <v>4.137039056135928</v>
       </c>
       <c r="J132" t="n">
-        <v>4.4116407169644996</v>
+        <v>4.510609389930105</v>
       </c>
       <c r="K132" t="n">
-        <v>4.03733866226932</v>
+        <v>3.9661420564280636</v>
       </c>
       <c r="L132" t="n">
-        <v>4.480538660663903</v>
+        <v>4.057567944300826</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>5.294403050966959</v>
+        <v>5.189563386591375</v>
       </c>
       <c r="C133" t="n">
-        <v>5.539797058816694</v>
+        <v>5.44057713976109</v>
       </c>
       <c r="D133" t="n">
-        <v>5.699171121424823</v>
+        <v>5.624038460505293</v>
       </c>
       <c r="E133" t="n">
-        <v>5.543718902049375</v>
+        <v>5.413176358578814</v>
       </c>
       <c r="F133" t="n">
-        <v>6.061814781871736</v>
+        <v>5.862634029435019</v>
       </c>
       <c r="G133" t="n">
-        <v>5.294403050966959</v>
+        <v>5.869748881547293</v>
       </c>
       <c r="H133" t="n">
-        <v>5.539797058816694</v>
+        <v>5.126309567225736</v>
       </c>
       <c r="I133" t="n">
-        <v>5.699171121424823</v>
+        <v>5.901980566545321</v>
       </c>
       <c r="J133" t="n">
-        <v>5.543718902049375</v>
+        <v>5.960163988991777</v>
       </c>
       <c r="K133" t="n">
-        <v>6.061814781871736</v>
+        <v>5.8343462942293645</v>
       </c>
       <c r="L133" t="n">
-        <v>5.294403050966959</v>
+        <v>5.315025358628548</v>
       </c>
     </row>
     <row r="134">
@@ -5312,34 +5312,34 @@
         <v>4.228411966396736</v>
       </c>
       <c r="C138" t="n">
-        <v>3.7123490378773965</v>
+        <v>3.6973395590924003</v>
       </c>
       <c r="D138" t="n">
-        <v>4.282921884404573</v>
+        <v>4.254194966595574</v>
       </c>
       <c r="E138" t="n">
-        <v>4.163391014305337</v>
+        <v>4.208009499272692</v>
       </c>
       <c r="F138" t="n">
-        <v>3.8101515029459008</v>
+        <v>3.9020580247195378</v>
       </c>
       <c r="G138" t="n">
-        <v>4.228411966396736</v>
+        <v>4.1878029698761</v>
       </c>
       <c r="H138" t="n">
-        <v>3.7123490378773965</v>
+        <v>3.924004358171971</v>
       </c>
       <c r="I138" t="n">
-        <v>4.282921884404573</v>
+        <v>3.90424160469665</v>
       </c>
       <c r="J138" t="n">
-        <v>4.163391014305337</v>
+        <v>4.256790570198057</v>
       </c>
       <c r="K138" t="n">
-        <v>3.8101515029459008</v>
+        <v>3.7429612379116977</v>
       </c>
       <c r="L138" t="n">
-        <v>4.228411966396736</v>
+        <v>3.829242452649024</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>4.686559360251837</v>
+        <v>4.781237327125611</v>
       </c>
       <c r="C153" t="n">
-        <v>4.6344328613183885</v>
+        <v>4.754496625760742</v>
       </c>
       <c r="D153" t="n">
-        <v>5.0349899329711585</v>
+        <v>5.152145431769844</v>
       </c>
       <c r="E153" t="n">
-        <v>4.545560395426403</v>
+        <v>4.670901080250087</v>
       </c>
       <c r="F153" t="n">
-        <v>5.061408008925304</v>
+        <v>5.158398039833715</v>
       </c>
       <c r="G153" t="n">
-        <v>4.686559360251837</v>
+        <v>5.186723589030045</v>
       </c>
       <c r="H153" t="n">
-        <v>4.6344328613183885</v>
+        <v>5.346566017240949</v>
       </c>
       <c r="I153" t="n">
-        <v>5.0349899329711585</v>
+        <v>5.247555533870646</v>
       </c>
       <c r="J153" t="n">
-        <v>4.545560395426403</v>
+        <v>4.505055626193571</v>
       </c>
       <c r="K153" t="n">
-        <v>5.061408008925304</v>
+        <v>5.237855802410099</v>
       </c>
       <c r="L153" t="n">
-        <v>4.686559360251837</v>
+        <v>5.186723589030045</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>3.3047336610054194</v>
+        <v>3.3714959571873466</v>
       </c>
       <c r="C154" t="n">
-        <v>3.2679765898976134</v>
+        <v>3.352639715512724</v>
       </c>
       <c r="D154" t="n">
-        <v>3.550429949834046</v>
+        <v>3.6330423080035774</v>
       </c>
       <c r="E154" t="n">
-        <v>3.205308050571992</v>
+        <v>3.293692203719269</v>
       </c>
       <c r="F154" t="n">
-        <v>3.5690586917646656</v>
+        <v>3.6374513430225295</v>
       </c>
       <c r="G154" t="n">
-        <v>3.3047336610054194</v>
+        <v>3.657425142285481</v>
       </c>
       <c r="H154" t="n">
-        <v>3.2679765898976134</v>
+        <v>3.7701382463689495</v>
       </c>
       <c r="I154" t="n">
-        <v>3.550429949834046</v>
+        <v>3.7003208703294246</v>
       </c>
       <c r="J154" t="n">
-        <v>3.205308050571992</v>
+        <v>3.1767460578550577</v>
       </c>
       <c r="K154" t="n">
-        <v>3.5690586917646656</v>
+        <v>3.6934810915927567</v>
       </c>
       <c r="L154" t="n">
-        <v>3.3047336610054194</v>
+        <v>3.657425142285481</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4.7235103455749075</v>
+        <v>4.818934797000662</v>
       </c>
       <c r="C156" t="n">
-        <v>4.670972857395623</v>
+        <v>4.791983259671133</v>
       </c>
       <c r="D156" t="n">
-        <v>5.0746881048737595</v>
+        <v>5.192767311404251</v>
       </c>
       <c r="E156" t="n">
-        <v>4.581399680186364</v>
+        <v>4.7077286085058185</v>
       </c>
       <c r="F156" t="n">
-        <v>5.10131447306573</v>
+        <v>5.1990692179003055</v>
       </c>
       <c r="G156" t="n">
-        <v>4.7235103455749075</v>
+        <v>5.2276180987291125</v>
       </c>
       <c r="H156" t="n">
-        <v>4.670972857395623</v>
+        <v>5.388720798018394</v>
       </c>
       <c r="I156" t="n">
-        <v>5.0746881048737595</v>
+        <v>5.288929670547245</v>
       </c>
       <c r="J156" t="n">
-        <v>4.581399680186364</v>
+        <v>4.540575552759519</v>
       </c>
       <c r="K156" t="n">
-        <v>5.10131447306573</v>
+        <v>5.27915346195128</v>
       </c>
       <c r="L156" t="n">
-        <v>4.7235103455749075</v>
+        <v>5.2276180987291125</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>3.0825778310431393</v>
+        <v>3.144852130660172</v>
       </c>
       <c r="C157" t="n">
-        <v>3.0482916996468417</v>
+        <v>3.1272634719283516</v>
       </c>
       <c r="D157" t="n">
-        <v>3.3117575504406394</v>
+        <v>3.3888164150833404</v>
       </c>
       <c r="E157" t="n">
-        <v>2.9898359601394575</v>
+        <v>3.0722786193837215</v>
       </c>
       <c r="F157" t="n">
-        <v>3.32913400276209</v>
+        <v>3.3929290592477055</v>
       </c>
       <c r="G157" t="n">
-        <v>3.0825778310431393</v>
+        <v>3.411560149412759</v>
       </c>
       <c r="H157" t="n">
-        <v>3.0482916996468417</v>
+        <v>3.5166962818689074</v>
       </c>
       <c r="I157" t="n">
-        <v>3.3117575504406394</v>
+        <v>3.451572275616747</v>
       </c>
       <c r="J157" t="n">
-        <v>2.9898359601394575</v>
+        <v>2.9631940051164167</v>
       </c>
       <c r="K157" t="n">
-        <v>3.32913400276209</v>
+        <v>3.445192290884035</v>
       </c>
       <c r="L157" t="n">
-        <v>3.0825778310431393</v>
+        <v>3.411560149412759</v>
       </c>
     </row>
     <row r="158">
@@ -6110,34 +6110,34 @@
         <v>1.4630910013740188</v>
       </c>
       <c r="C159" t="n">
-        <v>1.370834948488732</v>
+        <v>1.3640232838343707</v>
       </c>
       <c r="D159" t="n">
-        <v>1.4771940811729096</v>
+        <v>1.4790713648193976</v>
       </c>
       <c r="E159" t="n">
-        <v>1.4913680657609865</v>
+        <v>1.4772785497882006</v>
       </c>
       <c r="F159" t="n">
-        <v>1.4853865560085855</v>
+        <v>1.487193170927719</v>
       </c>
       <c r="G159" t="n">
-        <v>1.4630910013740188</v>
+        <v>1.3709277888887168</v>
       </c>
       <c r="H159" t="n">
-        <v>1.370834948488732</v>
+        <v>1.5046355604031358</v>
       </c>
       <c r="I159" t="n">
-        <v>1.4771940811729096</v>
+        <v>1.501854349077653</v>
       </c>
       <c r="J159" t="n">
-        <v>1.4913680657609865</v>
+        <v>1.4701505482394788</v>
       </c>
       <c r="K159" t="n">
-        <v>1.4853865560085855</v>
+        <v>1.5330249110579495</v>
       </c>
       <c r="L159" t="n">
-        <v>1.4630910013740188</v>
+        <v>1.41715674885628</v>
       </c>
     </row>
     <row r="160">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>4.371283306185092</v>
+        <v>4.328003273450586</v>
       </c>
       <c r="C165" t="n">
-        <v>4.095649498381438</v>
+        <v>4.034948770755803</v>
       </c>
       <c r="D165" t="n">
-        <v>4.413419138633513</v>
+        <v>4.375275155539654</v>
       </c>
       <c r="E165" t="n">
-        <v>4.4557668136269335</v>
+        <v>4.369971788000366</v>
       </c>
       <c r="F165" t="n">
-        <v>4.437895831096182</v>
+        <v>4.39930045771849</v>
       </c>
       <c r="G165" t="n">
-        <v>4.371283306185092</v>
+        <v>4.055373146579797</v>
       </c>
       <c r="H165" t="n">
-        <v>4.095649498381438</v>
+        <v>4.450897192764709</v>
       </c>
       <c r="I165" t="n">
-        <v>4.413419138633513</v>
+        <v>4.442670027325552</v>
       </c>
       <c r="J165" t="n">
-        <v>4.4557668136269335</v>
+        <v>4.3488862820359</v>
       </c>
       <c r="K165" t="n">
-        <v>4.437895831096182</v>
+        <v>4.534876386437408</v>
       </c>
       <c r="L165" t="n">
-        <v>4.371283306185092</v>
+        <v>4.192124100471203</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>2.3193710502019</v>
+        <v>2.3430381017345723</v>
       </c>
       <c r="C167" t="n">
-        <v>2.5527729008006927</v>
+        <v>2.581239757315995</v>
       </c>
       <c r="D167" t="n">
-        <v>2.507965990941577</v>
+        <v>2.556041564193643</v>
       </c>
       <c r="E167" t="n">
-        <v>2.517108030284696</v>
+        <v>2.556041564193643</v>
       </c>
       <c r="F167" t="n">
-        <v>2.344904243108535</v>
+        <v>2.356216044027247</v>
       </c>
       <c r="G167" t="n">
-        <v>2.3193710502019</v>
+        <v>2.5860198301980564</v>
       </c>
       <c r="H167" t="n">
-        <v>2.5527729008006927</v>
+        <v>2.5420826015013644</v>
       </c>
       <c r="I167" t="n">
-        <v>2.507965990941577</v>
+        <v>2.6348126579709983</v>
       </c>
       <c r="J167" t="n">
-        <v>2.517108030284696</v>
+        <v>2.539001287099018</v>
       </c>
       <c r="K167" t="n">
-        <v>2.344904243108535</v>
+        <v>2.3018418272003753</v>
       </c>
       <c r="L167" t="n">
-        <v>2.3193710502019</v>
+        <v>2.526750378081729</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>2.1901263341520547</v>
+        <v>2.168654507346642</v>
       </c>
       <c r="C168" t="n">
-        <v>2.407098035757128</v>
+        <v>2.3789082055254123</v>
       </c>
       <c r="D168" t="n">
-        <v>2.105432036608615</v>
+        <v>2.0675195859152966</v>
       </c>
       <c r="E168" t="n">
-        <v>2.1635804698456282</v>
+        <v>2.1819963415710673</v>
       </c>
       <c r="F168" t="n">
-        <v>2.289099992606344</v>
+        <v>2.2787941112797627</v>
       </c>
       <c r="G168" t="n">
-        <v>2.1901263341520547</v>
+        <v>2.1412785175764624</v>
       </c>
       <c r="H168" t="n">
-        <v>2.407098035757128</v>
+        <v>2.268261312850906</v>
       </c>
       <c r="I168" t="n">
-        <v>2.105432036608615</v>
+        <v>2.3644905798129825</v>
       </c>
       <c r="J168" t="n">
-        <v>2.1635804698456282</v>
+        <v>2.4537166408696938</v>
       </c>
       <c r="K168" t="n">
-        <v>2.289099992606344</v>
+        <v>2.3803596441070294</v>
       </c>
       <c r="L168" t="n">
-        <v>2.1901263341520547</v>
+        <v>2.403825914316835</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>1.6688016020143008</v>
+        <v>1.7025147656913573</v>
       </c>
       <c r="C171" t="n">
-        <v>1.7586855057554573</v>
+        <v>1.8014981821830887</v>
       </c>
       <c r="D171" t="n">
-        <v>1.6940707456724404</v>
+        <v>1.7427316502429966</v>
       </c>
       <c r="E171" t="n">
-        <v>1.8166026064578362</v>
+        <v>1.8802044143611016</v>
       </c>
       <c r="F171" t="n">
-        <v>1.8920494499389156</v>
+        <v>1.9487904868259338</v>
       </c>
       <c r="G171" t="n">
-        <v>1.6688016020143008</v>
+        <v>1.8779253771111304</v>
       </c>
       <c r="H171" t="n">
-        <v>1.7586855057554573</v>
+        <v>1.889376141785018</v>
       </c>
       <c r="I171" t="n">
-        <v>1.6940707456724404</v>
+        <v>1.7329848287761216</v>
       </c>
       <c r="J171" t="n">
-        <v>1.8166026064578362</v>
+        <v>1.722388479067154</v>
       </c>
       <c r="K171" t="n">
-        <v>1.8920494499389156</v>
+        <v>1.8905289031320107</v>
       </c>
       <c r="L171" t="n">
-        <v>1.6688016020143008</v>
+        <v>1.6623266488878732</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1.157615498787548</v>
+        <v>1.1460393437996725</v>
       </c>
       <c r="C175" t="n">
-        <v>1.2199662299569678</v>
+        <v>1.2126695381270436</v>
       </c>
       <c r="D175" t="n">
-        <v>1.1751442165838657</v>
+        <v>1.17311113953973</v>
       </c>
       <c r="E175" t="n">
-        <v>1.2601422061407075</v>
+        <v>1.2656502467211368</v>
       </c>
       <c r="F175" t="n">
-        <v>1.312478226937233</v>
+        <v>1.311818620156344</v>
       </c>
       <c r="G175" t="n">
-        <v>1.157615498787548</v>
+        <v>1.2641161241354855</v>
       </c>
       <c r="H175" t="n">
-        <v>1.2199662299569678</v>
+        <v>1.2718241494033529</v>
       </c>
       <c r="I175" t="n">
-        <v>1.1751442165838657</v>
+        <v>1.1665501151638302</v>
       </c>
       <c r="J175" t="n">
-        <v>1.2601422061407075</v>
+        <v>1.1594172350785255</v>
       </c>
       <c r="K175" t="n">
-        <v>1.312478226937233</v>
+        <v>1.2726001249686096</v>
       </c>
       <c r="L175" t="n">
-        <v>1.157615498787548</v>
+        <v>1.1189869129261543</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.1500319430505128</v>
+        <v>1.1385316236200076</v>
       </c>
       <c r="C176" t="n">
-        <v>1.2119742136857021</v>
+        <v>1.2047253225886172</v>
       </c>
       <c r="D176" t="n">
-        <v>1.1674458299651203</v>
+        <v>1.1654260716378624</v>
       </c>
       <c r="E176" t="n">
-        <v>1.2518869964731905</v>
+        <v>1.2573589538007717</v>
       </c>
       <c r="F176" t="n">
-        <v>1.3038801632467862</v>
+        <v>1.30322487755938</v>
       </c>
       <c r="G176" t="n">
-        <v>1.1500319430505128</v>
+        <v>1.2558348812741837</v>
       </c>
       <c r="H176" t="n">
-        <v>1.2119742136857021</v>
+        <v>1.26349241115796</v>
       </c>
       <c r="I176" t="n">
-        <v>1.1674458299651203</v>
+        <v>1.1589080286267586</v>
       </c>
       <c r="J176" t="n">
-        <v>1.2518869964731905</v>
+        <v>1.1518218761412045</v>
       </c>
       <c r="K176" t="n">
-        <v>1.3038801632467862</v>
+        <v>1.2642633032961583</v>
       </c>
       <c r="L176" t="n">
-        <v>1.1500319430505128</v>
+        <v>1.1116564136091736</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>5.193667132929111</v>
+        <v>5.3510509854421136</v>
       </c>
       <c r="C177" t="n">
-        <v>5.979189432588494</v>
+        <v>6.1270832603852154</v>
       </c>
       <c r="D177" t="n">
-        <v>6.013151364955615</v>
+        <v>6.221462236809671</v>
       </c>
       <c r="E177" t="n">
-        <v>5.487087768118988</v>
+        <v>5.6128033406190685</v>
       </c>
       <c r="F177" t="n">
-        <v>5.209300509755898</v>
+        <v>5.417077901688738</v>
       </c>
       <c r="G177" t="n">
-        <v>5.193667132929111</v>
+        <v>6.090128595968153</v>
       </c>
       <c r="H177" t="n">
-        <v>5.979189432588494</v>
+        <v>5.647334009958585</v>
       </c>
       <c r="I177" t="n">
-        <v>6.013151364955615</v>
+        <v>6.060884279260997</v>
       </c>
       <c r="J177" t="n">
-        <v>5.487087768118988</v>
+        <v>5.650494241146868</v>
       </c>
       <c r="K177" t="n">
-        <v>5.209300509755898</v>
+        <v>5.897861165549716</v>
       </c>
       <c r="L177" t="n">
-        <v>5.193667132929111</v>
+        <v>6.156971466762494</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>3.9357540736117005</v>
+        <v>3.8570389921394663</v>
       </c>
       <c r="C178" t="n">
-        <v>3.5228581034169784</v>
+        <v>3.4696415542792054</v>
       </c>
       <c r="D178" t="n">
-        <v>3.5817950696009717</v>
+        <v>3.5356190779744447</v>
       </c>
       <c r="E178" t="n">
-        <v>3.9183228231245506</v>
+        <v>3.8546871394613005</v>
       </c>
       <c r="F178" t="n">
-        <v>3.868733063653137</v>
+        <v>3.7945299586251537</v>
       </c>
       <c r="G178" t="n">
-        <v>3.9357540736117005</v>
+        <v>3.3914629349548484</v>
       </c>
       <c r="H178" t="n">
-        <v>3.5228581034169784</v>
+        <v>3.812838910050697</v>
       </c>
       <c r="I178" t="n">
-        <v>3.5817950696009717</v>
+        <v>3.675399366514393</v>
       </c>
       <c r="J178" t="n">
-        <v>3.9183228231245506</v>
+        <v>3.4734543466042</v>
       </c>
       <c r="K178" t="n">
-        <v>3.868733063653137</v>
+        <v>3.8313253988585365</v>
       </c>
       <c r="L178" t="n">
-        <v>3.9357540736117005</v>
+        <v>3.835975068865229</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>6.233807939803621</v>
+        <v>6.048645327730246</v>
       </c>
       <c r="C179" t="n">
-        <v>5.579825468040392</v>
+        <v>5.441124971502692</v>
       </c>
       <c r="D179" t="n">
-        <v>5.673175235549763</v>
+        <v>5.544591553315249</v>
       </c>
       <c r="E179" t="n">
-        <v>6.206198728035014</v>
+        <v>6.044957129933364</v>
       </c>
       <c r="F179" t="n">
-        <v>6.127653923013148</v>
+        <v>5.95061806529452</v>
       </c>
       <c r="G179" t="n">
-        <v>6.233807939803621</v>
+        <v>5.318524515176381</v>
       </c>
       <c r="H179" t="n">
-        <v>5.579825468040392</v>
+        <v>5.979330337512003</v>
       </c>
       <c r="I179" t="n">
-        <v>5.673175235549763</v>
+        <v>5.763796334731514</v>
       </c>
       <c r="J179" t="n">
-        <v>6.206198728035014</v>
+        <v>5.447104228785074</v>
       </c>
       <c r="K179" t="n">
-        <v>6.127653923013148</v>
+        <v>6.008321025545377</v>
       </c>
       <c r="L179" t="n">
-        <v>6.233807939803621</v>
+        <v>6.015612682388563</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>3.5544988027647775</v>
+        <v>3.5911431203190536</v>
       </c>
       <c r="C184" t="n">
-        <v>3.1815999365567214</v>
+        <v>3.2304520185084864</v>
       </c>
       <c r="D184" t="n">
-        <v>3.234827697189476</v>
+        <v>3.2918811953450993</v>
       </c>
       <c r="E184" t="n">
-        <v>3.5387561120812587</v>
+        <v>3.5889533992448275</v>
       </c>
       <c r="F184" t="n">
-        <v>3.493970097159148</v>
+        <v>3.5329433235007692</v>
       </c>
       <c r="G184" t="n">
-        <v>3.5544988027647775</v>
+        <v>3.1576628630151484</v>
       </c>
       <c r="H184" t="n">
-        <v>3.1815999365567214</v>
+        <v>3.5499900956713626</v>
       </c>
       <c r="I184" t="n">
-        <v>3.234827697189476</v>
+        <v>3.422025335077534</v>
       </c>
       <c r="J184" t="n">
-        <v>3.5387561120812587</v>
+        <v>3.2340019652305734</v>
       </c>
       <c r="K184" t="n">
-        <v>3.493970097159148</v>
+        <v>3.567202166183593</v>
       </c>
       <c r="L184" t="n">
-        <v>3.5544988027647775</v>
+        <v>3.5715312980617817</v>
       </c>
     </row>
     <row r="185">
@@ -7174,34 +7174,34 @@
         <v>4.460134811653213</v>
       </c>
       <c r="C187" t="n">
-        <v>3.992226589794507</v>
+        <v>4.012162986098141</v>
       </c>
       <c r="D187" t="n">
-        <v>4.05901603081495</v>
+        <v>4.088456912817451</v>
       </c>
       <c r="E187" t="n">
-        <v>4.440381106097865</v>
+        <v>4.457415217678886</v>
       </c>
       <c r="F187" t="n">
-        <v>4.384184248168428</v>
+        <v>4.387851716515163</v>
       </c>
       <c r="G187" t="n">
-        <v>4.460134811653213</v>
+        <v>3.9217601713259373</v>
       </c>
       <c r="H187" t="n">
-        <v>3.992226589794507</v>
+        <v>4.409023499269851</v>
       </c>
       <c r="I187" t="n">
-        <v>4.05901603081495</v>
+        <v>4.250093580782308</v>
       </c>
       <c r="J187" t="n">
-        <v>4.440381106097865</v>
+        <v>4.016571955728203</v>
       </c>
       <c r="K187" t="n">
-        <v>4.384184248168428</v>
+        <v>4.430400579575524</v>
       </c>
       <c r="L187" t="n">
-        <v>4.460134811653213</v>
+        <v>4.435777283078345</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>3.077719819245666</v>
+        <v>3.0475460955275717</v>
       </c>
       <c r="C200" t="n">
-        <v>3.3826237400069004</v>
+        <v>3.3430094045905325</v>
       </c>
       <c r="D200" t="n">
-        <v>2.9587014256206907</v>
+        <v>2.905424178972645</v>
       </c>
       <c r="E200" t="n">
-        <v>3.0404157005649846</v>
+        <v>3.0662949809125335</v>
       </c>
       <c r="F200" t="n">
-        <v>3.216804576804163</v>
+        <v>3.202322026314265</v>
       </c>
       <c r="G200" t="n">
-        <v>3.077719819245666</v>
+        <v>3.0090754260628487</v>
       </c>
       <c r="H200" t="n">
-        <v>3.3826237400069004</v>
+        <v>3.1875205959259296</v>
       </c>
       <c r="I200" t="n">
-        <v>2.9587014256206907</v>
+        <v>3.3227487412170693</v>
       </c>
       <c r="J200" t="n">
-        <v>3.0404157005649846</v>
+        <v>3.4481354881938304</v>
       </c>
       <c r="K200" t="n">
-        <v>3.216804576804163</v>
+        <v>3.345049068339332</v>
       </c>
       <c r="L200" t="n">
-        <v>3.077719819245666</v>
+        <v>3.3780255244379043</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>0.422017312343392</v>
+        <v>0.4051366198496563</v>
       </c>
       <c r="C213" t="n">
-        <v>0.46723011820045485</v>
+        <v>0.4469007034350153</v>
       </c>
       <c r="D213" t="n">
-        <v>0.44440150965789266</v>
+        <v>0.42287266121846134</v>
       </c>
       <c r="E213" t="n">
-        <v>0.4623492067332314</v>
+        <v>0.43456130833987655</v>
       </c>
       <c r="F213" t="n">
-        <v>0.4634532478695708</v>
+        <v>0.43665810609152694</v>
       </c>
       <c r="G213" t="n">
-        <v>0.422017312343392</v>
+        <v>0.44607463941627945</v>
       </c>
       <c r="H213" t="n">
-        <v>0.46723011820045485</v>
+        <v>0.4417200362147997</v>
       </c>
       <c r="I213" t="n">
-        <v>0.44440150965789266</v>
+        <v>0.44145069477119786</v>
       </c>
       <c r="J213" t="n">
-        <v>0.4623492067332314</v>
+        <v>0.3884008259969485</v>
       </c>
       <c r="K213" t="n">
-        <v>0.4634532478695708</v>
+        <v>0.4071873677163565</v>
       </c>
       <c r="L213" t="n">
-        <v>0.422017312343392</v>
+        <v>0.4024342077442291</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.2623215831040431</v>
+        <v>0.2650259293216105</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2904253941613247</v>
+        <v>0.2923465034740598</v>
       </c>
       <c r="D214" t="n">
-        <v>0.2762353679282903</v>
+        <v>0.2766282151085592</v>
       </c>
       <c r="E214" t="n">
-        <v>0.2873914702306616</v>
+        <v>0.2842745112321113</v>
       </c>
       <c r="F214" t="n">
-        <v>0.28807773074705695</v>
+        <v>0.285646161548335</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2623215831040431</v>
+        <v>0.2918061218508783</v>
       </c>
       <c r="H214" t="n">
-        <v>0.2904253941613247</v>
+        <v>0.28895749572390095</v>
       </c>
       <c r="I214" t="n">
-        <v>0.2762353679282903</v>
+        <v>0.28878130215635356</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2873914702306616</v>
+        <v>0.2540779697903424</v>
       </c>
       <c r="K214" t="n">
-        <v>0.28807773074705695</v>
+        <v>0.26636745544526286</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2623215831040431</v>
+        <v>0.26325810769167096</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.6962845185603842</v>
+        <v>0.7033176955155396</v>
       </c>
       <c r="C221" t="n">
-        <v>0.6766924494425496</v>
+        <v>0.6874704082607569</v>
       </c>
       <c r="D221" t="n">
-        <v>0.7675042873353565</v>
+        <v>0.7818455402459171</v>
       </c>
       <c r="E221" t="n">
-        <v>0.757819652741193</v>
+        <v>0.7818455402459171</v>
       </c>
       <c r="F221" t="n">
-        <v>0.7105157416657366</v>
+        <v>0.7170928041528277</v>
       </c>
       <c r="G221" t="n">
-        <v>0.6962845185603842</v>
+        <v>0.7450260703063282</v>
       </c>
       <c r="H221" t="n">
-        <v>0.6766924494425496</v>
+        <v>0.7766332366442777</v>
       </c>
       <c r="I221" t="n">
-        <v>0.7675042873353565</v>
+        <v>0.7040905719840574</v>
       </c>
       <c r="J221" t="n">
-        <v>0.757819652741193</v>
+        <v>0.7910153338471613</v>
       </c>
       <c r="K221" t="n">
-        <v>0.7105157416657366</v>
+        <v>0.7775757533690908</v>
       </c>
       <c r="L221" t="n">
-        <v>0.6962845185603842</v>
+        <v>0.8059401517079761</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>0.9065537927582025</v>
+        <v>0.9160964642609205</v>
       </c>
       <c r="C222" t="n">
-        <v>0.8810451621721361</v>
+        <v>0.8954548055698335</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9992810468924822</v>
+        <v>1.018381791876341</v>
       </c>
       <c r="E222" t="n">
-        <v>0.9866717729695623</v>
+        <v>1.018381791876341</v>
       </c>
       <c r="F222" t="n">
-        <v>0.9250826684373858</v>
+        <v>0.9340390361567968</v>
       </c>
       <c r="G222" t="n">
-        <v>0.9065537927582025</v>
+        <v>0.970423114819461</v>
       </c>
       <c r="H222" t="n">
-        <v>0.8810451621721361</v>
+        <v>1.0115925799304986</v>
       </c>
       <c r="I222" t="n">
-        <v>0.9992810468924822</v>
+        <v>0.9171031635159431</v>
       </c>
       <c r="J222" t="n">
-        <v>0.9866717729695623</v>
+        <v>1.030325776152102</v>
       </c>
       <c r="K222" t="n">
-        <v>0.9250826684373858</v>
+        <v>1.0128202416893501</v>
       </c>
       <c r="L222" t="n">
-        <v>0.9065537927582025</v>
+        <v>1.0497658854500893</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>1.149878810077283</v>
+        <v>1.161982797551781</v>
       </c>
       <c r="C224" t="n">
-        <v>1.1175234947950379</v>
+        <v>1.1358007815221383</v>
       </c>
       <c r="D224" t="n">
-        <v>1.2674946708209143</v>
+        <v>1.2917221817409277</v>
       </c>
       <c r="E224" t="n">
-        <v>1.2515009846102905</v>
+        <v>1.2917221817409277</v>
       </c>
       <c r="F224" t="n">
-        <v>1.173380958199377</v>
+        <v>1.1847412740880534</v>
       </c>
       <c r="G224" t="n">
-        <v>1.149878810077283</v>
+        <v>1.2308910794416794</v>
       </c>
       <c r="H224" t="n">
-        <v>1.1175234947950379</v>
+        <v>1.2831107005293216</v>
       </c>
       <c r="I224" t="n">
-        <v>1.2674946708209143</v>
+        <v>1.1632597015267223</v>
       </c>
       <c r="J224" t="n">
-        <v>1.2515009846102905</v>
+        <v>1.3068720101750548</v>
       </c>
       <c r="K224" t="n">
-        <v>1.173380958199377</v>
+        <v>1.2846678748015186</v>
       </c>
       <c r="L224" t="n">
-        <v>1.149878810077283</v>
+        <v>1.331529973029449</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>4.814891320305917</v>
+        <v>4.911189146712036</v>
       </c>
       <c r="C230" t="n">
-        <v>5.543125226278946</v>
+        <v>5.623430778602208</v>
       </c>
       <c r="D230" t="n">
-        <v>5.57461030400726</v>
+        <v>5.710051707080483</v>
       </c>
       <c r="E230" t="n">
-        <v>5.086912694301367</v>
+        <v>5.151425191812092</v>
       </c>
       <c r="F230" t="n">
-        <v>4.829384549938043</v>
+        <v>4.9717885832233835</v>
       </c>
       <c r="G230" t="n">
-        <v>4.814891320305917</v>
+        <v>5.589513825222542</v>
       </c>
       <c r="H230" t="n">
-        <v>5.543125226278946</v>
+        <v>5.183117404977376</v>
       </c>
       <c r="I230" t="n">
-        <v>5.57461030400726</v>
+        <v>5.562673421121378</v>
       </c>
       <c r="J230" t="n">
-        <v>5.086912694301367</v>
+        <v>5.186017861944656</v>
       </c>
       <c r="K230" t="n">
-        <v>4.829384549938043</v>
+        <v>5.413050973325566</v>
       </c>
       <c r="L230" t="n">
-        <v>4.814891320305917</v>
+        <v>5.650862143987088</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>4.578061549531528</v>
+        <v>4.669622780522158</v>
       </c>
       <c r="C238" t="n">
-        <v>5.27047585802073</v>
+        <v>5.346831425955265</v>
       </c>
       <c r="D238" t="n">
-        <v>5.300412281117991</v>
+        <v>5.429191736016409</v>
       </c>
       <c r="E238" t="n">
-        <v>4.836703024508825</v>
+        <v>4.8980423496712735</v>
       </c>
       <c r="F238" t="n">
-        <v>4.591841901546442</v>
+        <v>4.727241516182064</v>
       </c>
       <c r="G238" t="n">
-        <v>4.578061549531528</v>
+        <v>5.314582743728551</v>
       </c>
       <c r="H238" t="n">
-        <v>5.27047585802073</v>
+        <v>4.928175719847181</v>
       </c>
       <c r="I238" t="n">
-        <v>5.300412281117991</v>
+        <v>5.289062536975138</v>
       </c>
       <c r="J238" t="n">
-        <v>4.836703024508825</v>
+        <v>4.930933512211461</v>
       </c>
       <c r="K238" t="n">
-        <v>4.591841901546442</v>
+        <v>5.146799559550908</v>
       </c>
       <c r="L238" t="n">
-        <v>4.578061549531528</v>
+        <v>5.372913526415154</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>2.074031734679174</v>
+        <v>2.0951953238085532</v>
       </c>
       <c r="C242" t="n">
-        <v>2.109222943080536</v>
+        <v>2.138680509799931</v>
       </c>
       <c r="D242" t="n">
-        <v>2.0376719522820497</v>
+        <v>2.0411176531651263</v>
       </c>
       <c r="E242" t="n">
-        <v>1.9763980220119723</v>
+        <v>1.9862165298408228</v>
       </c>
       <c r="F242" t="n">
-        <v>1.8497517125691305</v>
+        <v>1.866356756650968</v>
       </c>
       <c r="G242" t="n">
-        <v>2.074031734679174</v>
+        <v>1.890217904585806</v>
       </c>
       <c r="H242" t="n">
-        <v>2.109222943080536</v>
+        <v>2.0747419210400815</v>
       </c>
       <c r="I242" t="n">
-        <v>2.0376719522820497</v>
+        <v>2.063411414730009</v>
       </c>
       <c r="J242" t="n">
-        <v>1.9763980220119723</v>
+        <v>1.9770360522183281</v>
       </c>
       <c r="K242" t="n">
-        <v>1.8497517125691305</v>
+        <v>1.802067837979622</v>
       </c>
       <c r="L242" t="n">
-        <v>2.074031734679174</v>
+        <v>2.0990753145461727</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>1.3259118144919728</v>
+        <v>1.339304863123205</v>
       </c>
       <c r="C250" t="n">
-        <v>1.348409271114946</v>
+        <v>1.3671017565251065</v>
       </c>
       <c r="D250" t="n">
-        <v>1.3026672979078706</v>
+        <v>1.3047369703563085</v>
       </c>
       <c r="E250" t="n">
-        <v>1.2634953668775961</v>
+        <v>1.269642704621929</v>
       </c>
       <c r="F250" t="n">
-        <v>1.1825313993816766</v>
+        <v>1.1930251333139639</v>
       </c>
       <c r="G250" t="n">
-        <v>1.3259118144919728</v>
+        <v>1.2082778169686506</v>
       </c>
       <c r="H250" t="n">
-        <v>1.348409271114946</v>
+        <v>1.326230501280206</v>
       </c>
       <c r="I250" t="n">
-        <v>1.3026672979078706</v>
+        <v>1.318987738741416</v>
       </c>
       <c r="J250" t="n">
-        <v>1.2634953668775961</v>
+        <v>1.2637742978982778</v>
       </c>
       <c r="K250" t="n">
-        <v>1.1825313993816766</v>
+        <v>1.15192993782405</v>
       </c>
       <c r="L250" t="n">
-        <v>1.3259118144919728</v>
+        <v>1.341785056928869</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>1.4907238419676812</v>
+        <v>1.5059353097428616</v>
       </c>
       <c r="C253" t="n">
-        <v>1.3197367666131206</v>
+        <v>1.340447913254628</v>
       </c>
       <c r="D253" t="n">
-        <v>1.327135937913749</v>
+        <v>1.338976510723972</v>
       </c>
       <c r="E253" t="n">
-        <v>1.2983723783943157</v>
+        <v>1.2928538432896695</v>
       </c>
       <c r="F253" t="n">
-        <v>1.3410296258919325</v>
+        <v>1.3560951652844155</v>
       </c>
       <c r="G253" t="n">
-        <v>1.4907238419676812</v>
+        <v>1.4875702447023214</v>
       </c>
       <c r="H253" t="n">
-        <v>1.3197367666131206</v>
+        <v>1.4249672626581864</v>
       </c>
       <c r="I253" t="n">
-        <v>1.327135937913749</v>
+        <v>1.4884778530081029</v>
       </c>
       <c r="J253" t="n">
-        <v>1.2983723783943157</v>
+        <v>1.3644380326367196</v>
       </c>
       <c r="K253" t="n">
-        <v>1.3410296258919325</v>
+        <v>1.4643548632772196</v>
       </c>
       <c r="L253" t="n">
-        <v>1.4907238419676812</v>
+        <v>1.3652015680708933</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.5241283949849216</v>
+        <v>1.493645827085223</v>
       </c>
       <c r="C254" t="n">
-        <v>1.3493097938553356</v>
+        <v>1.3295089231952057</v>
       </c>
       <c r="D254" t="n">
-        <v>1.35687476783721</v>
+        <v>1.3280495283356402</v>
       </c>
       <c r="E254" t="n">
-        <v>1.327466666504007</v>
+        <v>1.2823032540424577</v>
       </c>
       <c r="F254" t="n">
-        <v>1.3710797894263589</v>
+        <v>1.3450284827330146</v>
       </c>
       <c r="G254" t="n">
-        <v>1.5241283949849216</v>
+        <v>1.475430633786757</v>
       </c>
       <c r="H254" t="n">
-        <v>1.3493097938553356</v>
+        <v>1.413338535747513</v>
       </c>
       <c r="I254" t="n">
-        <v>1.35687476783721</v>
+        <v>1.4763308353756222</v>
       </c>
       <c r="J254" t="n">
-        <v>1.327466666504007</v>
+        <v>1.3533032664677966</v>
       </c>
       <c r="K254" t="n">
-        <v>1.3710797894263589</v>
+        <v>1.452404706068975</v>
       </c>
       <c r="L254" t="n">
-        <v>1.5241283949849216</v>
+        <v>1.3540605709201905</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>2.785388003102582</v>
+        <v>2.757534123071556</v>
       </c>
       <c r="C260" t="n">
-        <v>2.465902035970304</v>
+        <v>2.454508395603558</v>
       </c>
       <c r="D260" t="n">
-        <v>2.4797272411447704</v>
+        <v>2.451814094818652</v>
       </c>
       <c r="E260" t="n">
-        <v>2.425983099301432</v>
+        <v>2.3673583891357253</v>
       </c>
       <c r="F260" t="n">
-        <v>2.505687322230078</v>
+        <v>2.4831602448067005</v>
       </c>
       <c r="G260" t="n">
-        <v>2.785388003102582</v>
+        <v>2.7239056576294614</v>
       </c>
       <c r="H260" t="n">
-        <v>2.465902035970304</v>
+        <v>2.609272673014595</v>
       </c>
       <c r="I260" t="n">
-        <v>2.4797272411447704</v>
+        <v>2.7255675888275572</v>
       </c>
       <c r="J260" t="n">
-        <v>2.425983099301432</v>
+        <v>2.498436957730157</v>
       </c>
       <c r="K260" t="n">
-        <v>2.505687322230078</v>
+        <v>2.6813957263955825</v>
       </c>
       <c r="L260" t="n">
-        <v>2.785388003102582</v>
+        <v>2.499835075564493</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>1.1995858840279503</v>
+        <v>1.2120815703199082</v>
       </c>
       <c r="C265" t="n">
-        <v>1.1510828835888631</v>
+        <v>1.1680058761677317</v>
       </c>
       <c r="D265" t="n">
-        <v>1.1875423012253126</v>
+        <v>1.1896356149581635</v>
       </c>
       <c r="E265" t="n">
-        <v>1.1208036456388881</v>
+        <v>1.1204707537060008</v>
       </c>
       <c r="F265" t="n">
-        <v>1.1421256387895677</v>
+        <v>1.1758448417795957</v>
       </c>
       <c r="G265" t="n">
-        <v>1.1995858840279503</v>
+        <v>1.0589064266487929</v>
       </c>
       <c r="H265" t="n">
-        <v>1.1510828835888631</v>
+        <v>1.0784609381734866</v>
       </c>
       <c r="I265" t="n">
-        <v>1.1875423012253126</v>
+        <v>1.0339107813741155</v>
       </c>
       <c r="J265" t="n">
-        <v>1.1208036456388881</v>
+        <v>1.0577440707075492</v>
       </c>
       <c r="K265" t="n">
-        <v>1.1421256387895677</v>
+        <v>1.175127863329058</v>
       </c>
       <c r="L265" t="n">
-        <v>1.1995858840279503</v>
+        <v>1.1256737223971969</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>1.6689365674631496</v>
+        <v>1.6863213233742238</v>
       </c>
       <c r="C266" t="n">
-        <v>1.6014562543465376</v>
+        <v>1.6250005470243958</v>
       </c>
       <c r="D266" t="n">
-        <v>1.652180805320383</v>
+        <v>1.6550931502241069</v>
       </c>
       <c r="E266" t="n">
-        <v>1.5593299438234856</v>
+        <v>1.558866804395783</v>
       </c>
       <c r="F266" t="n">
-        <v>1.5889943926421741</v>
+        <v>1.6359065909641568</v>
       </c>
       <c r="G266" t="n">
-        <v>1.6689365674631496</v>
+        <v>1.4732147822729205</v>
       </c>
       <c r="H266" t="n">
-        <v>1.6014562543465376</v>
+        <v>1.5004202035578549</v>
       </c>
       <c r="I266" t="n">
-        <v>1.652180805320383</v>
+        <v>1.4384393260244916</v>
       </c>
       <c r="J266" t="n">
-        <v>1.5593299438234856</v>
+        <v>1.4715976422577048</v>
       </c>
       <c r="K266" t="n">
-        <v>1.5889943926421741</v>
+        <v>1.6349090871004337</v>
       </c>
       <c r="L266" t="n">
-        <v>1.6689365674631496</v>
+        <v>1.5661054896985358</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>2.481503767439726</v>
+        <v>2.4571752991314932</v>
       </c>
       <c r="C268" t="n">
-        <v>2.7273416839858755</v>
+        <v>2.695401439794176</v>
       </c>
       <c r="D268" t="n">
-        <v>2.385541623540809</v>
+        <v>2.342585248028907</v>
       </c>
       <c r="E268" t="n">
-        <v>2.4514262046712547</v>
+        <v>2.4722921494136876</v>
       </c>
       <c r="F268" t="n">
-        <v>2.5936450181528734</v>
+        <v>2.581968028136405</v>
       </c>
       <c r="G268" t="n">
-        <v>2.481503767439726</v>
+        <v>2.4261571698607023</v>
       </c>
       <c r="H268" t="n">
-        <v>2.7273416839858755</v>
+        <v>2.5700339316528744</v>
       </c>
       <c r="I268" t="n">
-        <v>2.385541623540809</v>
+        <v>2.679065673238142</v>
       </c>
       <c r="J268" t="n">
-        <v>2.4514262046712547</v>
+        <v>2.7801624927290423</v>
       </c>
       <c r="K268" t="n">
-        <v>2.5936450181528734</v>
+        <v>2.697045979769942</v>
       </c>
       <c r="L268" t="n">
-        <v>2.481503767439726</v>
+        <v>2.7236342349885327</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>2.2359389774516054</v>
+        <v>2.258989894744921</v>
       </c>
       <c r="C269" t="n">
-        <v>2.1455329876437252</v>
+        <v>2.176844806384774</v>
       </c>
       <c r="D269" t="n">
-        <v>2.2134906337563933</v>
+        <v>2.2171567478827887</v>
       </c>
       <c r="E269" t="n">
-        <v>2.0890947373764326</v>
+        <v>2.0882522859505506</v>
       </c>
       <c r="F269" t="n">
-        <v>2.1288373487203405</v>
+        <v>2.1914545030719204</v>
       </c>
       <c r="G269" t="n">
-        <v>2.2359389774516054</v>
+        <v>1.9735131494893812</v>
       </c>
       <c r="H269" t="n">
-        <v>2.1455329876437252</v>
+        <v>2.0099574326239704</v>
       </c>
       <c r="I269" t="n">
-        <v>2.2134906337563933</v>
+        <v>1.9269280751257625</v>
       </c>
       <c r="J269" t="n">
-        <v>2.0890947373764326</v>
+        <v>1.97134683462274</v>
       </c>
       <c r="K269" t="n">
-        <v>2.1288373487203405</v>
+        <v>2.190118250533993</v>
       </c>
       <c r="L269" t="n">
-        <v>2.2359389774516054</v>
+        <v>2.09794920238249</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.436109763943886</v>
+        <v>1.4510692406516348</v>
       </c>
       <c r="C272" t="n">
-        <v>1.3780433649985606</v>
+        <v>1.398303085624864</v>
       </c>
       <c r="D272" t="n">
-        <v>1.4216915325475152</v>
+        <v>1.4241975876209971</v>
       </c>
       <c r="E272" t="n">
-        <v>1.3417939310532991</v>
+        <v>1.3413954023930983</v>
       </c>
       <c r="F272" t="n">
-        <v>1.3673200088090811</v>
+        <v>1.4076876700921448</v>
       </c>
       <c r="G272" t="n">
-        <v>1.436109763943886</v>
+        <v>1.2676923583887632</v>
       </c>
       <c r="H272" t="n">
-        <v>1.3780433649985606</v>
+        <v>1.291102457910334</v>
       </c>
       <c r="I272" t="n">
-        <v>1.4216915325475152</v>
+        <v>1.2377682898306126</v>
       </c>
       <c r="J272" t="n">
-        <v>1.3417939310532991</v>
+        <v>1.2663008192429432</v>
       </c>
       <c r="K272" t="n">
-        <v>1.3673200088090811</v>
+        <v>1.4068293240853569</v>
       </c>
       <c r="L272" t="n">
-        <v>1.436109763943886</v>
+        <v>1.3476242470622533</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.7009826346818109</v>
+        <v>0.7082092597816233</v>
       </c>
       <c r="C274" t="n">
-        <v>0.738738504273445</v>
+        <v>0.7493842166964896</v>
       </c>
       <c r="D274" t="n">
-        <v>0.7115969766600636</v>
+        <v>0.7249386125091303</v>
       </c>
       <c r="E274" t="n">
-        <v>0.7630666699430376</v>
+        <v>0.782124304215411</v>
       </c>
       <c r="F274" t="n">
-        <v>0.7947582305563284</v>
+        <v>0.8106546245336156</v>
       </c>
       <c r="G274" t="n">
-        <v>0.7009826346818109</v>
+        <v>0.7811762740917713</v>
       </c>
       <c r="H274" t="n">
-        <v>0.738738504273445</v>
+        <v>0.7859395441303335</v>
       </c>
       <c r="I274" t="n">
-        <v>0.7115969766600636</v>
+        <v>0.7208841459309939</v>
       </c>
       <c r="J274" t="n">
-        <v>0.7630666699430376</v>
+        <v>0.7164762940080605</v>
       </c>
       <c r="K274" t="n">
-        <v>0.7947582305563284</v>
+        <v>0.7864190678776222</v>
       </c>
       <c r="L274" t="n">
-        <v>0.7009826346818109</v>
+        <v>0.6914918738141335</v>
       </c>
     </row>
     <row r="275">
@@ -10518,34 +10518,34 @@
         <v>3.3996381168686436</v>
       </c>
       <c r="C275" t="n">
-        <v>3.3658860877429877</v>
+        <v>3.3465825412603705</v>
       </c>
       <c r="D275" t="n">
-        <v>3.535277447186899</v>
+        <v>3.5065449776163664</v>
       </c>
       <c r="E275" t="n">
-        <v>3.475939223191391</v>
+        <v>3.441608958482974</v>
       </c>
       <c r="F275" t="n">
-        <v>3.091902872212107</v>
+        <v>3.063410172263413</v>
       </c>
       <c r="G275" t="n">
-        <v>3.3996381168686436</v>
+        <v>3.119981261087541</v>
       </c>
       <c r="H275" t="n">
-        <v>3.3658860877429877</v>
+        <v>3.435247390230094</v>
       </c>
       <c r="I275" t="n">
-        <v>3.535277447186899</v>
+        <v>3.3627301057433527</v>
       </c>
       <c r="J275" t="n">
-        <v>3.475939223191391</v>
+        <v>3.401712331382216</v>
       </c>
       <c r="K275" t="n">
-        <v>3.091902872212107</v>
+        <v>3.241515414624129</v>
       </c>
       <c r="L275" t="n">
-        <v>3.3996381168686436</v>
+        <v>2.954640441915543</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.7624502840470704</v>
       </c>
       <c r="C280" t="n">
-        <v>0.6824623976423784</v>
+        <v>0.6858704809552113</v>
       </c>
       <c r="D280" t="n">
-        <v>0.6938799064011565</v>
+        <v>0.6989127607415129</v>
       </c>
       <c r="E280" t="n">
-        <v>0.7590734313177974</v>
+        <v>0.7619853754096003</v>
       </c>
       <c r="F280" t="n">
-        <v>0.7494667014541836</v>
+        <v>0.7500936471409813</v>
       </c>
       <c r="G280" t="n">
-        <v>0.7624502840470704</v>
+        <v>0.6704163176367326</v>
       </c>
       <c r="H280" t="n">
-        <v>0.6824623976423784</v>
+        <v>0.7537129170637015</v>
       </c>
       <c r="I280" t="n">
-        <v>0.6938799064011565</v>
+        <v>0.7265441953520166</v>
       </c>
       <c r="J280" t="n">
-        <v>0.7590734313177974</v>
+        <v>0.6866241846634519</v>
       </c>
       <c r="K280" t="n">
-        <v>0.7494667014541836</v>
+        <v>0.7573672821534233</v>
       </c>
       <c r="L280" t="n">
-        <v>0.7624502840470704</v>
+        <v>0.7582864178491092</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>3.6081434642269494</v>
+        <v>3.572419271511831</v>
       </c>
       <c r="C282" t="n">
-        <v>3.57232136813682</v>
+        <v>3.5166672313685914</v>
       </c>
       <c r="D282" t="n">
-        <v>3.752101775775332</v>
+        <v>3.684759501990178</v>
       </c>
       <c r="E282" t="n">
-        <v>3.6891242417766748</v>
+        <v>3.616523213834583</v>
       </c>
       <c r="F282" t="n">
-        <v>3.281534315385398</v>
+        <v>3.2191030808947847</v>
       </c>
       <c r="G282" t="n">
-        <v>3.6081434642269494</v>
+        <v>3.278549304574577</v>
       </c>
       <c r="H282" t="n">
-        <v>3.57232136813682</v>
+        <v>3.6098383290785083</v>
       </c>
       <c r="I282" t="n">
-        <v>3.752101775775332</v>
+        <v>3.533635469917499</v>
       </c>
       <c r="J282" t="n">
-        <v>3.6891242417766748</v>
+        <v>3.574598904651243</v>
       </c>
       <c r="K282" t="n">
-        <v>3.281534315385398</v>
+        <v>3.40626023653721</v>
       </c>
       <c r="L282" t="n">
-        <v>3.6081434642269494</v>
+        <v>3.104805303456702</v>
       </c>
     </row>
     <row r="283">
@@ -10860,34 +10860,34 @@
         <v>1.3009157925369113</v>
       </c>
       <c r="C284" t="n">
-        <v>1.2465759431116419</v>
+        <v>1.2454081275672406</v>
       </c>
       <c r="D284" t="n">
-        <v>1.1764733875802111</v>
+        <v>1.1715390026811507</v>
       </c>
       <c r="E284" t="n">
-        <v>1.3542014929979738</v>
+        <v>1.341006908943579</v>
       </c>
       <c r="F284" t="n">
-        <v>1.3384040609807966</v>
+        <v>1.3161734472731783</v>
       </c>
       <c r="G284" t="n">
         <v>1.3009157925369113</v>
       </c>
       <c r="H284" t="n">
-        <v>1.2465759431116419</v>
+        <v>1.1438846485290632</v>
       </c>
       <c r="I284" t="n">
-        <v>1.1764733875802111</v>
+        <v>1.1702530105614557</v>
       </c>
       <c r="J284" t="n">
-        <v>1.3542014929979738</v>
+        <v>1.300122551323384</v>
       </c>
       <c r="K284" t="n">
-        <v>1.3384040609807966</v>
+        <v>1.1852145553500861</v>
       </c>
       <c r="L284" t="n">
-        <v>1.3009157925369113</v>
+        <v>1.1992131525728482</v>
       </c>
     </row>
     <row r="285">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>2.7284847839920356</v>
+        <v>2.7014700831604315</v>
       </c>
       <c r="C299" t="n">
-        <v>2.614514722922876</v>
+        <v>2.58620336323751</v>
       </c>
       <c r="D299" t="n">
-        <v>2.467484640588751</v>
+        <v>2.4328074001061366</v>
       </c>
       <c r="E299" t="n">
-        <v>2.8402439184006076</v>
+        <v>2.784722936415376</v>
       </c>
       <c r="F299" t="n">
-        <v>2.8071110645046904</v>
+        <v>2.733153992330937</v>
       </c>
       <c r="G299" t="n">
-        <v>2.7284847839920356</v>
+        <v>2.7014700831604315</v>
       </c>
       <c r="H299" t="n">
-        <v>2.614514722922876</v>
+        <v>2.3753806159594846</v>
       </c>
       <c r="I299" t="n">
-        <v>2.467484640588751</v>
+        <v>2.430136920388336</v>
       </c>
       <c r="J299" t="n">
-        <v>2.8402439184006076</v>
+        <v>2.699822845561067</v>
       </c>
       <c r="K299" t="n">
-        <v>2.8071110645046904</v>
+        <v>2.4612059302936813</v>
       </c>
       <c r="L299" t="n">
-        <v>2.7284847839920356</v>
+        <v>2.4902752919083624</v>
       </c>
     </row>
     <row r="300">
@@ -11544,34 +11544,34 @@
         <v>0.762654208782924</v>
       </c>
       <c r="C302" t="n">
-        <v>0.7307977926285815</v>
+        <v>0.7301131676550596</v>
       </c>
       <c r="D302" t="n">
-        <v>0.6897005830096374</v>
+        <v>0.6868078289723567</v>
       </c>
       <c r="E302" t="n">
-        <v>0.7938926363258216</v>
+        <v>0.7861573892637496</v>
       </c>
       <c r="F302" t="n">
-        <v>0.7846314850007481</v>
+        <v>0.7715989188614132</v>
       </c>
       <c r="G302" t="n">
         <v>0.762654208782924</v>
       </c>
       <c r="H302" t="n">
-        <v>0.7307977926285815</v>
+        <v>0.6705956269941379</v>
       </c>
       <c r="I302" t="n">
-        <v>0.6897005830096374</v>
+        <v>0.6860539236787369</v>
       </c>
       <c r="J302" t="n">
-        <v>0.7938926363258216</v>
+        <v>0.7621891758011221</v>
       </c>
       <c r="K302" t="n">
-        <v>0.7846314850007481</v>
+        <v>0.6948250410472883</v>
       </c>
       <c r="L302" t="n">
-        <v>0.762654208782924</v>
+        <v>0.7030316360861394</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>1.593423473909423</v>
+        <v>1.5774892391703288</v>
       </c>
       <c r="C305" t="n">
-        <v>1.5268654444507477</v>
+        <v>1.5101806979999803</v>
       </c>
       <c r="D305" t="n">
-        <v>1.4410005036101197</v>
+        <v>1.4206070681899405</v>
       </c>
       <c r="E305" t="n">
-        <v>1.6586903316303114</v>
+        <v>1.6261036883765396</v>
       </c>
       <c r="F305" t="n">
-        <v>1.639340886302593</v>
+        <v>1.5959906566329463</v>
       </c>
       <c r="G305" t="n">
-        <v>1.593423473909423</v>
+        <v>1.5774892391703288</v>
       </c>
       <c r="H305" t="n">
-        <v>1.5268654444507477</v>
+        <v>1.3870734249354055</v>
       </c>
       <c r="I305" t="n">
-        <v>1.4410005036101197</v>
+        <v>1.4190476753821084</v>
       </c>
       <c r="J305" t="n">
-        <v>1.6586903316303114</v>
+        <v>1.576527355637525</v>
       </c>
       <c r="K305" t="n">
-        <v>1.639340886302593</v>
+        <v>1.4371900302069385</v>
       </c>
       <c r="L305" t="n">
-        <v>1.593423473909423</v>
+        <v>1.4541647157392923</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>1.75929446863787</v>
       </c>
       <c r="C310" t="n">
-        <v>1.6858079316391434</v>
+        <v>1.6842286353930367</v>
       </c>
       <c r="D310" t="n">
-        <v>1.5910046869623165</v>
+        <v>1.5843316677639574</v>
       </c>
       <c r="E310" t="n">
-        <v>1.8313554264772927</v>
+        <v>1.8135117206232754</v>
       </c>
       <c r="F310" t="n">
-        <v>1.809991757186827</v>
+        <v>1.779928169708986</v>
       </c>
       <c r="G310" t="n">
         <v>1.75929446863787</v>
       </c>
       <c r="H310" t="n">
-        <v>1.6858079316391434</v>
+        <v>1.5469332807410403</v>
       </c>
       <c r="I310" t="n">
-        <v>1.5910046869623165</v>
+        <v>1.5825925553357196</v>
       </c>
       <c r="J310" t="n">
-        <v>1.8313554264772927</v>
+        <v>1.7582217282750732</v>
       </c>
       <c r="K310" t="n">
-        <v>1.809991757186827</v>
+        <v>1.6028258118923069</v>
       </c>
       <c r="L310" t="n">
-        <v>1.75929446863787</v>
+        <v>1.621756825570501</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>1.3709034902513688</v>
+        <v>1.3851837349414873</v>
       </c>
       <c r="C312" t="n">
-        <v>1.4344444595749137</v>
+        <v>1.4521836234168226</v>
       </c>
       <c r="D312" t="n">
-        <v>1.4757118992809104</v>
+        <v>1.5011526056904296</v>
       </c>
       <c r="E312" t="n">
-        <v>1.435459960005112</v>
+        <v>1.4448698835911473</v>
       </c>
       <c r="F312" t="n">
-        <v>1.5696128461937844</v>
+        <v>1.5648378671836216</v>
       </c>
       <c r="G312" t="n">
-        <v>1.3709034902513688</v>
+        <v>1.5667369435968515</v>
       </c>
       <c r="H312" t="n">
-        <v>1.4344444595749137</v>
+        <v>1.3683002025070254</v>
       </c>
       <c r="I312" t="n">
-        <v>1.4757118992809104</v>
+        <v>1.5753401347486125</v>
       </c>
       <c r="J312" t="n">
-        <v>1.435459960005112</v>
+        <v>1.5908702910280978</v>
       </c>
       <c r="K312" t="n">
-        <v>1.5696128461937844</v>
+        <v>1.5572873840723747</v>
       </c>
       <c r="L312" t="n">
-        <v>1.3709034902513688</v>
+        <v>1.4186716933829628</v>
       </c>
     </row>
     <row r="313">
@@ -12000,34 +12000,34 @@
         <v>2.4207974948995434</v>
       </c>
       <c r="C314" t="n">
-        <v>2.352681041673764</v>
+        <v>2.3662516281711214</v>
       </c>
       <c r="D314" t="n">
-        <v>2.668409833307188</v>
+        <v>2.6910878786269326</v>
       </c>
       <c r="E314" t="n">
-        <v>2.6347389149690326</v>
+        <v>2.6910878786269326</v>
       </c>
       <c r="F314" t="n">
-        <v>2.4702757014723726</v>
+        <v>2.468210987683445</v>
       </c>
       <c r="G314" t="n">
-        <v>2.4207974948995434</v>
+        <v>2.564356415503499</v>
       </c>
       <c r="H314" t="n">
-        <v>2.352681041673764</v>
+        <v>2.67314729276942</v>
       </c>
       <c r="I314" t="n">
-        <v>2.668409833307188</v>
+        <v>2.4234577115140046</v>
       </c>
       <c r="J314" t="n">
-        <v>2.6347389149690326</v>
+        <v>2.7226500211980307</v>
       </c>
       <c r="K314" t="n">
-        <v>2.4702757014723726</v>
+        <v>2.676391405836497</v>
       </c>
       <c r="L314" t="n">
-        <v>2.4207974948995434</v>
+        <v>2.774020777144685</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>5.533646741977306</v>
+        <v>5.47885816037357</v>
       </c>
       <c r="C315" t="n">
-        <v>5.790129623799164</v>
+        <v>5.743864799173524</v>
       </c>
       <c r="D315" t="n">
-        <v>5.956705487747808</v>
+        <v>5.937553261842539</v>
       </c>
       <c r="E315" t="n">
-        <v>5.794228687436395</v>
+        <v>5.714936547912732</v>
       </c>
       <c r="F315" t="n">
-        <v>6.335736304029217</v>
+        <v>6.1894494585894915</v>
       </c>
       <c r="G315" t="n">
-        <v>5.533646741977306</v>
+        <v>6.196960931646339</v>
       </c>
       <c r="H315" t="n">
-        <v>5.790129623799164</v>
+        <v>5.412078225610338</v>
       </c>
       <c r="I315" t="n">
-        <v>5.956705487747808</v>
+        <v>6.23098938784177</v>
       </c>
       <c r="J315" t="n">
-        <v>5.794228687436395</v>
+        <v>6.292416273905611</v>
       </c>
       <c r="K315" t="n">
-        <v>6.335736304029217</v>
+        <v>6.159584809615278</v>
       </c>
       <c r="L315" t="n">
-        <v>5.533646741977306</v>
+        <v>5.611314071999677</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>1.840327230930667</v>
+        <v>1.8219239586213603</v>
       </c>
       <c r="C316" t="n">
-        <v>1.9256258511161102</v>
+        <v>1.9100485149231488</v>
       </c>
       <c r="D316" t="n">
-        <v>1.981024056446968</v>
+        <v>1.9744571271404718</v>
       </c>
       <c r="E316" t="n">
-        <v>1.926989078438825</v>
+        <v>1.9004287962682196</v>
       </c>
       <c r="F316" t="n">
-        <v>2.107078494883222</v>
+        <v>2.0582219742135672</v>
       </c>
       <c r="G316" t="n">
-        <v>1.840327230930667</v>
+        <v>2.060719818166855</v>
       </c>
       <c r="H316" t="n">
-        <v>1.9256258511161102</v>
+        <v>1.7997171484541834</v>
       </c>
       <c r="I316" t="n">
-        <v>1.981024056446968</v>
+        <v>2.0720355445103027</v>
       </c>
       <c r="J316" t="n">
-        <v>1.926989078438825</v>
+        <v>2.0924622670403097</v>
       </c>
       <c r="K316" t="n">
-        <v>2.107078494883222</v>
+        <v>2.048290868517955</v>
       </c>
       <c r="L316" t="n">
-        <v>1.840327230930667</v>
+        <v>1.8659704719255454</v>
       </c>
     </row>
     <row r="317">
@@ -12190,34 +12190,34 @@
         <v>3.4889386389627024</v>
       </c>
       <c r="C319" t="n">
-        <v>3.6506499079225696</v>
+        <v>3.6576949517977386</v>
       </c>
       <c r="D319" t="n">
-        <v>3.755675218562719</v>
+        <v>3.7810358271309914</v>
       </c>
       <c r="E319" t="n">
-        <v>3.6532343485589798</v>
+        <v>3.639273432089238</v>
       </c>
       <c r="F319" t="n">
-        <v>3.99465239255725</v>
+        <v>3.9414434062493147</v>
       </c>
       <c r="G319" t="n">
-        <v>3.4889386389627024</v>
+        <v>3.946226714708203</v>
       </c>
       <c r="H319" t="n">
-        <v>3.6506499079225696</v>
+        <v>3.4464131550237345</v>
       </c>
       <c r="I319" t="n">
-        <v>3.755675218562719</v>
+        <v>3.9678960465597126</v>
       </c>
       <c r="J319" t="n">
-        <v>3.6532343485589798</v>
+        <v>4.007012707364941</v>
       </c>
       <c r="K319" t="n">
-        <v>3.99465239255725</v>
+        <v>3.922425588175687</v>
       </c>
       <c r="L319" t="n">
-        <v>3.4889386389627024</v>
+        <v>3.5732866060945696</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>0.8638822501309469</v>
+        <v>0.8726083334656031</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9564342363081194</v>
+        <v>0.9625624022675353</v>
       </c>
       <c r="D323" t="n">
-        <v>0.9097033815818086</v>
+        <v>0.9108093173876519</v>
       </c>
       <c r="E323" t="n">
-        <v>0.9464428623581238</v>
+        <v>0.9359850491910882</v>
       </c>
       <c r="F323" t="n">
-        <v>0.9487028680811165</v>
+        <v>0.9405012619994021</v>
       </c>
       <c r="G323" t="n">
-        <v>0.8638822501309469</v>
+        <v>0.9607831744431227</v>
       </c>
       <c r="H323" t="n">
-        <v>0.9564342363081194</v>
+        <v>0.9514039604783191</v>
       </c>
       <c r="I323" t="n">
-        <v>0.9097033815818086</v>
+        <v>0.9508238362024098</v>
       </c>
       <c r="J323" t="n">
-        <v>0.9464428623581238</v>
+        <v>0.8365617445681229</v>
       </c>
       <c r="K323" t="n">
-        <v>0.9487028680811165</v>
+        <v>0.8770253611808055</v>
       </c>
       <c r="L323" t="n">
-        <v>0.8638822501309469</v>
+        <v>0.8667877109691</v>
       </c>
     </row>
     <row r="324">
@@ -12494,34 +12494,34 @@
         <v>2.978833173386166</v>
       </c>
       <c r="C327" t="n">
-        <v>2.615276977054092</v>
+        <v>2.604703094075021</v>
       </c>
       <c r="D327" t="n">
-        <v>3.017234339907003</v>
+        <v>2.9969967905814814</v>
       </c>
       <c r="E327" t="n">
-        <v>2.933027189817336</v>
+        <v>2.964460036054466</v>
       </c>
       <c r="F327" t="n">
-        <v>2.684176892601646</v>
+        <v>2.748923231909532</v>
       </c>
       <c r="G327" t="n">
-        <v>2.978833173386166</v>
+        <v>2.9502249330030326</v>
       </c>
       <c r="H327" t="n">
-        <v>2.615276977054092</v>
+        <v>2.7643839927440568</v>
       </c>
       <c r="I327" t="n">
-        <v>3.017234339907003</v>
+        <v>2.7504615211122525</v>
       </c>
       <c r="J327" t="n">
-        <v>2.933027189817336</v>
+        <v>2.9988253423350666</v>
       </c>
       <c r="K327" t="n">
-        <v>2.684176892601646</v>
+        <v>2.636842670675524</v>
       </c>
       <c r="L327" t="n">
-        <v>2.978833173386166</v>
+        <v>2.697626091671899</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>3.612880302831591</v>
       </c>
       <c r="C329" t="n">
-        <v>3.572695854758771</v>
+        <v>3.5926740368307533</v>
       </c>
       <c r="D329" t="n">
-        <v>3.8814863006044056</v>
+        <v>3.893152226968718</v>
       </c>
       <c r="E329" t="n">
-        <v>3.504183849083893</v>
+        <v>3.529506141343441</v>
       </c>
       <c r="F329" t="n">
-        <v>3.9018520612651884</v>
+        <v>3.8978769295864115</v>
       </c>
       <c r="G329" t="n">
-        <v>3.612880302831591</v>
+        <v>3.9192807654047503</v>
       </c>
       <c r="H329" t="n">
-        <v>3.572695854758771</v>
+        <v>4.040063634132817</v>
       </c>
       <c r="I329" t="n">
-        <v>3.8814863006044056</v>
+        <v>3.9652476397221292</v>
       </c>
       <c r="J329" t="n">
-        <v>3.504183849083893</v>
+        <v>3.4041871635810126</v>
       </c>
       <c r="K329" t="n">
-        <v>3.9018520612651884</v>
+        <v>3.9579181627815583</v>
       </c>
       <c r="L329" t="n">
-        <v>3.612880302831591</v>
+        <v>3.9192807654047503</v>
       </c>
     </row>
     <row r="330">
@@ -12646,34 +12646,34 @@
         <v>2.092871019138198</v>
       </c>
       <c r="C331" t="n">
-        <v>2.002855024402095</v>
+        <v>1.9917175257225357</v>
       </c>
       <c r="D331" t="n">
-        <v>2.0196355858543296</v>
+        <v>2.0050922375351186</v>
       </c>
       <c r="E331" t="n">
-        <v>2.0525177199421787</v>
+        <v>2.0152417486560537</v>
       </c>
       <c r="F331" t="n">
-        <v>2.1334473987535625</v>
+        <v>2.083197574541749</v>
       </c>
       <c r="G331" t="n">
-        <v>2.092871019138198</v>
+        <v>2.2535219050436015</v>
       </c>
       <c r="H331" t="n">
-        <v>2.002855024402095</v>
+        <v>1.968736169476354</v>
       </c>
       <c r="I331" t="n">
-        <v>2.0196355858543296</v>
+        <v>1.8988340374605739</v>
       </c>
       <c r="J331" t="n">
-        <v>2.0525177199421787</v>
+        <v>2.1742110618692054</v>
       </c>
       <c r="K331" t="n">
-        <v>2.1334473987535625</v>
+        <v>2.211790017251617</v>
       </c>
       <c r="L331" t="n">
-        <v>2.092871019138198</v>
+        <v>2.171575652675688</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>1.6600478938439673</v>
       </c>
       <c r="C333" t="n">
-        <v>1.588647955143746</v>
+        <v>1.5798137837798052</v>
       </c>
       <c r="D333" t="n">
-        <v>1.6019581569868446</v>
+        <v>1.5904224940023735</v>
       </c>
       <c r="E333" t="n">
-        <v>1.6280399923882953</v>
+        <v>1.59847300184819</v>
       </c>
       <c r="F333" t="n">
-        <v>1.6922327408337434</v>
+        <v>1.6523749980077187</v>
       </c>
       <c r="G333" t="n">
-        <v>1.6600478938439673</v>
+        <v>1.787474841014964</v>
       </c>
       <c r="H333" t="n">
-        <v>1.588647955143746</v>
+        <v>1.5615851630548352</v>
       </c>
       <c r="I333" t="n">
-        <v>1.6019581569868446</v>
+        <v>1.5061393730530308</v>
       </c>
       <c r="J333" t="n">
-        <v>1.6280399923882953</v>
+        <v>1.7245661395390075</v>
       </c>
       <c r="K333" t="n">
-        <v>1.6922327408337434</v>
+        <v>1.7543734545455085</v>
       </c>
       <c r="L333" t="n">
-        <v>1.6600478938439673</v>
+        <v>1.7224757548754952</v>
       </c>
     </row>
     <row r="334">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.340052711073742</v>
+        <v>1.2998511297415296</v>
       </c>
       <c r="C341" t="n">
-        <v>1.3960588720692295</v>
+        <v>1.348458349834254</v>
       </c>
       <c r="D341" t="n">
-        <v>1.2850573002406813</v>
+        <v>1.2427703966129775</v>
       </c>
       <c r="E341" t="n">
-        <v>1.2530820489303842</v>
+        <v>1.2270822962036665</v>
       </c>
       <c r="F341" t="n">
-        <v>1.3867008499534554</v>
+        <v>1.3632585015599814</v>
       </c>
       <c r="G341" t="n">
-        <v>1.340052711073742</v>
+        <v>1.1848139604942365</v>
       </c>
       <c r="H341" t="n">
-        <v>1.3960588720692295</v>
+        <v>1.3419831592980362</v>
       </c>
       <c r="I341" t="n">
-        <v>1.2850573002406813</v>
+        <v>1.2574487872419373</v>
       </c>
       <c r="J341" t="n">
-        <v>1.2530820489303842</v>
+        <v>1.3058870612541478</v>
       </c>
       <c r="K341" t="n">
-        <v>1.3867008499534554</v>
+        <v>1.251115804879583</v>
       </c>
       <c r="L341" t="n">
-        <v>1.340052711073742</v>
+        <v>1.250416075790764</v>
       </c>
     </row>
     <row r="342">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>2.2093511684499694</v>
+        <v>2.253984525388353</v>
       </c>
       <c r="C348" t="n">
-        <v>2.3016887878684105</v>
+        <v>2.338271040516383</v>
       </c>
       <c r="D348" t="n">
-        <v>2.1186799775487914</v>
+        <v>2.1550046605209334</v>
       </c>
       <c r="E348" t="n">
-        <v>2.0659622312541095</v>
+        <v>2.1278009794637365</v>
       </c>
       <c r="F348" t="n">
-        <v>2.286260173064669</v>
+        <v>2.363934989410148</v>
       </c>
       <c r="G348" t="n">
-        <v>2.2093511684499694</v>
+        <v>2.0545062979243824</v>
       </c>
       <c r="H348" t="n">
-        <v>2.3016887878684105</v>
+        <v>2.327042847584414</v>
       </c>
       <c r="I348" t="n">
-        <v>2.1186799775487914</v>
+        <v>2.1804574716762075</v>
       </c>
       <c r="J348" t="n">
-        <v>2.0659622312541095</v>
+        <v>2.264451028755127</v>
       </c>
       <c r="K348" t="n">
-        <v>2.286260173064669</v>
+        <v>2.1694758723855703</v>
       </c>
       <c r="L348" t="n">
-        <v>2.2093511684499694</v>
+        <v>2.168262519177595</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>3.102972392877831</v>
+        <v>3.134002116806609</v>
       </c>
       <c r="C351" t="n">
-        <v>3.2326580164088785</v>
+        <v>3.2511964071196657</v>
       </c>
       <c r="D351" t="n">
-        <v>2.975627221945543</v>
+        <v>2.996377788635023</v>
       </c>
       <c r="E351" t="n">
-        <v>2.9015866105193835</v>
+        <v>2.9585530418109522</v>
       </c>
       <c r="F351" t="n">
-        <v>3.2109889551568624</v>
+        <v>3.286880267968186</v>
       </c>
       <c r="G351" t="n">
-        <v>3.102972392877831</v>
+        <v>2.8566420994297377</v>
       </c>
       <c r="H351" t="n">
-        <v>3.2326580164088785</v>
+        <v>3.23558441865198</v>
       </c>
       <c r="I351" t="n">
-        <v>2.975627221945543</v>
+        <v>3.0317680777611486</v>
       </c>
       <c r="J351" t="n">
-        <v>2.9015866105193835</v>
+        <v>3.1485550311401194</v>
       </c>
       <c r="K351" t="n">
-        <v>3.2109889551568624</v>
+        <v>3.016498959878962</v>
       </c>
       <c r="L351" t="n">
-        <v>3.102972392877831</v>
+        <v>3.0148118801854698</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1.8875671687685165</v>
+        <v>1.9066335038065825</v>
       </c>
       <c r="C353" t="n">
-        <v>1.9664561481871992</v>
+        <v>1.9779310179873928</v>
       </c>
       <c r="D353" t="n">
-        <v>1.8101019085861438</v>
+        <v>1.8229069633477681</v>
       </c>
       <c r="E353" t="n">
-        <v>1.7650623111974124</v>
+        <v>1.7998955144463682</v>
       </c>
       <c r="F353" t="n">
-        <v>1.9532746552769753</v>
+        <v>1.9996400156533822</v>
       </c>
       <c r="G353" t="n">
-        <v>1.8875671687685165</v>
+        <v>1.737895933748409</v>
       </c>
       <c r="H353" t="n">
-        <v>1.9664561481871992</v>
+        <v>1.968433149395057</v>
       </c>
       <c r="I353" t="n">
-        <v>1.8101019085861438</v>
+        <v>1.8444373607254279</v>
       </c>
       <c r="J353" t="n">
-        <v>1.7650623111974124</v>
+        <v>1.9154870632529846</v>
       </c>
       <c r="K353" t="n">
-        <v>1.9532746552769753</v>
+        <v>1.8351480843807733</v>
       </c>
       <c r="L353" t="n">
-        <v>1.8875671687685165</v>
+        <v>1.8341217153652725</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>4.1477036558828235</v>
+        <v>4.23065772900048</v>
       </c>
       <c r="C356" t="n">
-        <v>3.6414908950885434</v>
+        <v>3.699303262482973</v>
       </c>
       <c r="D356" t="n">
-        <v>4.2011731352050194</v>
+        <v>4.256454422873945</v>
       </c>
       <c r="E356" t="n">
-        <v>4.083923768104222</v>
+        <v>4.210244425870376</v>
       </c>
       <c r="F356" t="n">
-        <v>3.7374265903667565</v>
+        <v>3.904130456653605</v>
       </c>
       <c r="G356" t="n">
-        <v>4.1477036558828235</v>
+        <v>4.190027164532707</v>
       </c>
       <c r="H356" t="n">
-        <v>3.6414908950885434</v>
+        <v>3.926088446078859</v>
       </c>
       <c r="I356" t="n">
-        <v>4.2011731352050194</v>
+        <v>3.9063151963574168</v>
       </c>
       <c r="J356" t="n">
-        <v>4.083923768104222</v>
+        <v>4.2590514050340404</v>
       </c>
       <c r="K356" t="n">
-        <v>3.7374265903667565</v>
+        <v>3.7449491715478156</v>
       </c>
       <c r="L356" t="n">
-        <v>4.1477036558828235</v>
+        <v>3.8312762113199312</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>4.692130489425323</v>
+        <v>4.739525746894266</v>
       </c>
       <c r="C362" t="n">
-        <v>4.119472332980091</v>
+        <v>4.144259399176279</v>
       </c>
       <c r="D362" t="n">
-        <v>4.752618362956387</v>
+        <v>4.768425294583965</v>
       </c>
       <c r="E362" t="n">
-        <v>4.61997886508407</v>
+        <v>4.7166571099206145</v>
       </c>
       <c r="F362" t="n">
-        <v>4.228000530311804</v>
+        <v>4.373723426431723</v>
       </c>
       <c r="G362" t="n">
-        <v>4.692130489425323</v>
+        <v>4.694008094855005</v>
       </c>
       <c r="H362" t="n">
-        <v>4.119472332980091</v>
+        <v>4.398322546213415</v>
       </c>
       <c r="I362" t="n">
-        <v>4.752618362956387</v>
+        <v>4.376170948954166</v>
       </c>
       <c r="J362" t="n">
-        <v>4.61997886508407</v>
+        <v>4.77133464452443</v>
       </c>
       <c r="K362" t="n">
-        <v>4.228000530311804</v>
+        <v>4.1953956468027975</v>
       </c>
       <c r="L362" t="n">
-        <v>4.692130489425323</v>
+        <v>4.292106194869226</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>4.4721135525483</v>
+        <v>4.427835200542871</v>
       </c>
       <c r="C364" t="n">
-        <v>4.346277122915358</v>
+        <v>4.328066380865433</v>
       </c>
       <c r="D364" t="n">
-        <v>4.929545657755</v>
+        <v>4.922218261479589</v>
       </c>
       <c r="E364" t="n">
-        <v>4.867342945407489</v>
+        <v>4.922218261479589</v>
       </c>
       <c r="F364" t="n">
-        <v>4.5635182068559565</v>
+        <v>4.514558329086903</v>
       </c>
       <c r="G364" t="n">
-        <v>4.4721135525483</v>
+        <v>4.690416124119261</v>
       </c>
       <c r="H364" t="n">
-        <v>4.346277122915358</v>
+        <v>4.889403473069725</v>
       </c>
       <c r="I364" t="n">
-        <v>4.929545657755</v>
+        <v>4.432700952755271</v>
       </c>
       <c r="J364" t="n">
-        <v>4.867342945407489</v>
+        <v>4.979947983265616</v>
       </c>
       <c r="K364" t="n">
-        <v>4.5635182068559565</v>
+        <v>4.895337219309635</v>
       </c>
       <c r="L364" t="n">
-        <v>4.4721135525483</v>
+        <v>5.073909267486348</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>5.134785660213023</v>
+        <v>5.084444624328581</v>
       </c>
       <c r="C366" t="n">
-        <v>5.083806870942022</v>
+        <v>5.005095550421676</v>
       </c>
       <c r="D366" t="n">
-        <v>5.3396541974915115</v>
+        <v>5.244332822644605</v>
       </c>
       <c r="E366" t="n">
-        <v>5.2500302283511475</v>
+        <v>5.147215546611653</v>
       </c>
       <c r="F366" t="n">
-        <v>4.669984858750076</v>
+        <v>4.581587465204911</v>
       </c>
       <c r="G366" t="n">
-        <v>5.134785660213023</v>
+        <v>4.66619428468874</v>
       </c>
       <c r="H366" t="n">
-        <v>5.083806870942022</v>
+        <v>5.137701286448149</v>
       </c>
       <c r="I366" t="n">
-        <v>5.3396541974915115</v>
+        <v>5.0292455906933515</v>
       </c>
       <c r="J366" t="n">
-        <v>5.2500302283511475</v>
+        <v>5.08754678652076</v>
       </c>
       <c r="K366" t="n">
-        <v>4.669984858750076</v>
+        <v>4.847958829142842</v>
       </c>
       <c r="L366" t="n">
-        <v>5.134785660213023</v>
+        <v>4.418913188783311</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>3.144609872204418</v>
       </c>
       <c r="C381" t="n">
-        <v>3.10963378622121</v>
+        <v>3.127022568385683</v>
       </c>
       <c r="D381" t="n">
-        <v>3.378401473788259</v>
+        <v>3.3885553632445125</v>
       </c>
       <c r="E381" t="n">
-        <v>3.050001716694607</v>
+        <v>3.0720419515077597</v>
       </c>
       <c r="F381" t="n">
-        <v>3.3961275999426896</v>
+        <v>3.392667690598171</v>
       </c>
       <c r="G381" t="n">
-        <v>3.144609872204418</v>
+        <v>3.411297345548167</v>
       </c>
       <c r="H381" t="n">
-        <v>3.10963378622121</v>
+        <v>3.516425379017134</v>
       </c>
       <c r="I381" t="n">
-        <v>3.378401473788259</v>
+        <v>3.4513063894845306</v>
       </c>
       <c r="J381" t="n">
-        <v>3.050001716694607</v>
+        <v>2.962965740392368</v>
       </c>
       <c r="K381" t="n">
-        <v>3.3961275999426896</v>
+        <v>3.4449268962233366</v>
       </c>
       <c r="L381" t="n">
-        <v>3.144609872204418</v>
+        <v>3.411297345548167</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>3.3142651691265206</v>
+        <v>3.3812200210280663</v>
       </c>
       <c r="C387" t="n">
-        <v>3.2774020833265456</v>
+        <v>3.3623093942080455</v>
       </c>
       <c r="D387" t="n">
-        <v>3.5606700948416616</v>
+        <v>3.6435207234570353</v>
       </c>
       <c r="E387" t="n">
-        <v>3.214552795489004</v>
+        <v>3.303191866084982</v>
       </c>
       <c r="F387" t="n">
-        <v>3.5793525657632417</v>
+        <v>3.647942475008513</v>
       </c>
       <c r="G387" t="n">
-        <v>3.3142651691265206</v>
+        <v>3.6679738826748682</v>
       </c>
       <c r="H387" t="n">
-        <v>3.2774020833265456</v>
+        <v>3.7810120737326973</v>
       </c>
       <c r="I387" t="n">
-        <v>3.5606700948416616</v>
+        <v>3.7109933305165774</v>
       </c>
       <c r="J387" t="n">
-        <v>3.214552795489004</v>
+        <v>3.1859084243133307</v>
       </c>
       <c r="K387" t="n">
-        <v>3.5793525657632417</v>
+        <v>3.7041338244998134</v>
       </c>
       <c r="L387" t="n">
-        <v>3.3142651691265206</v>
+        <v>3.6679738826748682</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>0.7023687120597156</v>
+        <v>0.7097620669235022</v>
       </c>
       <c r="C389" t="n">
-        <v>0.6945565797242998</v>
+        <v>0.7057924803555994</v>
       </c>
       <c r="D389" t="n">
-        <v>0.7545875604282442</v>
+        <v>0.7648223964949761</v>
       </c>
       <c r="E389" t="n">
-        <v>0.681237375888851</v>
+        <v>0.6933829421737936</v>
       </c>
       <c r="F389" t="n">
-        <v>0.7585468039919514</v>
+        <v>0.7657505796658675</v>
       </c>
       <c r="G389" t="n">
-        <v>0.7023687120597156</v>
+        <v>0.7699554327130633</v>
       </c>
       <c r="H389" t="n">
-        <v>0.6945565797242998</v>
+        <v>0.7936836194703701</v>
       </c>
       <c r="I389" t="n">
-        <v>0.7545875604282442</v>
+        <v>0.7789857744323685</v>
       </c>
       <c r="J389" t="n">
-        <v>0.681237375888851</v>
+        <v>0.6687636220674259</v>
       </c>
       <c r="K389" t="n">
-        <v>0.7585468039919514</v>
+        <v>0.7775458748877501</v>
       </c>
       <c r="L389" t="n">
-        <v>0.7023687120597156</v>
+        <v>0.7699554327130633</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>1.124336211198046</v>
+        <v>1.1358090296796588</v>
       </c>
       <c r="C394" t="n">
-        <v>1.1131736617610666</v>
+        <v>1.1180833189483548</v>
       </c>
       <c r="D394" t="n">
-        <v>1.1691951654446047</v>
+        <v>1.171526295340809</v>
       </c>
       <c r="E394" t="n">
-        <v>1.149570690234937</v>
+        <v>1.149831363601694</v>
       </c>
       <c r="F394" t="n">
-        <v>1.0225612965939213</v>
+        <v>1.0234762688430417</v>
       </c>
       <c r="G394" t="n">
-        <v>1.124336211198046</v>
+        <v>1.0423765021315299</v>
       </c>
       <c r="H394" t="n">
-        <v>1.1131736617610666</v>
+        <v>1.1477059824828355</v>
       </c>
       <c r="I394" t="n">
-        <v>1.1691951654446047</v>
+        <v>1.1234781724347016</v>
       </c>
       <c r="J394" t="n">
-        <v>1.149570690234937</v>
+        <v>1.1365020186076034</v>
       </c>
       <c r="K394" t="n">
-        <v>1.0225612965939213</v>
+        <v>1.0829807030070269</v>
       </c>
       <c r="L394" t="n">
-        <v>1.124336211198046</v>
+        <v>0.9871366239638023</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>4.238755546380189</v>
+        <v>4.197199119454893</v>
       </c>
       <c r="C395" t="n">
-        <v>3.9714783534459093</v>
+        <v>3.913001529261717</v>
       </c>
       <c r="D395" t="n">
-        <v>4.279613912443852</v>
+        <v>4.243042315345322</v>
       </c>
       <c r="E395" t="n">
-        <v>4.3206776984493676</v>
+        <v>4.237899230148831</v>
       </c>
       <c r="F395" t="n">
-        <v>4.303348525065821</v>
+        <v>4.266341506861241</v>
       </c>
       <c r="G395" t="n">
-        <v>4.238755546380189</v>
+        <v>3.932808624314012</v>
       </c>
       <c r="H395" t="n">
-        <v>3.9714783534459093</v>
+        <v>4.3163788467660416</v>
       </c>
       <c r="I395" t="n">
-        <v>4.279613912443852</v>
+        <v>4.3084003288779735</v>
       </c>
       <c r="J395" t="n">
-        <v>4.3206776984493676</v>
+        <v>4.217450986125956</v>
       </c>
       <c r="K395" t="n">
-        <v>4.303348525065821</v>
+        <v>4.397819958397771</v>
       </c>
       <c r="L395" t="n">
-        <v>4.238755546380189</v>
+        <v>4.065426588532883</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>2.458172993572461</v>
+        <v>2.4827547235081857</v>
       </c>
       <c r="C397" t="n">
-        <v>2.3031714677048085</v>
+        <v>2.314644302872867</v>
       </c>
       <c r="D397" t="n">
-        <v>2.481867903769621</v>
+        <v>2.5098721911094026</v>
       </c>
       <c r="E397" t="n">
-        <v>2.5056819427412242</v>
+        <v>2.506829919656089</v>
       </c>
       <c r="F397" t="n">
-        <v>2.4956322700138722</v>
+        <v>2.5236542815329757</v>
       </c>
       <c r="G397" t="n">
-        <v>2.458172993572461</v>
+        <v>2.3263607255157956</v>
       </c>
       <c r="H397" t="n">
-        <v>2.3031714677048085</v>
+        <v>2.5532526966819247</v>
       </c>
       <c r="I397" t="n">
-        <v>2.481867903769621</v>
+        <v>2.548533191504918</v>
       </c>
       <c r="J397" t="n">
-        <v>2.5056819427412242</v>
+        <v>2.4947342403732256</v>
       </c>
       <c r="K397" t="n">
-        <v>2.4956322700138722</v>
+        <v>2.6014272766426902</v>
       </c>
       <c r="L397" t="n">
-        <v>2.458172993572461</v>
+        <v>2.404807772633542</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>4.527091616091471</v>
+        <v>4.482268926823238</v>
       </c>
       <c r="C398" t="n">
-        <v>4.241633224809966</v>
+        <v>4.178768904225702</v>
       </c>
       <c r="D398" t="n">
-        <v>4.570729321646811</v>
+        <v>4.531225749360794</v>
       </c>
       <c r="E398" t="n">
-        <v>4.614586420579845</v>
+        <v>4.5257333506662984</v>
       </c>
       <c r="F398" t="n">
-        <v>4.596078451747944</v>
+        <v>4.55610739999963</v>
       </c>
       <c r="G398" t="n">
-        <v>4.527091616091471</v>
+        <v>4.1999212785012086</v>
       </c>
       <c r="H398" t="n">
-        <v>4.241633224809966</v>
+        <v>4.60954322885907</v>
       </c>
       <c r="I398" t="n">
-        <v>4.570729321646811</v>
+        <v>4.601022817557632</v>
       </c>
       <c r="J398" t="n">
-        <v>4.614586420579845</v>
+        <v>4.50389628118656</v>
       </c>
       <c r="K398" t="n">
-        <v>4.596078451747944</v>
+        <v>4.696515744015857</v>
       </c>
       <c r="L398" t="n">
-        <v>4.527091616091471</v>
+        <v>4.341546529826908</v>
       </c>
     </row>
     <row r="399">
@@ -15382,34 +15382,34 @@
         <v>2.112996575167075</v>
       </c>
       <c r="C403" t="n">
-        <v>1.9797603488476088</v>
+        <v>1.9699229401885878</v>
       </c>
       <c r="D403" t="n">
-        <v>2.1333642483236854</v>
+        <v>2.1360754220729063</v>
       </c>
       <c r="E403" t="n">
-        <v>2.153834322203541</v>
+        <v>2.133486237929699</v>
       </c>
       <c r="F403" t="n">
-        <v>2.1451958235665574</v>
+        <v>2.14780493751312</v>
       </c>
       <c r="G403" t="n">
-        <v>2.112996575167075</v>
+        <v>1.9798944289882292</v>
       </c>
       <c r="H403" t="n">
-        <v>1.9797603488476088</v>
+        <v>2.1729952429621138</v>
       </c>
       <c r="I403" t="n">
-        <v>2.1333642483236854</v>
+        <v>2.1689786165184803</v>
       </c>
       <c r="J403" t="n">
-        <v>2.153834322203541</v>
+        <v>2.123191975408714</v>
       </c>
       <c r="K403" t="n">
-        <v>2.1451958235665574</v>
+        <v>2.2139951538688885</v>
       </c>
       <c r="L403" t="n">
-        <v>2.112996575167075</v>
+        <v>2.0466583103826617</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>1.4365751266357851</v>
+        <v>1.4078436241030692</v>
       </c>
       <c r="C406" t="n">
-        <v>1.5139509993839968</v>
+        <v>1.489694997499666</v>
       </c>
       <c r="D406" t="n">
-        <v>1.4583278761578693</v>
+        <v>1.4410997729707844</v>
       </c>
       <c r="E406" t="n">
-        <v>1.5638084936334449</v>
+        <v>1.5547787602851215</v>
       </c>
       <c r="F406" t="n">
-        <v>1.6287563332072308</v>
+        <v>1.6114939599225673</v>
       </c>
       <c r="G406" t="n">
-        <v>1.4365751266357851</v>
+        <v>1.5528941786496944</v>
       </c>
       <c r="H406" t="n">
-        <v>1.5139509993839968</v>
+        <v>1.5623630457409532</v>
       </c>
       <c r="I406" t="n">
-        <v>1.4583278761578693</v>
+        <v>1.4330399307104216</v>
       </c>
       <c r="J406" t="n">
-        <v>1.5638084936334449</v>
+        <v>1.4242775964991945</v>
       </c>
       <c r="K406" t="n">
-        <v>1.6287563332072308</v>
+        <v>1.563316287231236</v>
       </c>
       <c r="L406" t="n">
-        <v>1.4365751266357851</v>
+        <v>1.3746112638635861</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>5.873283603543479</v>
+        <v>5.816809722740176</v>
       </c>
       <c r="C407" t="n">
-        <v>6.189626575307291</v>
+        <v>6.154996334123447</v>
       </c>
       <c r="D407" t="n">
-        <v>5.962217391085267</v>
+        <v>5.954214677923223</v>
       </c>
       <c r="E407" t="n">
-        <v>6.393463602734321</v>
+        <v>6.423903944089109</v>
       </c>
       <c r="F407" t="n">
-        <v>6.6589958914268</v>
+        <v>6.6582350296089405</v>
       </c>
       <c r="G407" t="n">
-        <v>5.873283603543479</v>
+        <v>6.416117388400274</v>
       </c>
       <c r="H407" t="n">
-        <v>6.189626575307291</v>
+        <v>6.455240056015336</v>
       </c>
       <c r="I407" t="n">
-        <v>5.962217391085267</v>
+        <v>5.92091370044165</v>
       </c>
       <c r="J407" t="n">
-        <v>6.393463602734321</v>
+        <v>5.884710225878745</v>
       </c>
       <c r="K407" t="n">
-        <v>6.6589958914268</v>
+        <v>6.459178578926451</v>
       </c>
       <c r="L407" t="n">
-        <v>5.873283603543479</v>
+        <v>5.679503055407869</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>1.828148801307359</v>
+        <v>1.8466149508155143</v>
       </c>
       <c r="C410" t="n">
-        <v>1.9266153599940716</v>
+        <v>1.9539762850370153</v>
       </c>
       <c r="D410" t="n">
-        <v>1.8558307945610397</v>
+        <v>1.8902357767753533</v>
       </c>
       <c r="E410" t="n">
-        <v>1.9900627333046257</v>
+        <v>2.039344181980485</v>
       </c>
       <c r="F410" t="n">
-        <v>2.0727136945128812</v>
+        <v>2.1137353528434555</v>
       </c>
       <c r="G410" t="n">
-        <v>1.828148801307359</v>
+        <v>2.0368722479073886</v>
       </c>
       <c r="H410" t="n">
-        <v>1.9266153599940716</v>
+        <v>2.0492922008330154</v>
       </c>
       <c r="I410" t="n">
-        <v>1.8558307945610397</v>
+        <v>1.8796639881445791</v>
       </c>
       <c r="J410" t="n">
-        <v>1.9900627333046257</v>
+        <v>1.8681707675329484</v>
       </c>
       <c r="K410" t="n">
-        <v>2.0727136945128812</v>
+        <v>2.050542531450392</v>
       </c>
       <c r="L410" t="n">
-        <v>1.828148801307359</v>
+        <v>1.8030253274948038</v>
       </c>
     </row>
     <row r="411">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>2.6884287942346505</v>
+        <v>2.7155846406410613</v>
       </c>
       <c r="C414" t="n">
-        <v>2.833231192952548</v>
+        <v>2.8734674683967256</v>
       </c>
       <c r="D414" t="n">
-        <v>2.729137224364509</v>
+        <v>2.779732309832358</v>
       </c>
       <c r="E414" t="n">
-        <v>2.9265352747672595</v>
+        <v>2.9990073107126003</v>
       </c>
       <c r="F414" t="n">
-        <v>3.048079660992573</v>
+        <v>3.1084050608529696</v>
       </c>
       <c r="G414" t="n">
-        <v>2.6884287942346505</v>
+        <v>2.9953721477899706</v>
       </c>
       <c r="H414" t="n">
-        <v>2.833231192952548</v>
+        <v>3.013636612391766</v>
       </c>
       <c r="I414" t="n">
-        <v>2.729137224364509</v>
+        <v>2.7641857082968535</v>
       </c>
       <c r="J414" t="n">
-        <v>2.9265352747672595</v>
+        <v>2.7472840724952694</v>
       </c>
       <c r="K414" t="n">
-        <v>3.048079660992573</v>
+        <v>3.015475316567085</v>
       </c>
       <c r="L414" t="n">
-        <v>2.6884287942346505</v>
+        <v>2.6514828572515277</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>5.301961428318081</v>
+        <v>5.249981414314963</v>
       </c>
       <c r="C416" t="n">
-        <v>5.587532217612051</v>
+        <v>5.555212891526829</v>
       </c>
       <c r="D416" t="n">
-        <v>5.382244204197713</v>
+        <v>5.373996724309658</v>
       </c>
       <c r="E416" t="n">
-        <v>5.771541049814381</v>
+        <v>5.797916370199763</v>
       </c>
       <c r="F416" t="n">
-        <v>6.011243752365841</v>
+        <v>6.009412689043733</v>
       </c>
       <c r="G416" t="n">
-        <v>5.301961428318081</v>
+        <v>5.790888587859196</v>
       </c>
       <c r="H416" t="n">
-        <v>5.587532217612051</v>
+        <v>5.826198884679553</v>
       </c>
       <c r="I416" t="n">
-        <v>5.382244204197713</v>
+        <v>5.343940813734949</v>
       </c>
       <c r="J416" t="n">
-        <v>5.771541049814381</v>
+        <v>5.311265244540063</v>
       </c>
       <c r="K416" t="n">
-        <v>6.011243752365841</v>
+        <v>5.829753611938788</v>
       </c>
       <c r="L416" t="n">
-        <v>5.301961428318081</v>
+        <v>5.126054814354502</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>1.7828578164616273</v>
+        <v>1.8012377939509225</v>
       </c>
       <c r="C420" t="n">
-        <v>1.5958200102168782</v>
+        <v>1.6203231317513074</v>
       </c>
       <c r="D420" t="n">
-        <v>1.622517875193803</v>
+        <v>1.6511346453173752</v>
       </c>
       <c r="E420" t="n">
-        <v>1.7749616317406147</v>
+        <v>1.8001394783937426</v>
       </c>
       <c r="F420" t="n">
-        <v>1.7524979593066994</v>
+        <v>1.772046065825076</v>
       </c>
       <c r="G420" t="n">
-        <v>1.7828578164616273</v>
+        <v>1.5838137046770886</v>
       </c>
       <c r="H420" t="n">
-        <v>1.5958200102168782</v>
+        <v>1.7805963489159418</v>
       </c>
       <c r="I420" t="n">
-        <v>1.622517875193803</v>
+        <v>1.7164120612524059</v>
       </c>
       <c r="J420" t="n">
-        <v>1.7749616317406147</v>
+        <v>1.6221037063449948</v>
       </c>
       <c r="K420" t="n">
-        <v>1.7524979593066994</v>
+        <v>1.7892295419912496</v>
       </c>
       <c r="L420" t="n">
-        <v>1.7828578164616273</v>
+        <v>1.7914009385891383</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>2.031574059332522</v>
+        <v>2.0525181217998676</v>
       </c>
       <c r="C423" t="n">
-        <v>1.8184436841714622</v>
+        <v>1.8463650953027293</v>
       </c>
       <c r="D423" t="n">
-        <v>1.8488660147835176</v>
+        <v>1.8814749459658782</v>
       </c>
       <c r="E423" t="n">
-        <v>2.0225763232826868</v>
+        <v>2.051266586554417</v>
       </c>
       <c r="F423" t="n">
-        <v>1.99697887306949</v>
+        <v>2.019254023530238</v>
       </c>
       <c r="G423" t="n">
-        <v>2.031574059332522</v>
+        <v>1.8047624479798592</v>
       </c>
       <c r="H423" t="n">
-        <v>1.8184436841714622</v>
+        <v>2.0289971074525592</v>
       </c>
       <c r="I423" t="n">
-        <v>1.8488660147835176</v>
+        <v>1.9558588388649012</v>
       </c>
       <c r="J423" t="n">
-        <v>2.0225763232826868</v>
+        <v>1.8483940676200064</v>
       </c>
       <c r="K423" t="n">
-        <v>1.99697887306949</v>
+        <v>2.0388346676545352</v>
       </c>
       <c r="L423" t="n">
-        <v>2.031574059332522</v>
+        <v>2.041308983306665</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>2.5706562018202295</v>
+        <v>2.596362763838432</v>
       </c>
       <c r="C425" t="n">
-        <v>2.460090298324339</v>
+        <v>2.4708743026122133</v>
       </c>
       <c r="D425" t="n">
-        <v>2.48070172347799</v>
+        <v>2.4874666312410265</v>
       </c>
       <c r="E425" t="n">
-        <v>2.521090577425053</v>
+        <v>2.500057857601651</v>
       </c>
       <c r="F425" t="n">
-        <v>2.620495834053563</v>
+        <v>2.584362133547027</v>
       </c>
       <c r="G425" t="n">
-        <v>2.5706562018202295</v>
+        <v>2.7956621828318697</v>
       </c>
       <c r="H425" t="n">
-        <v>2.460090298324339</v>
+        <v>2.442364214281657</v>
       </c>
       <c r="I425" t="n">
-        <v>2.48070172347799</v>
+        <v>2.3556454002606073</v>
       </c>
       <c r="J425" t="n">
-        <v>2.521090577425053</v>
+        <v>2.697271160115417</v>
       </c>
       <c r="K425" t="n">
-        <v>2.620495834053563</v>
+        <v>2.743890660106877</v>
       </c>
       <c r="L425" t="n">
-        <v>2.5706562018202295</v>
+        <v>2.6940017382375494</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>4.62164139584397</v>
+        <v>4.530123744441119</v>
       </c>
       <c r="C428" t="n">
-        <v>4.136789681956789</v>
+        <v>4.075122295048729</v>
       </c>
       <c r="D428" t="n">
-        <v>4.205997645047694</v>
+        <v>4.152613434573206</v>
       </c>
       <c r="E428" t="n">
-        <v>4.601172386011044</v>
+        <v>4.5273614742949</v>
       </c>
       <c r="F428" t="n">
-        <v>4.542940575563417</v>
+        <v>4.4567063749143</v>
       </c>
       <c r="G428" t="n">
-        <v>4.62164139584397</v>
+        <v>3.983300869226833</v>
       </c>
       <c r="H428" t="n">
-        <v>4.136789681956789</v>
+        <v>4.478210387644714</v>
       </c>
       <c r="I428" t="n">
-        <v>4.205997645047694</v>
+        <v>4.316786523154924</v>
       </c>
       <c r="J428" t="n">
-        <v>4.601172386011044</v>
+        <v>4.079600450721845</v>
       </c>
       <c r="K428" t="n">
-        <v>4.542940575563417</v>
+        <v>4.499922919478178</v>
       </c>
       <c r="L428" t="n">
-        <v>4.62164139584397</v>
+        <v>4.505383994811889</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>6.283817516423418</v>
+        <v>6.222211462340835</v>
       </c>
       <c r="C429" t="n">
-        <v>6.221430996286979</v>
+        <v>6.125106123671742</v>
       </c>
       <c r="D429" t="n">
-        <v>6.534530318924546</v>
+        <v>6.41787849261877</v>
       </c>
       <c r="E429" t="n">
-        <v>6.424850829955916</v>
+        <v>6.299028889019566</v>
       </c>
       <c r="F429" t="n">
-        <v>5.715006350552993</v>
+        <v>5.606827912985603</v>
       </c>
       <c r="G429" t="n">
-        <v>6.283817516423418</v>
+        <v>5.710367544328132</v>
       </c>
       <c r="H429" t="n">
-        <v>6.221430996286979</v>
+        <v>6.287385584190995</v>
       </c>
       <c r="I429" t="n">
-        <v>6.534530318924546</v>
+        <v>6.1546603166066784</v>
       </c>
       <c r="J429" t="n">
-        <v>6.424850829955916</v>
+        <v>6.226007807974703</v>
       </c>
       <c r="K429" t="n">
-        <v>5.715006350552993</v>
+        <v>5.932806279630283</v>
       </c>
       <c r="L429" t="n">
-        <v>6.283817516423418</v>
+        <v>5.407751352581103</v>
       </c>
     </row>
     <row r="430">
@@ -17016,34 +17016,34 @@
         <v>1.614701239489906</v>
       </c>
       <c r="C446" t="n">
-        <v>1.7746666579467312</v>
+        <v>1.7712484930549626</v>
       </c>
       <c r="D446" t="n">
-        <v>1.5522591853085586</v>
+        <v>1.539399856794924</v>
       </c>
       <c r="E446" t="n">
-        <v>1.595129930140981</v>
+        <v>1.6246350838096297</v>
       </c>
       <c r="F446" t="n">
-        <v>1.687670952008735</v>
+        <v>1.6967071811395644</v>
       </c>
       <c r="G446" t="n">
-        <v>1.614701239489906</v>
+        <v>1.594318073584768</v>
       </c>
       <c r="H446" t="n">
-        <v>1.7746666579467312</v>
+        <v>1.6888648426662125</v>
       </c>
       <c r="I446" t="n">
-        <v>1.5522591853085586</v>
+        <v>1.7605136535360362</v>
       </c>
       <c r="J446" t="n">
-        <v>1.595129930140981</v>
+        <v>1.826948132100973</v>
       </c>
       <c r="K446" t="n">
-        <v>1.687670952008735</v>
+        <v>1.7723291814121174</v>
       </c>
       <c r="L446" t="n">
-        <v>1.614701239489906</v>
+        <v>1.7898013123880825</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>1.1535345583093293</v>
+        <v>1.1304638671431426</v>
       </c>
       <c r="C447" t="n">
-        <v>1.2678130599983808</v>
+        <v>1.2400637171511217</v>
       </c>
       <c r="D447" t="n">
-        <v>1.1089262644476348</v>
+        <v>1.0777448314474205</v>
       </c>
       <c r="E447" t="n">
-        <v>1.1395529119631114</v>
+        <v>1.1374186224815483</v>
       </c>
       <c r="F447" t="n">
-        <v>1.2056637590814527</v>
+        <v>1.1878768124352845</v>
       </c>
       <c r="G447" t="n">
-        <v>1.1535345583093293</v>
+        <v>1.1161934671519829</v>
       </c>
       <c r="H447" t="n">
-        <v>1.2678130599983808</v>
+        <v>1.1823863352738058</v>
       </c>
       <c r="I447" t="n">
-        <v>1.1089262644476348</v>
+        <v>1.2325481793544457</v>
       </c>
       <c r="J447" t="n">
-        <v>1.1395529119631114</v>
+        <v>1.2790594321567794</v>
       </c>
       <c r="K447" t="n">
-        <v>1.2056637590814527</v>
+        <v>1.2408203147863548</v>
       </c>
       <c r="L447" t="n">
-        <v>1.1535345583093293</v>
+        <v>1.2530526784380733</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>1.4602080070731156</v>
       </c>
       <c r="C449" t="n">
-        <v>1.6048680712217303</v>
+        <v>1.6017769534208708</v>
       </c>
       <c r="D449" t="n">
-        <v>1.4037403551856984</v>
+        <v>1.3921113962167162</v>
       </c>
       <c r="E449" t="n">
-        <v>1.4425092638497354</v>
+        <v>1.4691913896716577</v>
       </c>
       <c r="F449" t="n">
-        <v>1.526196039959916</v>
+        <v>1.5343676904224823</v>
       </c>
       <c r="G449" t="n">
-        <v>1.4602080070731156</v>
+        <v>1.441775085033875</v>
       </c>
       <c r="H449" t="n">
-        <v>1.6048680712217303</v>
+        <v>1.5272757001812516</v>
       </c>
       <c r="I449" t="n">
-        <v>1.4037403551856984</v>
+        <v>1.5920692141581372</v>
       </c>
       <c r="J449" t="n">
-        <v>1.4425092638497354</v>
+        <v>1.6521472986816206</v>
       </c>
       <c r="K449" t="n">
-        <v>1.526196039959916</v>
+        <v>1.602754242441078</v>
       </c>
       <c r="L449" t="n">
-        <v>1.4602080070731156</v>
+        <v>1.6185546548813348</v>
       </c>
     </row>
     <row r="450">
@@ -17168,34 +17168,34 @@
         <v>1.4578807025340783</v>
       </c>
       <c r="C450" t="n">
-        <v>1.6023102049940297</v>
+        <v>1.5992240138696805</v>
       </c>
       <c r="D450" t="n">
-        <v>1.4015030497576848</v>
+        <v>1.3898926252227433</v>
       </c>
       <c r="E450" t="n">
-        <v>1.4402101678708754</v>
+        <v>1.4668497672635248</v>
       </c>
       <c r="F450" t="n">
-        <v>1.5237635625635078</v>
+        <v>1.5319221889095642</v>
       </c>
       <c r="G450" t="n">
-        <v>1.4578807025340783</v>
+        <v>1.4394771592017903</v>
       </c>
       <c r="H450" t="n">
-        <v>1.6023102049940297</v>
+        <v>1.524841502003885</v>
       </c>
       <c r="I450" t="n">
-        <v>1.4015030497576848</v>
+        <v>1.5895317469681038</v>
       </c>
       <c r="J450" t="n">
-        <v>1.4402101678708754</v>
+        <v>1.6495140780111717</v>
       </c>
       <c r="K450" t="n">
-        <v>1.5237635625635078</v>
+        <v>1.6001997452699035</v>
       </c>
       <c r="L450" t="n">
-        <v>1.4578807025340783</v>
+        <v>1.6159749747421088</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>3.095921716818163</v>
+        <v>3.065569543123867</v>
       </c>
       <c r="C452" t="n">
-        <v>3.4026288653782517</v>
+        <v>3.3627802474027164</v>
       </c>
       <c r="D452" t="n">
-        <v>2.9761994382597843</v>
+        <v>2.9226071054299587</v>
       </c>
       <c r="E452" t="n">
-        <v>3.058396978397175</v>
+        <v>3.0844293110164704</v>
       </c>
       <c r="F452" t="n">
-        <v>3.2358290334982356</v>
+        <v>3.2212608319692277</v>
       </c>
       <c r="G452" t="n">
-        <v>3.095921716818163</v>
+        <v>3.026871354837982</v>
       </c>
       <c r="H452" t="n">
-        <v>3.4026288653782517</v>
+        <v>3.20637186465886</v>
       </c>
       <c r="I452" t="n">
-        <v>2.9761994382597843</v>
+        <v>3.3423997607376172</v>
       </c>
       <c r="J452" t="n">
-        <v>3.058396978397175</v>
+        <v>3.4685280556327913</v>
       </c>
       <c r="K452" t="n">
-        <v>3.2358290334982356</v>
+        <v>3.364831973896931</v>
       </c>
       <c r="L452" t="n">
-        <v>3.095921716818163</v>
+        <v>3.3980034555701044</v>
       </c>
     </row>
     <row r="453">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>2.4240939326160857</v>
+        <v>2.400093002590184</v>
       </c>
       <c r="C456" t="n">
-        <v>2.6837991275192614</v>
+        <v>2.647509996911777</v>
       </c>
       <c r="D456" t="n">
-        <v>2.552670167072577</v>
+        <v>2.505164098850788</v>
       </c>
       <c r="E456" t="n">
-        <v>2.655762865671062</v>
+        <v>2.5744094812510885</v>
       </c>
       <c r="F456" t="n">
-        <v>2.6621045472601375</v>
+        <v>2.586831240640428</v>
       </c>
       <c r="G456" t="n">
-        <v>2.4240939326160857</v>
+        <v>2.642616263850087</v>
       </c>
       <c r="H456" t="n">
-        <v>2.6837991275192614</v>
+        <v>2.6168189101652812</v>
       </c>
       <c r="I456" t="n">
-        <v>2.552670167072577</v>
+        <v>2.6152232891267877</v>
       </c>
       <c r="J456" t="n">
-        <v>2.655762865671062</v>
+        <v>2.3009475298023085</v>
       </c>
       <c r="K456" t="n">
-        <v>2.6621045472601375</v>
+        <v>2.41224195522441</v>
       </c>
       <c r="L456" t="n">
-        <v>2.4240939326160857</v>
+        <v>2.3840834885976996</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>1.475865497943877</v>
+        <v>1.4907732302463403</v>
       </c>
       <c r="C458" t="n">
-        <v>1.633982281966656</v>
+        <v>1.6444517049740222</v>
       </c>
       <c r="D458" t="n">
-        <v>1.55414679956204</v>
+        <v>1.556036191893619</v>
       </c>
       <c r="E458" t="n">
-        <v>1.6169129139044942</v>
+        <v>1.5990466761911581</v>
       </c>
       <c r="F458" t="n">
-        <v>1.620773931388318</v>
+        <v>1.6067622215263615</v>
       </c>
       <c r="G458" t="n">
-        <v>1.475865497943877</v>
+        <v>1.641412053495323</v>
       </c>
       <c r="H458" t="n">
-        <v>1.633982281966656</v>
+        <v>1.6253885059732056</v>
       </c>
       <c r="I458" t="n">
-        <v>1.55414679956204</v>
+        <v>1.6243974155749432</v>
       </c>
       <c r="J458" t="n">
-        <v>1.6169129139044942</v>
+        <v>1.429190859657879</v>
       </c>
       <c r="K458" t="n">
-        <v>1.620773931388318</v>
+        <v>1.4983193267280555</v>
       </c>
       <c r="L458" t="n">
-        <v>1.475865497943877</v>
+        <v>1.480829217717037</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>1.8500966498639861</v>
       </c>
       <c r="C460" t="n">
-        <v>1.6378892601532555</v>
+        <v>1.646789325932607</v>
       </c>
       <c r="D460" t="n">
-        <v>1.6470721695893813</v>
+        <v>1.6449816540658566</v>
       </c>
       <c r="E460" t="n">
-        <v>1.611374501378195</v>
+        <v>1.5883182688919182</v>
       </c>
       <c r="F460" t="n">
-        <v>1.6643152463142854</v>
+        <v>1.6660125477885512</v>
       </c>
       <c r="G460" t="n">
-        <v>1.8500966498639861</v>
+        <v>1.8275344952440515</v>
       </c>
       <c r="H460" t="n">
-        <v>1.6378892601532555</v>
+        <v>1.7506244403419418</v>
       </c>
       <c r="I460" t="n">
-        <v>1.6470721695893813</v>
+        <v>1.8286495252689479</v>
       </c>
       <c r="J460" t="n">
-        <v>1.611374501378195</v>
+        <v>1.6762620657053553</v>
       </c>
       <c r="K460" t="n">
-        <v>1.6643152463142854</v>
+        <v>1.7990135494092474</v>
       </c>
       <c r="L460" t="n">
-        <v>1.8500966498639861</v>
+        <v>1.677200096933973</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>0.876133393903379</v>
+        <v>0.8850735305758624</v>
       </c>
       <c r="C461" t="n">
-        <v>0.9699979058199202</v>
+        <v>0.976312591917383</v>
       </c>
       <c r="D461" t="n">
-        <v>0.922604337604851</v>
+        <v>0.9238202149870448</v>
       </c>
       <c r="E461" t="n">
-        <v>0.9598648392275222</v>
+        <v>0.9493555817461529</v>
       </c>
       <c r="F461" t="n">
-        <v>0.9621568952155072</v>
+        <v>0.953936308587497</v>
       </c>
       <c r="G461" t="n">
-        <v>0.876133393903379</v>
+        <v>0.9745079478498693</v>
       </c>
       <c r="H461" t="n">
-        <v>0.9699979058199202</v>
+        <v>0.9649947519525918</v>
       </c>
       <c r="I461" t="n">
-        <v>0.922604337604851</v>
+        <v>0.9644063406099994</v>
       </c>
       <c r="J461" t="n">
-        <v>0.9598648392275222</v>
+        <v>0.8485120166902435</v>
       </c>
       <c r="K461" t="n">
-        <v>0.9621568952155072</v>
+        <v>0.8895536554665099</v>
       </c>
       <c r="L461" t="n">
-        <v>0.876133393903379</v>
+        <v>0.8791697605732667</v>
       </c>
     </row>
     <row r="462">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>0.9936654231266123</v>
+        <v>1.0037024476026386</v>
       </c>
       <c r="C466" t="n">
-        <v>1.1001217237300898</v>
+        <v>1.107170539260366</v>
       </c>
       <c r="D466" t="n">
-        <v>1.0463703767986656</v>
+        <v>1.0476424600835084</v>
       </c>
       <c r="E466" t="n">
-        <v>1.0886293208914692</v>
+        <v>1.0766004045153932</v>
       </c>
       <c r="F466" t="n">
-        <v>1.0912288528793828</v>
+        <v>1.0817950991747902</v>
       </c>
       <c r="G466" t="n">
-        <v>0.9936654231266123</v>
+        <v>1.1051240136271379</v>
       </c>
       <c r="H466" t="n">
-        <v>1.1001217237300898</v>
+        <v>1.0943357370865343</v>
       </c>
       <c r="I466" t="n">
-        <v>1.0463703767986656</v>
+        <v>1.0936684593018593</v>
       </c>
       <c r="J466" t="n">
-        <v>1.0886293208914692</v>
+        <v>0.9622404902541039</v>
       </c>
       <c r="K466" t="n">
-        <v>1.0912288528793828</v>
+        <v>1.0087830563463922</v>
       </c>
       <c r="L466" t="n">
-        <v>0.9936654231266123</v>
+        <v>0.9970073785524628</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>2.6221654501074823</v>
+        <v>2.6486519698055377</v>
       </c>
       <c r="C468" t="n">
-        <v>2.5483829009232464</v>
+        <v>2.5889720429800267</v>
       </c>
       <c r="D468" t="n">
-        <v>2.890374798539492</v>
+        <v>2.944383090970116</v>
       </c>
       <c r="E468" t="n">
-        <v>2.853903049487486</v>
+        <v>2.944383090970116</v>
       </c>
       <c r="F468" t="n">
-        <v>2.675759376936103</v>
+        <v>2.700528197090981</v>
       </c>
       <c r="G468" t="n">
-        <v>2.6221654501074823</v>
+        <v>2.805723190608582</v>
       </c>
       <c r="H468" t="n">
-        <v>2.5483829009232464</v>
+        <v>2.9247538703636486</v>
       </c>
       <c r="I468" t="n">
-        <v>2.890374798539492</v>
+        <v>2.651562575913999</v>
       </c>
       <c r="J468" t="n">
-        <v>2.853903049487486</v>
+        <v>2.9789159799326814</v>
       </c>
       <c r="K468" t="n">
-        <v>2.675759376936103</v>
+        <v>2.928303331433188</v>
       </c>
       <c r="L468" t="n">
-        <v>2.6221654501074823</v>
+        <v>3.0351219427260094</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>2.676900782728769</v>
       </c>
       <c r="C471" t="n">
-        <v>2.946281396280819</v>
+        <v>2.9490441156951195</v>
       </c>
       <c r="D471" t="n">
-        <v>2.894567526668157</v>
+        <v>2.92025539781527</v>
       </c>
       <c r="E471" t="n">
-        <v>2.905118806193355</v>
+        <v>2.92025539781527</v>
       </c>
       <c r="F471" t="n">
-        <v>2.7063699028470816</v>
+        <v>2.6919564679145545</v>
       </c>
       <c r="G471" t="n">
-        <v>2.676900782728769</v>
+        <v>2.9545053076535512</v>
       </c>
       <c r="H471" t="n">
-        <v>2.946281396280819</v>
+        <v>2.9043074035725054</v>
       </c>
       <c r="I471" t="n">
-        <v>2.894567526668157</v>
+        <v>3.0102506917171925</v>
       </c>
       <c r="J471" t="n">
-        <v>2.905118806193355</v>
+        <v>2.9007870284965014</v>
       </c>
       <c r="K471" t="n">
-        <v>2.7063699028470816</v>
+        <v>2.629834395091086</v>
       </c>
       <c r="L471" t="n">
-        <v>2.676900782728769</v>
+        <v>2.886790470816435</v>
       </c>
     </row>
     <row r="472">
@@ -18042,34 +18042,34 @@
         <v>4.616389529061631</v>
       </c>
       <c r="C473" t="n">
-        <v>4.486493458824102</v>
+        <v>4.51237216761392</v>
       </c>
       <c r="D473" t="n">
-        <v>5.088578966096284</v>
+        <v>5.131825330641122</v>
       </c>
       <c r="E473" t="n">
-        <v>5.024369516451014</v>
+        <v>5.131825330641122</v>
       </c>
       <c r="F473" t="n">
-        <v>4.710743011837783</v>
+        <v>4.706805663449163</v>
       </c>
       <c r="G473" t="n">
-        <v>4.616389529061631</v>
+        <v>4.890152162770482</v>
       </c>
       <c r="H473" t="n">
-        <v>4.486493458824102</v>
+        <v>5.097613161770181</v>
       </c>
       <c r="I473" t="n">
-        <v>5.088578966096284</v>
+        <v>4.6214624838006815</v>
       </c>
       <c r="J473" t="n">
-        <v>5.024369516451014</v>
+        <v>5.192013407003128</v>
       </c>
       <c r="K473" t="n">
-        <v>4.710743011837783</v>
+        <v>5.103799589848324</v>
       </c>
       <c r="L473" t="n">
-        <v>4.616389529061631</v>
+        <v>5.289975925698628</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>1.675771007329199</v>
+        <v>1.6926979872012111</v>
       </c>
       <c r="C475" t="n">
-        <v>1.6286181258187222</v>
+        <v>1.6545577962038733</v>
       </c>
       <c r="D475" t="n">
-        <v>1.847177983185201</v>
+        <v>1.8816935514560313</v>
       </c>
       <c r="E475" t="n">
-        <v>1.8238696524139935</v>
+        <v>1.8816935514560313</v>
       </c>
       <c r="F475" t="n">
-        <v>1.7100217632243477</v>
+        <v>1.7258509973024625</v>
       </c>
       <c r="G475" t="n">
-        <v>1.675771007329199</v>
+        <v>1.7930789139260124</v>
       </c>
       <c r="H475" t="n">
-        <v>1.6286181258187222</v>
+        <v>1.8691489277796578</v>
       </c>
       <c r="I475" t="n">
-        <v>1.847177983185201</v>
+        <v>1.6945580945907408</v>
       </c>
       <c r="J475" t="n">
-        <v>1.8238696524139935</v>
+        <v>1.9037627973613245</v>
       </c>
       <c r="K475" t="n">
-        <v>1.7100217632243477</v>
+        <v>1.8714173139914183</v>
       </c>
       <c r="L475" t="n">
-        <v>1.675771007329199</v>
+        <v>1.9396828507218866</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>4.603371513025297</v>
+        <v>4.695438943285803</v>
       </c>
       <c r="C482" t="n">
-        <v>5.299613856738756</v>
+        <v>5.376391558936027</v>
       </c>
       <c r="D482" t="n">
-        <v>5.329715784333397</v>
+        <v>5.4592072006737835</v>
       </c>
       <c r="E482" t="n">
-        <v>4.863442895883653</v>
+        <v>4.925121337517953</v>
       </c>
       <c r="F482" t="n">
-        <v>4.6172280501684915</v>
+        <v>4.753376226016413</v>
       </c>
       <c r="G482" t="n">
-        <v>4.603371513025297</v>
+        <v>5.343964588811466</v>
       </c>
       <c r="H482" t="n">
-        <v>5.299613856738756</v>
+        <v>4.955421301019627</v>
       </c>
       <c r="I482" t="n">
-        <v>5.329715784333397</v>
+        <v>5.318303292757637</v>
       </c>
       <c r="J482" t="n">
-        <v>4.863442895883653</v>
+        <v>4.958194339929482</v>
       </c>
       <c r="K482" t="n">
-        <v>4.6172280501684915</v>
+        <v>5.175253809794729</v>
       </c>
       <c r="L482" t="n">
-        <v>4.603371513025297</v>
+        <v>5.402617855144125</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>2.196461760135534</v>
+        <v>2.2186482425611453</v>
       </c>
       <c r="C484" t="n">
-        <v>2.5286682047873863</v>
+        <v>2.5404060893201006</v>
       </c>
       <c r="D484" t="n">
-        <v>2.543031097871491</v>
+        <v>2.5795374208563744</v>
       </c>
       <c r="E484" t="n">
-        <v>2.320552732532097</v>
+        <v>2.3271757831096327</v>
       </c>
       <c r="F484" t="n">
-        <v>2.2030732955888004</v>
+        <v>2.246024266839524</v>
       </c>
       <c r="G484" t="n">
-        <v>2.196461760135534</v>
+        <v>2.5250839775543166</v>
       </c>
       <c r="H484" t="n">
-        <v>2.5286682047873863</v>
+        <v>2.3414928600825498</v>
       </c>
       <c r="I484" t="n">
-        <v>2.543031097871491</v>
+        <v>2.5129587236474205</v>
       </c>
       <c r="J484" t="n">
-        <v>2.320552732532097</v>
+        <v>2.342803152470166</v>
       </c>
       <c r="K484" t="n">
-        <v>2.2030732955888004</v>
+        <v>2.4453662178543745</v>
       </c>
       <c r="L484" t="n">
-        <v>2.196461760135534</v>
+        <v>2.5527983122184916</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>3.531641687669978</v>
+        <v>3.496325270793278</v>
       </c>
       <c r="C485" t="n">
-        <v>4.0657889922753245</v>
+        <v>4.003377298743744</v>
       </c>
       <c r="D485" t="n">
-        <v>4.0888827664952965</v>
+        <v>4.065043614613685</v>
       </c>
       <c r="E485" t="n">
-        <v>3.7311647839209976</v>
+        <v>3.667351743272167</v>
       </c>
       <c r="F485" t="n">
-        <v>3.5422722275000105</v>
+        <v>3.539466623109612</v>
       </c>
       <c r="G485" t="n">
-        <v>3.531641687669978</v>
+        <v>3.979231476282592</v>
       </c>
       <c r="H485" t="n">
-        <v>4.0657889922753245</v>
+        <v>3.6899137506530746</v>
       </c>
       <c r="I485" t="n">
-        <v>4.0888827664952965</v>
+        <v>3.9601235208905607</v>
       </c>
       <c r="J485" t="n">
-        <v>3.7311647839209976</v>
+        <v>3.6919786153301635</v>
       </c>
       <c r="K485" t="n">
-        <v>3.5422722275000105</v>
+        <v>3.8536057856376487</v>
       </c>
       <c r="L485" t="n">
-        <v>3.531641687669978</v>
+        <v>4.022905965456108</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>2.4092011066285837</v>
+        <v>2.434038231439188</v>
       </c>
       <c r="C486" t="n">
-        <v>2.773583564183868</v>
+        <v>2.7870328545853873</v>
       </c>
       <c r="D486" t="n">
-        <v>2.789337582096057</v>
+        <v>2.829963119590561</v>
       </c>
       <c r="E486" t="n">
-        <v>2.5453109690656923</v>
+        <v>2.553101802577507</v>
       </c>
       <c r="F486" t="n">
-        <v>2.416453005486837</v>
+        <v>2.464071964790925</v>
       </c>
       <c r="G486" t="n">
-        <v>2.4092011066285837</v>
+        <v>2.7702232472267867</v>
       </c>
       <c r="H486" t="n">
-        <v>2.773583564183868</v>
+        <v>2.568808804726847</v>
       </c>
       <c r="I486" t="n">
-        <v>2.789337582096057</v>
+        <v>2.7569208539004686</v>
       </c>
       <c r="J486" t="n">
-        <v>2.5453109690656923</v>
+        <v>2.5702463024358755</v>
       </c>
       <c r="K486" t="n">
-        <v>2.416453005486837</v>
+        <v>2.6827663574359333</v>
       </c>
       <c r="L486" t="n">
-        <v>2.4092011066285837</v>
+        <v>2.8006281346881856</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>3.7132457555520553</v>
       </c>
       <c r="C491" t="n">
-        <v>4.2748599811939405</v>
+        <v>4.251756518941052</v>
       </c>
       <c r="D491" t="n">
-        <v>4.2991412834000435</v>
+        <v>4.3172487623479805</v>
       </c>
       <c r="E491" t="n">
-        <v>3.9230287278380978</v>
+        <v>3.894883124456003</v>
       </c>
       <c r="F491" t="n">
-        <v>3.724422938968173</v>
+        <v>3.759063701815692</v>
       </c>
       <c r="G491" t="n">
-        <v>3.7132457555520553</v>
+        <v>4.226112631194921</v>
       </c>
       <c r="H491" t="n">
-        <v>4.2748599811939405</v>
+        <v>3.918844933399735</v>
       </c>
       <c r="I491" t="n">
-        <v>4.2991412834000435</v>
+        <v>4.2058191719880655</v>
       </c>
       <c r="J491" t="n">
-        <v>3.9230287278380978</v>
+        <v>3.9210379072806374</v>
       </c>
       <c r="K491" t="n">
-        <v>3.724422938968173</v>
+        <v>4.092692818549803</v>
       </c>
       <c r="L491" t="n">
-        <v>3.7132457555520553</v>
+        <v>4.2724967914171375</v>
       </c>
     </row>
     <row r="492">
@@ -18840,34 +18840,34 @@
         <v>2.13206183496243</v>
       </c>
       <c r="C494" t="n">
-        <v>2.1682376711872107</v>
+        <v>2.1763121749593375</v>
       </c>
       <c r="D494" t="n">
-        <v>2.0946847287782573</v>
+        <v>2.077032627712703</v>
       </c>
       <c r="E494" t="n">
-        <v>2.0316963925717286</v>
+        <v>2.021165478523223</v>
       </c>
       <c r="F494" t="n">
-        <v>1.9015065992397122</v>
+        <v>1.8991966839858156</v>
       </c>
       <c r="G494" t="n">
-        <v>2.13206183496243</v>
+        <v>1.9234776864642793</v>
       </c>
       <c r="H494" t="n">
-        <v>2.1682376711872107</v>
+        <v>2.1112485394466183</v>
       </c>
       <c r="I494" t="n">
-        <v>2.0946847287782573</v>
+        <v>2.0997186644989236</v>
       </c>
       <c r="J494" t="n">
-        <v>2.0316963925717286</v>
+        <v>2.0118234636078465</v>
       </c>
       <c r="K494" t="n">
-        <v>1.9015065992397122</v>
+        <v>1.8337765542477327</v>
       </c>
       <c r="L494" t="n">
-        <v>2.13206183496243</v>
+        <v>2.1360100970063947</v>
       </c>
     </row>
     <row r="495">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>8.385689611131635</v>
+        <v>8.553403403354269</v>
       </c>
       <c r="C496" t="n">
-        <v>8.527974102617545</v>
+        <v>8.730926870320602</v>
       </c>
       <c r="D496" t="n">
-        <v>8.238680361267031</v>
+        <v>8.33263728819983</v>
       </c>
       <c r="E496" t="n">
-        <v>7.9909386551458</v>
+        <v>8.10850951846213</v>
       </c>
       <c r="F496" t="n">
-        <v>7.478884464447854</v>
+        <v>7.619195238176415</v>
       </c>
       <c r="G496" t="n">
-        <v>8.385689611131635</v>
+        <v>7.716605738111472</v>
       </c>
       <c r="H496" t="n">
-        <v>8.527974102617545</v>
+        <v>8.469904646526187</v>
       </c>
       <c r="I496" t="n">
-        <v>8.238680361267031</v>
+        <v>8.42364910646602</v>
       </c>
       <c r="J496" t="n">
-        <v>7.9909386551458</v>
+        <v>8.071031232954159</v>
       </c>
       <c r="K496" t="n">
-        <v>7.478884464447854</v>
+        <v>7.3567428312276</v>
       </c>
       <c r="L496" t="n">
-        <v>8.385689611131635</v>
+        <v>8.569243036825675</v>
       </c>
     </row>
     <row r="497">
@@ -19372,34 +19372,34 @@
         <v>1.0429497537726304</v>
       </c>
       <c r="C508" t="n">
-        <v>1.0606460414057792</v>
+        <v>1.0645958807504359</v>
       </c>
       <c r="D508" t="n">
-        <v>1.0246658358053997</v>
+        <v>1.0160308824668098</v>
       </c>
       <c r="E508" t="n">
-        <v>0.9938535635439321</v>
+        <v>0.9887021115392189</v>
       </c>
       <c r="F508" t="n">
-        <v>0.9301680687460155</v>
+        <v>0.9290381176790337</v>
       </c>
       <c r="G508" t="n">
-        <v>1.0429497537726304</v>
+        <v>0.9409157589092246</v>
       </c>
       <c r="H508" t="n">
-        <v>1.0606460414057792</v>
+        <v>1.032768425502761</v>
       </c>
       <c r="I508" t="n">
-        <v>1.0246658358053997</v>
+        <v>1.0271283075472049</v>
       </c>
       <c r="J508" t="n">
-        <v>0.9938535635439321</v>
+        <v>0.9841322383789013</v>
       </c>
       <c r="K508" t="n">
-        <v>0.9301680687460155</v>
+        <v>0.8970362746352509</v>
       </c>
       <c r="L508" t="n">
-        <v>1.0429497537726304</v>
+        <v>1.0448811419054962</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>4.65275546825134</v>
+        <v>4.746750528216013</v>
       </c>
       <c r="C510" t="n">
-        <v>4.084902895769789</v>
+        <v>4.150576775533874</v>
       </c>
       <c r="D510" t="n">
-        <v>4.7127357447949745</v>
+        <v>4.775694129451046</v>
       </c>
       <c r="E510" t="n">
-        <v>4.581209319768564</v>
+        <v>4.7238470310242535</v>
       </c>
       <c r="F510" t="n">
-        <v>4.192520355414744</v>
+        <v>4.380390590406615</v>
       </c>
       <c r="G510" t="n">
-        <v>4.65275546825134</v>
+        <v>4.7011634905251425</v>
       </c>
       <c r="H510" t="n">
-        <v>4.084902895769789</v>
+        <v>4.405027208299009</v>
       </c>
       <c r="I510" t="n">
-        <v>4.7127357447949745</v>
+        <v>4.382841843854039</v>
       </c>
       <c r="J510" t="n">
-        <v>4.581209319768564</v>
+        <v>4.778607914311422</v>
       </c>
       <c r="K510" t="n">
-        <v>4.192520355414744</v>
+        <v>4.201790973619246</v>
       </c>
       <c r="L510" t="n">
-        <v>4.65275546825134</v>
+        <v>4.298648944149144</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>1.0771664131954992</v>
+        <v>1.023308092535724</v>
       </c>
       <c r="C517" t="n">
-        <v>0.9536146664015726</v>
+        <v>0.9108566539224726</v>
       </c>
       <c r="D517" t="n">
-        <v>0.9589611555272827</v>
+        <v>0.9098568114277409</v>
       </c>
       <c r="E517" t="n">
-        <v>0.9381771985219483</v>
+        <v>0.878515691706659</v>
       </c>
       <c r="F517" t="n">
-        <v>0.9690004489391081</v>
+        <v>0.9214892219514152</v>
       </c>
       <c r="G517" t="n">
-        <v>1.0771664131954992</v>
+        <v>1.010828725358167</v>
       </c>
       <c r="H517" t="n">
-        <v>0.9536146664015726</v>
+        <v>0.9682889577279289</v>
       </c>
       <c r="I517" t="n">
-        <v>0.9589611555272827</v>
+        <v>1.011445460299004</v>
       </c>
       <c r="J517" t="n">
-        <v>0.9381771985219483</v>
+        <v>0.9271583390916611</v>
       </c>
       <c r="K517" t="n">
-        <v>0.9690004489391081</v>
+        <v>0.9950534875176607</v>
       </c>
       <c r="L517" t="n">
-        <v>1.0771664131954992</v>
+        <v>0.9276771741197481</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>1.653566284186462</v>
+        <v>1.6370306213445973</v>
       </c>
       <c r="C518" t="n">
-        <v>1.8199671844578063</v>
+        <v>1.803457024719382</v>
       </c>
       <c r="D518" t="n">
-        <v>1.7880226642245445</v>
+        <v>1.785851585988656</v>
       </c>
       <c r="E518" t="n">
-        <v>1.794540365661394</v>
+        <v>1.785851585988656</v>
       </c>
       <c r="F518" t="n">
-        <v>1.671769851448529</v>
+        <v>1.6462377678453095</v>
       </c>
       <c r="G518" t="n">
-        <v>1.653566284186462</v>
+        <v>1.8067967594315066</v>
       </c>
       <c r="H518" t="n">
-        <v>1.8199671844578063</v>
+        <v>1.776098757235018</v>
       </c>
       <c r="I518" t="n">
-        <v>1.7880226642245445</v>
+        <v>1.8408872648770507</v>
       </c>
       <c r="J518" t="n">
-        <v>1.794540365661394</v>
+        <v>1.7739459087487313</v>
       </c>
       <c r="K518" t="n">
-        <v>1.671769851448529</v>
+        <v>1.608247665212611</v>
       </c>
       <c r="L518" t="n">
-        <v>1.653566284186462</v>
+        <v>1.7653864605751133</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>2.175335763486117</v>
+        <v>2.197089121120978</v>
       </c>
       <c r="C521" t="n">
-        <v>1.92582321821032</v>
+        <v>1.9556507564351706</v>
       </c>
       <c r="D521" t="n">
-        <v>1.9366204440259158</v>
+        <v>1.95350404902219</v>
       </c>
       <c r="E521" t="n">
-        <v>1.8946472777383254</v>
+        <v>1.8862132363283233</v>
       </c>
       <c r="F521" t="n">
-        <v>1.9568947802207177</v>
+        <v>1.9784793646679868</v>
       </c>
       <c r="G521" t="n">
-        <v>2.175335763486117</v>
+        <v>2.1702953509316467</v>
       </c>
       <c r="H521" t="n">
-        <v>1.92582321821032</v>
+        <v>2.0789605306979766</v>
       </c>
       <c r="I521" t="n">
-        <v>1.9366204440259158</v>
+        <v>2.171619508962852</v>
       </c>
       <c r="J521" t="n">
-        <v>1.8946472777383254</v>
+        <v>1.990651217588968</v>
       </c>
       <c r="K521" t="n">
-        <v>1.9568947802207177</v>
+        <v>2.13642519619009</v>
       </c>
       <c r="L521" t="n">
-        <v>2.175335763486117</v>
+        <v>1.991765180044832</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.2298265021123551</v>
+        <v>1.242248992032682</v>
       </c>
       <c r="C522" t="n">
-        <v>1.0887645355229192</v>
+        <v>1.1057381139414293</v>
       </c>
       <c r="D522" t="n">
-        <v>1.0948687492632527</v>
+        <v>1.1045243511066274</v>
       </c>
       <c r="E522" t="n">
-        <v>1.0711392114399407</v>
+        <v>1.0664776722357374</v>
       </c>
       <c r="F522" t="n">
-        <v>1.1063308492220862</v>
+        <v>1.1186455628446654</v>
       </c>
       <c r="G522" t="n">
-        <v>1.2298265021123551</v>
+        <v>1.2270996138438401</v>
       </c>
       <c r="H522" t="n">
-        <v>1.0887645355229192</v>
+        <v>1.1754582911127556</v>
       </c>
       <c r="I522" t="n">
-        <v>1.0948687492632527</v>
+        <v>1.227848301716236</v>
       </c>
       <c r="J522" t="n">
-        <v>1.0711392114399407</v>
+        <v>1.1255276104943959</v>
       </c>
       <c r="K522" t="n">
-        <v>1.1063308492220862</v>
+        <v>1.2079492001518262</v>
       </c>
       <c r="L522" t="n">
-        <v>1.2298265021123551</v>
+        <v>1.1261574523722953</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>9.188670756821887</v>
+        <v>9.556217587094762</v>
       </c>
       <c r="C523" t="n">
-        <v>8.8171441261014</v>
+        <v>9.20871876033736</v>
       </c>
       <c r="D523" t="n">
-        <v>9.096418489952612</v>
+        <v>9.37925059193582</v>
       </c>
       <c r="E523" t="n">
-        <v>8.585209129204335</v>
+        <v>8.833945325614149</v>
       </c>
       <c r="F523" t="n">
-        <v>8.748532804107</v>
+        <v>9.270522241950362</v>
       </c>
       <c r="G523" t="n">
-        <v>9.188670756821887</v>
+        <v>8.348563714864579</v>
       </c>
       <c r="H523" t="n">
-        <v>8.8171441261014</v>
+        <v>8.502734169655014</v>
       </c>
       <c r="I523" t="n">
-        <v>9.096418489952612</v>
+        <v>8.151494614216832</v>
       </c>
       <c r="J523" t="n">
-        <v>8.585209129204335</v>
+        <v>8.339399540967236</v>
       </c>
       <c r="K523" t="n">
-        <v>8.748532804107</v>
+        <v>9.264869485365022</v>
       </c>
       <c r="L523" t="n">
-        <v>9.188670756821887</v>
+        <v>8.874966245434576</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>1.6928258908005929</v>
+        <v>1.7097541497085988</v>
       </c>
       <c r="C524" t="n">
-        <v>1.8741867167950934</v>
+        <v>1.8860065833823132</v>
       </c>
       <c r="D524" t="n">
-        <v>1.7826149768178579</v>
+        <v>1.7846036420624891</v>
       </c>
       <c r="E524" t="n">
-        <v>1.8546080571980714</v>
+        <v>1.8339319721644072</v>
       </c>
       <c r="F524" t="n">
-        <v>1.8590366656116133</v>
+        <v>1.842780860369858</v>
       </c>
       <c r="G524" t="n">
-        <v>1.6928258908005929</v>
+        <v>1.8825204349702471</v>
       </c>
       <c r="H524" t="n">
-        <v>1.8741867167950934</v>
+        <v>1.864143175228022</v>
       </c>
       <c r="I524" t="n">
-        <v>1.7826149768178579</v>
+        <v>1.8630065027370049</v>
       </c>
       <c r="J524" t="n">
-        <v>1.8546080571980714</v>
+        <v>1.6391258934947979</v>
       </c>
       <c r="K524" t="n">
-        <v>1.8590366656116133</v>
+        <v>1.7184086985775653</v>
       </c>
       <c r="L524" t="n">
-        <v>1.6928258908005929</v>
+        <v>1.6983494529097967</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>2.8373243461000763</v>
       </c>
       <c r="C531" t="n">
-        <v>2.722602469294865</v>
+        <v>2.7341489137269694</v>
       </c>
       <c r="D531" t="n">
-        <v>2.808838223384581</v>
+        <v>2.78478130182085</v>
       </c>
       <c r="E531" t="n">
-        <v>2.6509844049605737</v>
+        <v>2.622875412373492</v>
       </c>
       <c r="F531" t="n">
-        <v>2.70141631740578</v>
+        <v>2.7524989064365464</v>
       </c>
       <c r="G531" t="n">
-        <v>2.8373243461000763</v>
+        <v>2.478761378889276</v>
       </c>
       <c r="H531" t="n">
-        <v>2.722602469294865</v>
+        <v>2.5245359315132094</v>
       </c>
       <c r="I531" t="n">
-        <v>2.808838223384581</v>
+        <v>2.4202498441700366</v>
       </c>
       <c r="J531" t="n">
-        <v>2.6509844049605737</v>
+        <v>2.47604045573387</v>
       </c>
       <c r="K531" t="n">
-        <v>2.70141631740578</v>
+        <v>2.7508205537058776</v>
       </c>
       <c r="L531" t="n">
-        <v>2.8373243461000763</v>
+        <v>2.6350548812318713</v>
       </c>
     </row>
     <row r="532">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>1.9882564332254273</v>
+        <v>2.0085447641767074</v>
       </c>
       <c r="C534" t="n">
-        <v>1.907865021540973</v>
+        <v>1.9355067716153302</v>
       </c>
       <c r="D534" t="n">
-        <v>1.96829476869998</v>
+        <v>1.9713494901763964</v>
       </c>
       <c r="E534" t="n">
-        <v>1.857678627678907</v>
+        <v>1.8567361478611808</v>
       </c>
       <c r="F534" t="n">
-        <v>1.8930188151681753</v>
+        <v>1.9484967499483188</v>
       </c>
       <c r="G534" t="n">
-        <v>1.9882564332254273</v>
+        <v>1.7547176783136393</v>
       </c>
       <c r="H534" t="n">
-        <v>1.907865021540973</v>
+        <v>1.787121530249603</v>
       </c>
       <c r="I534" t="n">
-        <v>1.96829476869998</v>
+        <v>1.7132973039155526</v>
       </c>
       <c r="J534" t="n">
-        <v>1.857678627678907</v>
+        <v>1.752791534069669</v>
       </c>
       <c r="K534" t="n">
-        <v>1.8930188151681753</v>
+        <v>1.9473086423587653</v>
       </c>
       <c r="L534" t="n">
-        <v>1.9882564332254273</v>
+        <v>1.8653580061409984</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5.097939759123106</v>
+        <v>5.199898554305568</v>
       </c>
       <c r="C537" t="n">
-        <v>5.6109532219396385</v>
+        <v>5.728538888226756</v>
       </c>
       <c r="D537" t="n">
-        <v>5.512468364489017</v>
+        <v>5.672616601734261</v>
       </c>
       <c r="E537" t="n">
-        <v>5.532562417936265</v>
+        <v>5.672616601734261</v>
       </c>
       <c r="F537" t="n">
-        <v>5.154061300902618</v>
+        <v>5.229144328424936</v>
       </c>
       <c r="G537" t="n">
-        <v>5.097939759123106</v>
+        <v>5.739147291927279</v>
       </c>
       <c r="H537" t="n">
-        <v>5.6109532219396385</v>
+        <v>5.641637511010364</v>
       </c>
       <c r="I537" t="n">
-        <v>5.512468364489017</v>
+        <v>5.847433091637139</v>
       </c>
       <c r="J537" t="n">
-        <v>5.532562417936265</v>
+        <v>5.634799157722699</v>
       </c>
       <c r="K537" t="n">
-        <v>5.154061300902618</v>
+        <v>5.108471766053785</v>
       </c>
       <c r="L537" t="n">
-        <v>5.097939759123106</v>
+        <v>5.607610746215105</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.7023687120597156</v>
       </c>
       <c r="C547" t="n">
-        <v>0.6945565797242998</v>
+        <v>0.6984404753518951</v>
       </c>
       <c r="D547" t="n">
-        <v>0.7545875604282442</v>
+        <v>0.7568554965314868</v>
       </c>
       <c r="E547" t="n">
-        <v>0.681237375888851</v>
+        <v>0.6861602031928166</v>
       </c>
       <c r="F547" t="n">
-        <v>0.7585468039919514</v>
+        <v>0.7577740111276813</v>
       </c>
       <c r="G547" t="n">
-        <v>0.7023687120597156</v>
+        <v>0.7619350636223022</v>
       </c>
       <c r="H547" t="n">
-        <v>0.6945565797242998</v>
+        <v>0.7854160817675537</v>
       </c>
       <c r="I547" t="n">
-        <v>0.7545875604282442</v>
+        <v>0.7708713392820312</v>
       </c>
       <c r="J547" t="n">
-        <v>0.681237375888851</v>
+        <v>0.6617973343375568</v>
       </c>
       <c r="K547" t="n">
-        <v>0.7585468039919514</v>
+        <v>0.7694464386910026</v>
       </c>
       <c r="L547" t="n">
-        <v>0.7023687120597156</v>
+        <v>0.7619350636223022</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>6.407720167431799</v>
+        <v>6.3442773934968315</v>
       </c>
       <c r="C549" t="n">
-        <v>6.421247224374551</v>
+        <v>6.379114786818741</v>
       </c>
       <c r="D549" t="n">
-        <v>6.347806276093505</v>
+        <v>6.306012752381005</v>
       </c>
       <c r="E549" t="n">
-        <v>5.659900229489571</v>
+        <v>5.609103615858876</v>
       </c>
       <c r="F549" t="n">
-        <v>6.477156775415613</v>
+        <v>6.442001935681916</v>
       </c>
       <c r="G549" t="n">
-        <v>6.407720167431799</v>
+        <v>6.106929785744</v>
       </c>
       <c r="H549" t="n">
-        <v>6.421247224374551</v>
+        <v>5.738402383011979</v>
       </c>
       <c r="I549" t="n">
-        <v>6.347806276093505</v>
+        <v>5.811767171219126</v>
       </c>
       <c r="J549" t="n">
-        <v>5.659900229489571</v>
+        <v>6.275731776998631</v>
       </c>
       <c r="K549" t="n">
-        <v>6.477156775415613</v>
+        <v>5.847521890971251</v>
       </c>
       <c r="L549" t="n">
-        <v>6.407720167431799</v>
+        <v>6.379114786818741</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>2.1737732436634123</v>
+        <v>2.195730549154962</v>
       </c>
       <c r="C550" t="n">
-        <v>2.0829737380974147</v>
+        <v>2.1020427975069578</v>
       </c>
       <c r="D550" t="n">
-        <v>1.965835441828843</v>
+        <v>1.977363940441635</v>
       </c>
       <c r="E550" t="n">
-        <v>2.262811312535064</v>
+        <v>2.2633977183513494</v>
       </c>
       <c r="F550" t="n">
-        <v>2.236414496357927</v>
+        <v>2.2214829451248415</v>
       </c>
       <c r="G550" t="n">
-        <v>2.1737732436634123</v>
+        <v>2.195730549154962</v>
       </c>
       <c r="H550" t="n">
-        <v>2.0829737380974147</v>
+        <v>1.9306879675791055</v>
       </c>
       <c r="I550" t="n">
-        <v>1.965835441828843</v>
+        <v>1.9751933985822878</v>
       </c>
       <c r="J550" t="n">
-        <v>2.262811312535064</v>
+        <v>2.194391689272268</v>
       </c>
       <c r="K550" t="n">
-        <v>2.236414496357927</v>
+        <v>2.0004460099683654</v>
       </c>
       <c r="L550" t="n">
-        <v>2.1737732436634123</v>
+        <v>2.024073325236323</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>2.045014185127408</v>
+        <v>2.024564043276134</v>
       </c>
       <c r="C552" t="n">
-        <v>1.9595930045022907</v>
+        <v>1.9381796490912775</v>
       </c>
       <c r="D552" t="n">
-        <v>1.8493931581341483</v>
+        <v>1.8232200375540777</v>
       </c>
       <c r="E552" t="n">
-        <v>2.128778264195755</v>
+        <v>2.0869562697348916</v>
       </c>
       <c r="F552" t="n">
-        <v>2.103945009999714</v>
+        <v>2.048308930793818</v>
       </c>
       <c r="G552" t="n">
-        <v>2.045014185127408</v>
+        <v>2.024564043276134</v>
       </c>
       <c r="H552" t="n">
-        <v>1.9595930045022907</v>
+        <v>1.7801826546753914</v>
       </c>
       <c r="I552" t="n">
-        <v>1.8493931581341483</v>
+        <v>1.8212186986354424</v>
       </c>
       <c r="J552" t="n">
-        <v>2.128778264195755</v>
+        <v>2.0233295531978635</v>
       </c>
       <c r="K552" t="n">
-        <v>2.103945009999714</v>
+        <v>1.8445027618966447</v>
       </c>
       <c r="L552" t="n">
-        <v>2.045014185127408</v>
+        <v>1.8662882277631492</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>3.0717478462531096</v>
+        <v>3.041030367790578</v>
       </c>
       <c r="C554" t="n">
-        <v>3.214122445965191</v>
+        <v>3.188121826022784</v>
       </c>
       <c r="D554" t="n">
-        <v>3.30658932633912</v>
+        <v>3.2956282588644377</v>
       </c>
       <c r="E554" t="n">
-        <v>3.2163978514051164</v>
+        <v>3.1720652521900448</v>
       </c>
       <c r="F554" t="n">
-        <v>3.516990739342934</v>
+        <v>3.4354427898152085</v>
       </c>
       <c r="G554" t="n">
-        <v>3.0717478462531096</v>
+        <v>3.4396120194254816</v>
       </c>
       <c r="H554" t="n">
-        <v>3.214122445965191</v>
+        <v>3.0039642851088146</v>
       </c>
       <c r="I554" t="n">
-        <v>3.30658932633912</v>
+        <v>3.458499452834103</v>
       </c>
       <c r="J554" t="n">
-        <v>3.2163978514051164</v>
+        <v>3.4925943354631164</v>
       </c>
       <c r="K554" t="n">
-        <v>3.516990739342934</v>
+        <v>3.4188664701158133</v>
       </c>
       <c r="L554" t="n">
-        <v>3.0717478462531096</v>
+        <v>3.114549783307061</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>1.1272278647171845</v>
+        <v>1.1389698216413218</v>
       </c>
       <c r="C557" t="n">
-        <v>1.0787449259173758</v>
+        <v>1.0839206689221663</v>
       </c>
       <c r="D557" t="n">
-        <v>1.0877829967213504</v>
+        <v>1.0911993750576043</v>
       </c>
       <c r="E557" t="n">
-        <v>1.1054934325084795</v>
+        <v>1.0967228816499592</v>
       </c>
       <c r="F557" t="n">
-        <v>1.1490824488427824</v>
+        <v>1.1337053971421898</v>
       </c>
       <c r="G557" t="n">
-        <v>1.1272278647171845</v>
+        <v>1.2263982915245466</v>
       </c>
       <c r="H557" t="n">
-        <v>1.0787449259173758</v>
+        <v>1.071413891875023</v>
       </c>
       <c r="I557" t="n">
-        <v>1.0877829967213504</v>
+        <v>1.0333721692335838</v>
       </c>
       <c r="J557" t="n">
-        <v>1.1054934325084795</v>
+        <v>1.1832362160413847</v>
       </c>
       <c r="K557" t="n">
-        <v>1.1490824488427824</v>
+        <v>1.2036872116918464</v>
       </c>
       <c r="L557" t="n">
-        <v>1.1272278647171845</v>
+        <v>1.181801989320462</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>3.8421025248342433</v>
+        <v>4.074957223309045</v>
       </c>
       <c r="C558" t="n">
-        <v>3.67685073555128</v>
+        <v>3.8780047332187437</v>
       </c>
       <c r="D558" t="n">
-        <v>3.7076565697064656</v>
+        <v>3.9040461748613366</v>
       </c>
       <c r="E558" t="n">
-        <v>3.768021747132873</v>
+        <v>3.923807939096737</v>
       </c>
       <c r="F558" t="n">
-        <v>3.9165928346255376</v>
+        <v>4.0561223918396845</v>
       </c>
       <c r="G558" t="n">
-        <v>3.8421025248342433</v>
+        <v>4.387755041217955</v>
       </c>
       <c r="H558" t="n">
-        <v>3.67685073555128</v>
+        <v>3.8332585244077593</v>
       </c>
       <c r="I558" t="n">
-        <v>3.7076565697064656</v>
+        <v>3.697154485899117</v>
       </c>
       <c r="J558" t="n">
-        <v>3.768021747132873</v>
+        <v>4.233331624617098</v>
       </c>
       <c r="K558" t="n">
-        <v>3.9165928346255376</v>
+        <v>4.306500316944361</v>
       </c>
       <c r="L558" t="n">
-        <v>3.8421025248342433</v>
+        <v>4.228200309963068</v>
       </c>
     </row>
     <row r="559">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>3.0651624469842296</v>
+        <v>3.096762059839737</v>
       </c>
       <c r="C568" t="n">
-        <v>2.7435993618215955</v>
+        <v>2.78572613562697</v>
       </c>
       <c r="D568" t="n">
-        <v>2.7894994287738424</v>
+        <v>2.838698556335702</v>
       </c>
       <c r="E568" t="n">
-        <v>3.051587001619027</v>
+        <v>3.094873790584767</v>
       </c>
       <c r="F568" t="n">
-        <v>3.012966532544019</v>
+        <v>3.0465744408452506</v>
       </c>
       <c r="G568" t="n">
-        <v>3.0651624469842296</v>
+        <v>2.7229576277877396</v>
       </c>
       <c r="H568" t="n">
-        <v>2.7435993618215955</v>
+        <v>3.0612744390162883</v>
       </c>
       <c r="I568" t="n">
-        <v>2.7894994287738424</v>
+        <v>2.9509261732060867</v>
       </c>
       <c r="J568" t="n">
-        <v>3.051587001619027</v>
+        <v>2.7887873726635033</v>
       </c>
       <c r="K568" t="n">
-        <v>3.012966532544019</v>
+        <v>3.076116979440805</v>
       </c>
       <c r="L568" t="n">
-        <v>3.0651624469842296</v>
+        <v>3.0798501337326973</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>1.439177970962046</v>
+        <v>1.4540148572606237</v>
       </c>
       <c r="C576" t="n">
-        <v>1.42317063952725</v>
+        <v>1.4458827829840553</v>
       </c>
       <c r="D576" t="n">
-        <v>1.5461762112746131</v>
+        <v>1.5668111603789452</v>
       </c>
       <c r="E576" t="n">
-        <v>1.3958791266486106</v>
+        <v>1.4204606679838838</v>
       </c>
       <c r="F576" t="n">
-        <v>1.554288839329828</v>
+        <v>1.5687126315671494</v>
       </c>
       <c r="G576" t="n">
-        <v>1.439177970962046</v>
+        <v>1.5773266715224283</v>
       </c>
       <c r="H576" t="n">
-        <v>1.42317063952725</v>
+        <v>1.6259361107821588</v>
       </c>
       <c r="I576" t="n">
-        <v>1.5461762112746131</v>
+        <v>1.5958261823273996</v>
       </c>
       <c r="J576" t="n">
-        <v>1.3958791266486106</v>
+        <v>1.3700256576071288</v>
       </c>
       <c r="K576" t="n">
-        <v>1.554288839329828</v>
+        <v>1.5928764116529637</v>
       </c>
       <c r="L576" t="n">
-        <v>1.439177970962046</v>
+        <v>1.5773266715224283</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>4.9792443229762435</v>
+        <v>5.180425911783365</v>
       </c>
       <c r="C577" t="n">
-        <v>4.923862420403467</v>
+        <v>5.151452612034384</v>
       </c>
       <c r="D577" t="n">
-        <v>5.349435078667604</v>
+        <v>5.5823013730344355</v>
       </c>
       <c r="E577" t="n">
-        <v>4.829439692076434</v>
+        <v>5.060877620574295</v>
       </c>
       <c r="F577" t="n">
-        <v>5.377503016061992</v>
+        <v>5.589076015373676</v>
       </c>
       <c r="G577" t="n">
-        <v>4.9792443229762435</v>
+        <v>5.619766482920573</v>
       </c>
       <c r="H577" t="n">
-        <v>4.923862420403467</v>
+        <v>5.792954258438077</v>
       </c>
       <c r="I577" t="n">
-        <v>5.349435078667604</v>
+        <v>5.685677326025673</v>
       </c>
       <c r="J577" t="n">
-        <v>4.829439692076434</v>
+        <v>4.881185622716</v>
       </c>
       <c r="K577" t="n">
-        <v>5.377503016061992</v>
+        <v>5.675167757736628</v>
       </c>
       <c r="L577" t="n">
-        <v>4.9792443229762435</v>
+        <v>5.619766482920573</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>2.948243389632032</v>
+        <v>2.9187609557357117</v>
       </c>
       <c r="C578" t="n">
-        <v>2.7623401902977767</v>
+        <v>2.7211280090105747</v>
       </c>
       <c r="D578" t="n">
-        <v>2.9766622041497106</v>
+        <v>2.9506406274984625</v>
       </c>
       <c r="E578" t="n">
-        <v>3.005223897391826</v>
+        <v>2.9470640908995773</v>
       </c>
       <c r="F578" t="n">
-        <v>2.9931706850004063</v>
+        <v>2.966843044529776</v>
       </c>
       <c r="G578" t="n">
-        <v>2.948243389632032</v>
+        <v>2.7349019982924303</v>
       </c>
       <c r="H578" t="n">
-        <v>2.7623401902977767</v>
+        <v>3.0016393527073064</v>
       </c>
       <c r="I578" t="n">
-        <v>2.9766622041497106</v>
+        <v>2.996091036834373</v>
       </c>
       <c r="J578" t="n">
-        <v>3.005223897391826</v>
+        <v>2.932844242241295</v>
       </c>
       <c r="K578" t="n">
-        <v>2.9931706850004063</v>
+        <v>3.0582740583900994</v>
       </c>
       <c r="L578" t="n">
-        <v>2.948243389632032</v>
+        <v>2.827125437060679</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>6.354613798395765</v>
+        <v>6.4817060743636805</v>
       </c>
       <c r="C584" t="n">
-        <v>5.687957706468348</v>
+        <v>5.830689496286789</v>
       </c>
       <c r="D584" t="n">
-        <v>5.783116512517604</v>
+        <v>5.94156390460323</v>
       </c>
       <c r="E584" t="n">
-        <v>6.326469543750481</v>
+        <v>6.477753815176998</v>
       </c>
       <c r="F584" t="n">
-        <v>6.246402607681229</v>
+        <v>6.376660420674922</v>
       </c>
       <c r="G584" t="n">
-        <v>6.354613798395765</v>
+        <v>5.699311298453488</v>
       </c>
       <c r="H584" t="n">
-        <v>5.687957706468348</v>
+        <v>6.4074283859228816</v>
       </c>
       <c r="I584" t="n">
-        <v>5.783116512517604</v>
+        <v>6.176462941701927</v>
       </c>
       <c r="J584" t="n">
-        <v>6.326469543750481</v>
+        <v>5.837096846387103</v>
       </c>
       <c r="K584" t="n">
-        <v>6.246402607681229</v>
+        <v>6.438494700534589</v>
       </c>
       <c r="L584" t="n">
-        <v>6.354613798395765</v>
+        <v>6.446308413174671</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>7.605396679028713</v>
+        <v>7.757504612609288</v>
       </c>
       <c r="C585" t="n">
-        <v>6.677184547873618</v>
+        <v>6.783191636004123</v>
       </c>
       <c r="D585" t="n">
-        <v>7.703440472463581</v>
+        <v>7.804806470743947</v>
       </c>
       <c r="E585" t="n">
-        <v>7.488447304882321</v>
+        <v>7.720073956826177</v>
       </c>
       <c r="F585" t="n">
-        <v>6.853096107329987</v>
+        <v>7.158771038864938</v>
       </c>
       <c r="G585" t="n">
-        <v>7.605396679028713</v>
+        <v>7.683002771179035</v>
       </c>
       <c r="H585" t="n">
-        <v>6.677184547873618</v>
+        <v>7.199034093728107</v>
       </c>
       <c r="I585" t="n">
-        <v>7.703440472463581</v>
+        <v>7.162777065685187</v>
       </c>
       <c r="J585" t="n">
-        <v>7.488447304882321</v>
+        <v>7.8095684019556595</v>
       </c>
       <c r="K585" t="n">
-        <v>6.853096107329987</v>
+        <v>6.86688981553067</v>
       </c>
       <c r="L585" t="n">
-        <v>7.605396679028713</v>
+        <v>7.025182556783295</v>
       </c>
     </row>
     <row r="586">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>0.7132119412188864</v>
+        <v>0.7206412322732499</v>
       </c>
       <c r="C596" t="n">
-        <v>0.7838685084124096</v>
+        <v>0.7905082782375881</v>
       </c>
       <c r="D596" t="n">
-        <v>0.685631347616046</v>
+        <v>0.6870342219545272</v>
       </c>
       <c r="E596" t="n">
-        <v>0.7045673132273009</v>
+        <v>0.7250747074181861</v>
       </c>
       <c r="F596" t="n">
-        <v>0.7454425911019438</v>
+        <v>0.7572404875403153</v>
       </c>
       <c r="G596" t="n">
-        <v>0.7132119412188864</v>
+        <v>0.7115442244576436</v>
       </c>
       <c r="H596" t="n">
-        <v>0.7838685084124096</v>
+        <v>0.753740451544105</v>
       </c>
       <c r="I596" t="n">
-        <v>0.685631347616046</v>
+        <v>0.7857173189009752</v>
       </c>
       <c r="J596" t="n">
-        <v>0.7045673132273009</v>
+        <v>0.8153670295270666</v>
       </c>
       <c r="K596" t="n">
-        <v>0.7454425911019438</v>
+        <v>0.7909905894976261</v>
       </c>
       <c r="L596" t="n">
-        <v>0.7132119412188864</v>
+        <v>0.7987884022997869</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.6000873566833462</v>
+        <v>0.6062106970576662</v>
       </c>
       <c r="C598" t="n">
-        <v>0.5312569139226684</v>
+        <v>0.5395941370166375</v>
       </c>
       <c r="D598" t="n">
-        <v>0.5342354328290143</v>
+        <v>0.5390018274081234</v>
       </c>
       <c r="E598" t="n">
-        <v>0.5226567299768229</v>
+        <v>0.5204352567230376</v>
       </c>
       <c r="F598" t="n">
-        <v>0.5398283040629018</v>
+        <v>0.5458929013119207</v>
       </c>
       <c r="G598" t="n">
-        <v>0.6000873566833462</v>
+        <v>0.5988178835631501</v>
       </c>
       <c r="H598" t="n">
-        <v>0.5312569139226684</v>
+        <v>0.5736172012115666</v>
       </c>
       <c r="I598" t="n">
-        <v>0.5342354328290143</v>
+        <v>0.5991832391399425</v>
       </c>
       <c r="J598" t="n">
-        <v>0.5226567299768229</v>
+        <v>0.5492513028318129</v>
       </c>
       <c r="K598" t="n">
-        <v>0.5398283040629018</v>
+        <v>0.5894725866801297</v>
       </c>
       <c r="L598" t="n">
-        <v>0.6000873566833462</v>
+        <v>0.5495586622149047</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>2.4226552884479133</v>
+        <v>2.350695230375203</v>
       </c>
       <c r="C606" t="n">
-        <v>2.7890726395711254</v>
+        <v>2.6916030954448624</v>
       </c>
       <c r="D606" t="n">
-        <v>2.8049146357848316</v>
+        <v>2.7330634011553174</v>
       </c>
       <c r="E606" t="n">
-        <v>2.5595252563123334</v>
+        <v>2.4656819898973805</v>
       </c>
       <c r="F606" t="n">
-        <v>2.429947685530041</v>
+        <v>2.3797005897933023</v>
       </c>
       <c r="G606" t="n">
-        <v>2.4226552884479133</v>
+        <v>2.6753690596224344</v>
       </c>
       <c r="H606" t="n">
-        <v>2.7890726395711254</v>
+        <v>2.480851174406909</v>
       </c>
       <c r="I606" t="n">
-        <v>2.8049146357848316</v>
+        <v>2.6625221486163317</v>
       </c>
       <c r="J606" t="n">
-        <v>2.5595252563123334</v>
+        <v>2.482239451289598</v>
       </c>
       <c r="K606" t="n">
-        <v>2.429947685530041</v>
+        <v>2.590906748784674</v>
       </c>
       <c r="L606" t="n">
-        <v>2.4226552884479133</v>
+        <v>2.704732864599871</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>4.778643822691746</v>
+        <v>4.923451211258162</v>
       </c>
       <c r="C607" t="n">
-        <v>5.501395433216486</v>
+        <v>5.637471140135435</v>
       </c>
       <c r="D607" t="n">
-        <v>5.532643484768316</v>
+        <v>5.724308340352451</v>
       </c>
       <c r="E607" t="n">
-        <v>5.048617363527739</v>
+        <v>5.164287068298529</v>
       </c>
       <c r="F607" t="n">
-        <v>4.793027944293894</v>
+        <v>4.984201950067133</v>
       </c>
       <c r="G607" t="n">
-        <v>4.778643822691746</v>
+        <v>5.6034695042360925</v>
       </c>
       <c r="H607" t="n">
-        <v>5.501395433216486</v>
+        <v>5.196058409339331</v>
       </c>
       <c r="I607" t="n">
-        <v>5.532643484768316</v>
+        <v>5.576562086066095</v>
       </c>
       <c r="J607" t="n">
-        <v>5.048617363527739</v>
+        <v>5.19896610805387</v>
       </c>
       <c r="K607" t="n">
-        <v>4.793027944293894</v>
+        <v>5.426566066807728</v>
       </c>
       <c r="L607" t="n">
-        <v>4.778643822691746</v>
+        <v>5.664970995078116</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>3.7384700355973357</v>
+        <v>3.7014554807894418</v>
       </c>
       <c r="C608" t="n">
-        <v>3.6332768834017157</v>
+        <v>3.6180535862560426</v>
       </c>
       <c r="D608" t="n">
-        <v>4.120861090417715</v>
+        <v>4.1147357425049895</v>
       </c>
       <c r="E608" t="n">
-        <v>4.068862639682593</v>
+        <v>4.1147357425049895</v>
       </c>
       <c r="F608" t="n">
-        <v>3.814879893537681</v>
+        <v>3.773951810242073</v>
       </c>
       <c r="G608" t="n">
-        <v>3.7384700355973357</v>
+        <v>3.920960397910887</v>
       </c>
       <c r="H608" t="n">
-        <v>3.6332768834017157</v>
+        <v>4.08730417088829</v>
       </c>
       <c r="I608" t="n">
-        <v>4.120861090417715</v>
+        <v>3.705523013653479</v>
       </c>
       <c r="J608" t="n">
-        <v>4.068862639682593</v>
+        <v>4.162994990067578</v>
       </c>
       <c r="K608" t="n">
-        <v>3.814879893537681</v>
+        <v>4.092264494962373</v>
       </c>
       <c r="L608" t="n">
-        <v>3.7384700355973357</v>
+        <v>4.241542066620518</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>4.28852435723225</v>
+        <v>4.3742948443768945</v>
       </c>
       <c r="C609" t="n">
-        <v>4.3612900492253965</v>
+        <v>4.465082095917284</v>
       </c>
       <c r="D609" t="n">
-        <v>4.213342377214065</v>
+        <v>4.26139287614347</v>
       </c>
       <c r="E609" t="n">
-        <v>4.086644825757734</v>
+        <v>4.146771724607364</v>
       </c>
       <c r="F609" t="n">
-        <v>3.8247752633408334</v>
+        <v>3.89653157661032</v>
       </c>
       <c r="G609" t="n">
-        <v>4.28852435723225</v>
+        <v>3.946348266828274</v>
       </c>
       <c r="H609" t="n">
-        <v>4.3612900492253965</v>
+        <v>4.33159275676558</v>
       </c>
       <c r="I609" t="n">
-        <v>4.213342377214065</v>
+        <v>4.30793721745947</v>
       </c>
       <c r="J609" t="n">
-        <v>4.086644825757734</v>
+        <v>4.127604959830513</v>
       </c>
       <c r="K609" t="n">
-        <v>3.8247752633408334</v>
+        <v>3.762310827690621</v>
       </c>
       <c r="L609" t="n">
-        <v>4.28852435723225</v>
+        <v>4.382395389126558</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>3.562184552641736</v>
+        <v>3.5981662147896327</v>
       </c>
       <c r="C611" t="n">
-        <v>3.7272907479310278</v>
+        <v>3.7722057512247096</v>
       </c>
       <c r="D611" t="n">
-        <v>3.8345209339310804</v>
+        <v>3.8994080372066255</v>
       </c>
       <c r="E611" t="n">
-        <v>3.729929445674069</v>
+        <v>3.753207512304717</v>
       </c>
       <c r="F611" t="n">
-        <v>4.078515135528845</v>
+        <v>4.064837467616828</v>
       </c>
       <c r="G611" t="n">
-        <v>3.562184552641736</v>
+        <v>4.069770526255201</v>
       </c>
       <c r="H611" t="n">
-        <v>3.7272907479310278</v>
+        <v>3.5543093931568324</v>
       </c>
       <c r="I611" t="n">
-        <v>3.8345209339310804</v>
+        <v>4.092118255990095</v>
       </c>
       <c r="J611" t="n">
-        <v>3.729929445674069</v>
+        <v>4.132459535075074</v>
       </c>
       <c r="K611" t="n">
-        <v>4.078515135528845</v>
+        <v>4.045224262125806</v>
       </c>
       <c r="L611" t="n">
-        <v>3.562184552641736</v>
+        <v>3.6851548485909724</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>1.1129002217268675</v>
+        <v>1.1243734198890003</v>
       </c>
       <c r="C616" t="n">
-        <v>1.2231531560253952</v>
+        <v>1.2333827936111497</v>
       </c>
       <c r="D616" t="n">
-        <v>1.0698632968493864</v>
+        <v>1.071938411410358</v>
       </c>
       <c r="E616" t="n">
-        <v>1.0994110919849565</v>
+        <v>1.1312907060328699</v>
       </c>
       <c r="F616" t="n">
-        <v>1.1631931225158734</v>
+        <v>1.1814770492222955</v>
       </c>
       <c r="G616" t="n">
-        <v>1.1129002217268675</v>
+        <v>1.1101799026014523</v>
       </c>
       <c r="H616" t="n">
-        <v>1.2231531560253952</v>
+        <v>1.1760161523618984</v>
       </c>
       <c r="I616" t="n">
-        <v>1.0698632968493864</v>
+        <v>1.2259077462608003</v>
       </c>
       <c r="J616" t="n">
-        <v>1.0994110919849565</v>
+        <v>1.2721684166781946</v>
       </c>
       <c r="K616" t="n">
-        <v>1.1631931225158734</v>
+        <v>1.2341353150276515</v>
       </c>
       <c r="L616" t="n">
-        <v>1.1129002217268675</v>
+        <v>1.2463017760284498</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>3.6636062649132053</v>
+        <v>3.627688556433664</v>
       </c>
       <c r="C617" t="n">
-        <v>3.243388044171999</v>
+        <v>3.2290414627700774</v>
       </c>
       <c r="D617" t="n">
-        <v>3.261572264192501</v>
+        <v>3.2254969611651045</v>
       </c>
       <c r="E617" t="n">
-        <v>3.190882875661956</v>
+        <v>3.1143908122082915</v>
       </c>
       <c r="F617" t="n">
-        <v>3.29571742299833</v>
+        <v>3.266734554074103</v>
       </c>
       <c r="G617" t="n">
-        <v>3.6636062649132053</v>
+        <v>3.5834484513941565</v>
       </c>
       <c r="H617" t="n">
-        <v>3.243388044171999</v>
+        <v>3.4326424240098143</v>
       </c>
       <c r="I617" t="n">
-        <v>3.261572264192501</v>
+        <v>3.585634813745385</v>
       </c>
       <c r="J617" t="n">
-        <v>3.190882875661956</v>
+        <v>3.286831914316599</v>
       </c>
       <c r="K617" t="n">
-        <v>3.29571742299833</v>
+        <v>3.5275242871991725</v>
       </c>
       <c r="L617" t="n">
-        <v>3.6636062649132053</v>
+        <v>3.2886712156060125</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.092784223970324</v>
+        <v>2.071856381730621</v>
       </c>
       <c r="C618" t="n">
-        <v>1.9608224991953225</v>
+        <v>1.9315684005898386</v>
       </c>
       <c r="D618" t="n">
-        <v>2.112957065498838</v>
+        <v>2.094485881847558</v>
       </c>
       <c r="E618" t="n">
-        <v>2.133231328213098</v>
+        <v>2.0919471093035673</v>
       </c>
       <c r="F618" t="n">
-        <v>2.1246754631072404</v>
+        <v>2.1059870227888267</v>
       </c>
       <c r="G618" t="n">
-        <v>2.092784223970324</v>
+        <v>1.941345743794126</v>
       </c>
       <c r="H618" t="n">
-        <v>1.9608224991953225</v>
+        <v>2.130686871201082</v>
       </c>
       <c r="I618" t="n">
-        <v>2.112957065498838</v>
+        <v>2.1267484487596673</v>
       </c>
       <c r="J618" t="n">
-        <v>2.133231328213098</v>
+        <v>2.0818532768052225</v>
       </c>
       <c r="K618" t="n">
-        <v>2.1246754631072404</v>
+        <v>2.170888510929661</v>
       </c>
       <c r="L618" t="n">
-        <v>2.092784223970324</v>
+        <v>2.0068097276745656</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>1.2325283022395677</v>
       </c>
       <c r="C622" t="n">
-        <v>1.18269333703976</v>
+        <v>1.1877090905514678</v>
       </c>
       <c r="D622" t="n">
-        <v>1.220153984683601</v>
+        <v>1.2097037036881233</v>
       </c>
       <c r="E622" t="n">
-        <v>1.151582586037691</v>
+        <v>1.1393720930925892</v>
       </c>
       <c r="F622" t="n">
-        <v>1.1734901129336632</v>
+        <v>1.1956802925014776</v>
       </c>
       <c r="G622" t="n">
-        <v>1.2325283022395677</v>
+        <v>1.0767692309054222</v>
       </c>
       <c r="H622" t="n">
-        <v>1.18269333703976</v>
+        <v>1.0966536095485968</v>
       </c>
       <c r="I622" t="n">
-        <v>1.220153984683601</v>
+        <v>1.0513519314528372</v>
       </c>
       <c r="J622" t="n">
-        <v>1.151582586037691</v>
+        <v>1.0755872670591433</v>
       </c>
       <c r="K622" t="n">
-        <v>1.1734901129336632</v>
+        <v>1.1949512192657956</v>
       </c>
       <c r="L622" t="n">
-        <v>1.2325283022395677</v>
+        <v>1.1446628312117018</v>
       </c>
     </row>
     <row r="623">
